--- a/input/PL/reg_wages.xlsx
+++ b/input/PL/reg_wages.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://essexuniversity-my.sharepoint.com/personal/mv25449_essex_ac_uk/Documents/WorkCEMPA/SimPathsEU/InitPopAfterFEB/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_59E70B12AE07A074154FABD86D46881AEDB89C7F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Info" sheetId="1" r:id="rId2"/>
-    <sheet name="W1fa" sheetId="2" r:id="rId4"/>
-    <sheet name="W1ma" sheetId="3" r:id="rId5"/>
-    <sheet name="W1fb" sheetId="4" r:id="rId6"/>
-    <sheet name="W1mb" sheetId="5" r:id="rId7"/>
+    <sheet name="Info" sheetId="1" r:id="rId1"/>
+    <sheet name="W1fa" sheetId="2" r:id="rId2"/>
+    <sheet name="W1ma" sheetId="3" r:id="rId3"/>
+    <sheet name="W1fb" sheetId="4" r:id="rId4"/>
+    <sheet name="W1mb" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="194" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="44">
   <si>
     <t>Description:</t>
   </si>
@@ -154,65 +161,47 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <b/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <b/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <b/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,46 +221,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -279,46 +268,353 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -326,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -334,7 +630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -342,7 +638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -350,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -358,7 +654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -366,7 +662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -374,7 +670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -382,7 +678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -390,39 +686,40 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -490,415 +787,415 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2">
-        <v>0.028221828099084537</v>
+        <v>2.8221828099084537E-2</v>
       </c>
       <c r="C2">
-        <v>3.9396741039147485e-06</v>
+        <v>3.9396741039147485E-6</v>
       </c>
       <c r="D2">
-        <v>-4.3760528138607293e-08</v>
+        <v>-4.3760528138607293E-8</v>
       </c>
       <c r="E2">
-        <v>9.0172567293530358e-06</v>
+        <v>9.0172567293530358E-6</v>
       </c>
       <c r="F2">
-        <v>5.7520151669549876e-06</v>
+        <v>5.7520151669549876E-6</v>
       </c>
       <c r="G2">
-        <v>-2.1038325735775862e-07</v>
+        <v>-2.1038325735775862E-7</v>
       </c>
       <c r="H2">
-        <v>-1.3192741494577839e-07</v>
+        <v>-1.3192741494577839E-7</v>
       </c>
       <c r="I2">
-        <v>3.7178418995536255e-07</v>
+        <v>3.7178418995536255E-7</v>
       </c>
       <c r="J2">
-        <v>8.4317372271401765e-07</v>
+        <v>8.4317372271401765E-7</v>
       </c>
       <c r="K2">
-        <v>8.4767150119303543e-07</v>
+        <v>8.4767150119303543E-7</v>
       </c>
       <c r="L2">
-        <v>2.9566368279724079e-06</v>
+        <v>2.9566368279724079E-6</v>
       </c>
       <c r="M2">
-        <v>1.2068090182804621e-07</v>
+        <v>1.2068090182804621E-7</v>
       </c>
       <c r="N2">
-        <v>3.3810341724291634e-07</v>
+        <v>3.3810341724291634E-7</v>
       </c>
       <c r="O2">
-        <v>-1.238364991441445e-07</v>
+        <v>-1.238364991441445E-7</v>
       </c>
       <c r="P2">
-        <v>1.0215912513359728e-07</v>
+        <v>1.0215912513359728E-7</v>
       </c>
       <c r="Q2">
-        <v>1.2868869503707406e-06</v>
+        <v>1.2868869503707406E-6</v>
       </c>
       <c r="R2">
-        <v>-3.0443273059907e-09</v>
+        <v>-3.0443273059907E-9</v>
       </c>
       <c r="S2">
-        <v>-2.3621210190511055e-08</v>
+        <v>-2.3621210190511055E-8</v>
       </c>
       <c r="T2">
-        <v>-3.1352851083403726e-08</v>
+        <v>-3.1352851083403726E-8</v>
       </c>
       <c r="U2">
-        <v>-8.5567216401620963e-05</v>
+        <v>-8.5567216401620963E-5</v>
       </c>
       <c r="V2">
-        <v>5.6012429124135965e-06</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>5.6012429124135965E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3">
-        <v>-0.00015206973770748617</v>
+        <v>-1.5206973770748617E-4</v>
       </c>
       <c r="C3">
-        <v>-4.3760528138607293e-08</v>
+        <v>-4.3760528138607293E-8</v>
       </c>
       <c r="D3">
-        <v>5.1147553653755985e-10</v>
+        <v>5.1147553653755985E-10</v>
       </c>
       <c r="E3">
-        <v>-1.7409428068997644e-08</v>
+        <v>-1.7409428068997644E-8</v>
       </c>
       <c r="F3">
-        <v>2.147288220377858e-08</v>
+        <v>2.147288220377858E-8</v>
       </c>
       <c r="G3">
-        <v>2.997519392597074e-10</v>
+        <v>2.997519392597074E-10</v>
       </c>
       <c r="H3">
-        <v>-6.2279718514557152e-10</v>
+        <v>-6.2279718514557152E-10</v>
       </c>
       <c r="I3">
-        <v>-5.5333636605713003e-09</v>
+        <v>-5.5333636605713003E-9</v>
       </c>
       <c r="J3">
-        <v>-1.1059373311137032e-08</v>
+        <v>-1.1059373311137032E-8</v>
       </c>
       <c r="K3">
-        <v>-7.2260118268646708e-09</v>
+        <v>-7.2260118268646708E-9</v>
       </c>
       <c r="L3">
-        <v>-2.5332271651949638e-08</v>
+        <v>-2.5332271651949638E-8</v>
       </c>
       <c r="M3">
-        <v>-2.1767320020637379e-09</v>
+        <v>-2.1767320020637379E-9</v>
       </c>
       <c r="N3">
-        <v>-4.5538198974041156e-09</v>
+        <v>-4.5538198974041156E-9</v>
       </c>
       <c r="O3">
-        <v>5.3624008225968987e-10</v>
+        <v>5.3624008225968987E-10</v>
       </c>
       <c r="P3">
-        <v>-1.6669059656836359e-09</v>
+        <v>-1.6669059656836359E-9</v>
       </c>
       <c r="Q3">
-        <v>-1.6399631699118336e-08</v>
+        <v>-1.6399631699118336E-8</v>
       </c>
       <c r="R3">
-        <v>-8.6130814858915289e-11</v>
+        <v>-8.6130814858915289E-11</v>
       </c>
       <c r="S3">
-        <v>1.2166375867943272e-09</v>
+        <v>1.2166375867943272E-9</v>
       </c>
       <c r="T3">
-        <v>1.634277312334384e-09</v>
+        <v>1.634277312334384E-9</v>
       </c>
       <c r="U3">
-        <v>9.1766039847488133e-07</v>
+        <v>9.1766039847488133E-7</v>
       </c>
       <c r="V3">
-        <v>-6.5152717011151527e-08</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>-6.5152717011151527E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="B4">
-        <v>-0.041294908189502808</v>
+        <v>-4.1294908189502808E-2</v>
       </c>
       <c r="C4">
-        <v>9.0172567293530358e-06</v>
+        <v>9.0172567293530358E-6</v>
       </c>
       <c r="D4">
-        <v>-1.7409428068997644e-08</v>
+        <v>-1.7409428068997644E-8</v>
       </c>
       <c r="E4">
-        <v>0.000544215307128995</v>
+        <v>5.44215307128995E-4</v>
       </c>
       <c r="F4">
-        <v>0.00033319958150519876</v>
+        <v>3.3319958150519876E-4</v>
       </c>
       <c r="G4">
-        <v>-1.2204139413984582e-05</v>
+        <v>-1.2204139413984582E-5</v>
       </c>
       <c r="H4">
-        <v>-7.6288888058531492e-06</v>
+        <v>-7.6288888058531492E-6</v>
       </c>
       <c r="I4">
-        <v>-2.2175897891599315e-06</v>
+        <v>-2.2175897891599315E-6</v>
       </c>
       <c r="J4">
-        <v>-6.8193402183385812e-06</v>
+        <v>-6.8193402183385812E-6</v>
       </c>
       <c r="K4">
-        <v>-1.1308006653404276e-05</v>
+        <v>-1.1308006653404276E-5</v>
       </c>
       <c r="L4">
-        <v>-3.8417057068733326e-06</v>
+        <v>-3.8417057068733326E-6</v>
       </c>
       <c r="M4">
-        <v>-4.9458132332830786e-06</v>
+        <v>-4.9458132332830786E-6</v>
       </c>
       <c r="N4">
-        <v>-5.627809411566338e-07</v>
+        <v>-5.627809411566338E-7</v>
       </c>
       <c r="O4">
-        <v>-4.2670068545485246e-06</v>
+        <v>-4.2670068545485246E-6</v>
       </c>
       <c r="P4">
-        <v>4.7886988730571146e-07</v>
+        <v>4.7886988730571146E-7</v>
       </c>
       <c r="Q4">
-        <v>-2.518342379120552e-06</v>
+        <v>-2.518342379120552E-6</v>
       </c>
       <c r="R4">
-        <v>2.4622778622312496e-08</v>
+        <v>2.4622778622312496E-8</v>
       </c>
       <c r="S4">
-        <v>9.7866890382210562e-07</v>
+        <v>9.7866890382210562E-7</v>
       </c>
       <c r="T4">
-        <v>2.0194812079165307e-06</v>
+        <v>2.0194812079165307E-6</v>
       </c>
       <c r="U4">
-        <v>-0.00034583742543704799</v>
+        <v>-3.4583742543704799E-4</v>
       </c>
       <c r="V4">
-        <v>-8.5420764099746514e-06</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>-8.5420764099746514E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5">
-        <v>0.017435209011866369</v>
+        <v>1.7435209011866369E-2</v>
       </c>
       <c r="C5">
-        <v>5.7520151669549876e-06</v>
+        <v>5.7520151669549876E-6</v>
       </c>
       <c r="D5">
-        <v>2.147288220377858e-08</v>
+        <v>2.147288220377858E-8</v>
       </c>
       <c r="E5">
-        <v>0.00033319958150519876</v>
+        <v>3.3319958150519876E-4</v>
       </c>
       <c r="F5">
-        <v>0.0026382816873429071</v>
+        <v>2.6382816873429071E-3</v>
       </c>
       <c r="G5">
-        <v>-7.6596972764233314e-06</v>
+        <v>-7.6596972764233314E-6</v>
       </c>
       <c r="H5">
-        <v>-5.4272261937435953e-05</v>
+        <v>-5.4272261937435953E-5</v>
       </c>
       <c r="I5">
-        <v>-3.5684821456607896e-06</v>
+        <v>-3.5684821456607896E-6</v>
       </c>
       <c r="J5">
-        <v>-2.0500662677194108e-05</v>
+        <v>-2.0500662677194108E-5</v>
       </c>
       <c r="K5">
-        <v>-2.8369241015758091e-05</v>
+        <v>-2.8369241015758091E-5</v>
       </c>
       <c r="L5">
-        <v>-1.7153887471305845e-05</v>
+        <v>-1.7153887471305845E-5</v>
       </c>
       <c r="M5">
-        <v>-1.0608408797322664e-05</v>
+        <v>-1.0608408797322664E-5</v>
       </c>
       <c r="N5">
-        <v>-3.0484089197335197e-06</v>
+        <v>-3.0484089197335197E-6</v>
       </c>
       <c r="O5">
-        <v>-7.3288205622758489e-06</v>
+        <v>-7.3288205622758489E-6</v>
       </c>
       <c r="P5">
-        <v>1.1115588097028388e-06</v>
+        <v>1.1115588097028388E-6</v>
       </c>
       <c r="Q5">
-        <v>-4.1025626837536007e-06</v>
+        <v>-4.1025626837536007E-6</v>
       </c>
       <c r="R5">
-        <v>-1.9307941966382042e-07</v>
+        <v>-1.9307941966382042E-7</v>
       </c>
       <c r="S5">
-        <v>3.6769049999317933e-06</v>
+        <v>3.6769049999317933E-6</v>
       </c>
       <c r="T5">
-        <v>3.893495457997588e-06</v>
+        <v>3.893495457997588E-6</v>
       </c>
       <c r="U5">
-        <v>-0.00023444928571363967</v>
+        <v>-2.3444928571363967E-4</v>
       </c>
       <c r="V5">
-        <v>-3.9567854381959409e-05</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>-3.9567854381959409E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6">
-        <v>-0.009678801859081097</v>
+        <v>-9.678801859081097E-3</v>
       </c>
       <c r="C6">
-        <v>-2.1038325735775862e-07</v>
+        <v>-2.1038325735775862E-7</v>
       </c>
       <c r="D6">
-        <v>2.997519392597074e-10</v>
+        <v>2.997519392597074E-10</v>
       </c>
       <c r="E6">
-        <v>-1.2204139413984582e-05</v>
+        <v>-1.2204139413984582E-5</v>
       </c>
       <c r="F6">
-        <v>-7.6596972764233314e-06</v>
+        <v>-7.6596972764233314E-6</v>
       </c>
       <c r="G6">
-        <v>2.921385540575045e-07</v>
+        <v>2.921385540575045E-7</v>
       </c>
       <c r="H6">
-        <v>1.879777349951724e-07</v>
+        <v>1.879777349951724E-7</v>
       </c>
       <c r="I6">
-        <v>-1.1062600005415131e-08</v>
+        <v>-1.1062600005415131E-8</v>
       </c>
       <c r="J6">
-        <v>1.026255348100083e-07</v>
+        <v>1.026255348100083E-7</v>
       </c>
       <c r="K6">
-        <v>2.7627120435826788e-07</v>
+        <v>2.7627120435826788E-7</v>
       </c>
       <c r="L6">
-        <v>1.6901529230731788e-07</v>
+        <v>1.6901529230731788E-7</v>
       </c>
       <c r="M6">
-        <v>9.0785319159750885e-08</v>
+        <v>9.0785319159750885E-8</v>
       </c>
       <c r="N6">
-        <v>3.0097087744728916e-08</v>
+        <v>3.0097087744728916E-8</v>
       </c>
       <c r="O6">
-        <v>9.496221407268425e-08</v>
+        <v>9.496221407268425E-8</v>
       </c>
       <c r="P6">
-        <v>1.6068896802480572e-08</v>
+        <v>1.6068896802480572E-8</v>
       </c>
       <c r="Q6">
-        <v>1.0719338819509999e-07</v>
+        <v>1.0719338819509999E-7</v>
       </c>
       <c r="R6">
-        <v>2.8366709537948588e-09</v>
+        <v>2.8366709537948588E-9</v>
       </c>
       <c r="S6">
-        <v>-4.0797229596750681e-08</v>
+        <v>-4.0797229596750681E-8</v>
       </c>
       <c r="T6">
-        <v>-7.0791792088767467e-08</v>
+        <v>-7.0791792088767467E-8</v>
       </c>
       <c r="U6">
-        <v>7.4215545530132213e-06</v>
+        <v>7.4215545530132213E-6</v>
       </c>
       <c r="V6">
-        <v>1.0154755128875033e-07</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1.0154755128875033E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7">
-        <v>-0.014441971420507035</v>
+        <v>-1.4441971420507035E-2</v>
       </c>
       <c r="C7">
-        <v>-1.3192741494577839e-07</v>
+        <v>-1.3192741494577839E-7</v>
       </c>
       <c r="D7">
-        <v>-6.2279718514557152e-10</v>
+        <v>-6.2279718514557152E-10</v>
       </c>
       <c r="E7">
-        <v>-7.6288888058531492e-06</v>
+        <v>-7.6288888058531492E-6</v>
       </c>
       <c r="F7">
-        <v>-5.4272261937435953e-05</v>
+        <v>-5.4272261937435953E-5</v>
       </c>
       <c r="G7">
-        <v>1.879777349951724e-07</v>
+        <v>1.879777349951724E-7</v>
       </c>
       <c r="H7">
-        <v>1.1980488068320602e-06</v>
+        <v>1.1980488068320602E-6</v>
       </c>
       <c r="I7">
-        <v>3.1132053673535869e-07</v>
+        <v>3.1132053673535869E-7</v>
       </c>
       <c r="J7">
-        <v>7.2764128826474765e-07</v>
+        <v>7.2764128826474765E-7</v>
       </c>
       <c r="K7">
-        <v>1.0654525598870258e-06</v>
+        <v>1.0654525598870258E-6</v>
       </c>
       <c r="L7">
-        <v>8.9090832629188453e-07</v>
+        <v>8.9090832629188453E-7</v>
       </c>
       <c r="M7">
-        <v>1.209816098187894e-07</v>
+        <v>1.209816098187894E-7</v>
       </c>
       <c r="N7">
-        <v>6.9910388203098331e-08</v>
+        <v>6.9910388203098331E-8</v>
       </c>
       <c r="O7">
-        <v>5.4148529084220542e-08</v>
+        <v>5.4148529084220542E-8</v>
       </c>
       <c r="P7">
-        <v>-5.1197510418094307e-08</v>
+        <v>-5.1197510418094307E-8</v>
       </c>
       <c r="Q7">
-        <v>5.8920242813982746e-08</v>
+        <v>5.8920242813982746E-8</v>
       </c>
       <c r="R7">
-        <v>9.4525579509966195e-09</v>
+        <v>9.4525579509966195E-9</v>
       </c>
       <c r="S7">
-        <v>-1.0867347129254e-07</v>
+        <v>-1.0867347129254E-7</v>
       </c>
       <c r="T7">
-        <v>-1.183944413746588e-07</v>
+        <v>-1.183944413746588E-7</v>
       </c>
       <c r="U7">
-        <v>4.3230276470916549e-06</v>
+        <v>4.3230276470916549E-6</v>
       </c>
       <c r="V7">
-        <v>5.5314081060674364e-07</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>5.5314081060674364E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -906,67 +1203,67 @@
         <v>0.12076688885564968</v>
       </c>
       <c r="C8">
-        <v>3.7178418995536255e-07</v>
+        <v>3.7178418995536255E-7</v>
       </c>
       <c r="D8">
-        <v>-5.5333636605713003e-09</v>
+        <v>-5.5333636605713003E-9</v>
       </c>
       <c r="E8">
-        <v>-2.2175897891599315e-06</v>
+        <v>-2.2175897891599315E-6</v>
       </c>
       <c r="F8">
-        <v>-3.5684821456607896e-06</v>
+        <v>-3.5684821456607896E-6</v>
       </c>
       <c r="G8">
-        <v>-1.1062600005415131e-08</v>
+        <v>-1.1062600005415131E-8</v>
       </c>
       <c r="H8">
-        <v>3.1132053673535869e-07</v>
+        <v>3.1132053673535869E-7</v>
       </c>
       <c r="I8">
-        <v>0.0032679997939618565</v>
+        <v>3.2679997939618565E-3</v>
       </c>
       <c r="J8">
-        <v>0.0030276623820857246</v>
+        <v>3.0276623820857246E-3</v>
       </c>
       <c r="K8">
-        <v>0.0030281638913339836</v>
+        <v>3.0281638913339836E-3</v>
       </c>
       <c r="L8">
-        <v>0.0030272724129013287</v>
+        <v>3.0272724129013287E-3</v>
       </c>
       <c r="M8">
-        <v>7.6505132509809354e-07</v>
+        <v>7.6505132509809354E-7</v>
       </c>
       <c r="N8">
-        <v>-1.364876060161576e-06</v>
+        <v>-1.364876060161576E-6</v>
       </c>
       <c r="O8">
-        <v>-3.691235940804715e-06</v>
+        <v>-3.691235940804715E-6</v>
       </c>
       <c r="P8">
-        <v>-1.3768764468251437e-06</v>
+        <v>-1.3768764468251437E-6</v>
       </c>
       <c r="Q8">
-        <v>-3.4871077512173773e-06</v>
+        <v>-3.4871077512173773E-6</v>
       </c>
       <c r="R8">
-        <v>1.055040628316656e-07</v>
+        <v>1.055040628316656E-7</v>
       </c>
       <c r="S8">
-        <v>-2.6463265974058484e-06</v>
+        <v>-2.6463265974058484E-6</v>
       </c>
       <c r="T8">
-        <v>-1.9312994038301898e-06</v>
+        <v>-1.9312994038301898E-6</v>
       </c>
       <c r="U8">
-        <v>-0.0030457851616802686</v>
+        <v>-3.0457851616802686E-3</v>
       </c>
       <c r="V8">
-        <v>1.5166717312154494e-05</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1.5166717312154494E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -974,67 +1271,67 @@
         <v>0.15805156649943283</v>
       </c>
       <c r="C9">
-        <v>8.4317372271401765e-07</v>
+        <v>8.4317372271401765E-7</v>
       </c>
       <c r="D9">
-        <v>-1.1059373311137032e-08</v>
+        <v>-1.1059373311137032E-8</v>
       </c>
       <c r="E9">
-        <v>-6.8193402183385812e-06</v>
+        <v>-6.8193402183385812E-6</v>
       </c>
       <c r="F9">
-        <v>-2.0500662677194108e-05</v>
+        <v>-2.0500662677194108E-5</v>
       </c>
       <c r="G9">
-        <v>1.026255348100083e-07</v>
+        <v>1.026255348100083E-7</v>
       </c>
       <c r="H9">
-        <v>7.2764128826474765e-07</v>
+        <v>7.2764128826474765E-7</v>
       </c>
       <c r="I9">
-        <v>0.0030276623820857246</v>
+        <v>3.0276623820857246E-3</v>
       </c>
       <c r="J9">
-        <v>0.0030675477761516207</v>
+        <v>3.0675477761516207E-3</v>
       </c>
       <c r="K9">
-        <v>0.0030338991084162309</v>
+        <v>3.0338991084162309E-3</v>
       </c>
       <c r="L9">
-        <v>0.0030335148204005506</v>
+        <v>3.0335148204005506E-3</v>
       </c>
       <c r="M9">
-        <v>1.8675927780591668e-07</v>
+        <v>1.8675927780591668E-7</v>
       </c>
       <c r="N9">
-        <v>-8.848362644608013e-07</v>
+        <v>-8.848362644608013E-7</v>
       </c>
       <c r="O9">
-        <v>-3.9706231753579159e-06</v>
+        <v>-3.9706231753579159E-6</v>
       </c>
       <c r="P9">
-        <v>-1.8952102368341652e-06</v>
+        <v>-1.8952102368341652E-6</v>
       </c>
       <c r="Q9">
-        <v>-1.791760589507212e-06</v>
+        <v>-1.791760589507212E-6</v>
       </c>
       <c r="R9">
-        <v>9.3083014878435117e-08</v>
+        <v>9.3083014878435117E-8</v>
       </c>
       <c r="S9">
-        <v>-3.3674191002731795e-06</v>
+        <v>-3.3674191002731795E-6</v>
       </c>
       <c r="T9">
-        <v>-1.9334533506246357e-06</v>
+        <v>-1.9334533506246357E-6</v>
       </c>
       <c r="U9">
-        <v>-0.0030618229133462516</v>
+        <v>-3.0618229133462516E-3</v>
       </c>
       <c r="V9">
-        <v>2.4506878197730962e-05</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2.4506878197730962E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1042,67 +1339,67 @@
         <v>0.2122043430349948</v>
       </c>
       <c r="C10">
-        <v>8.4767150119303543e-07</v>
+        <v>8.4767150119303543E-7</v>
       </c>
       <c r="D10">
-        <v>-7.2260118268646708e-09</v>
+        <v>-7.2260118268646708E-9</v>
       </c>
       <c r="E10">
-        <v>-1.1308006653404276e-05</v>
+        <v>-1.1308006653404276E-5</v>
       </c>
       <c r="F10">
-        <v>-2.8369241015758091e-05</v>
+        <v>-2.8369241015758091E-5</v>
       </c>
       <c r="G10">
-        <v>2.7627120435826788e-07</v>
+        <v>2.7627120435826788E-7</v>
       </c>
       <c r="H10">
-        <v>1.0654525598870258e-06</v>
+        <v>1.0654525598870258E-6</v>
       </c>
       <c r="I10">
-        <v>0.0030281638913339836</v>
+        <v>3.0281638913339836E-3</v>
       </c>
       <c r="J10">
-        <v>0.0030338991084162309</v>
+        <v>3.0338991084162309E-3</v>
       </c>
       <c r="K10">
-        <v>0.0030525196397762689</v>
+        <v>3.0525196397762689E-3</v>
       </c>
       <c r="L10">
-        <v>0.0030427483595873513</v>
+        <v>3.0427483595873513E-3</v>
       </c>
       <c r="M10">
-        <v>-2.3448166659836787e-07</v>
+        <v>-2.3448166659836787E-7</v>
       </c>
       <c r="N10">
-        <v>-1.1096201922835455e-06</v>
+        <v>-1.1096201922835455E-6</v>
       </c>
       <c r="O10">
-        <v>-4.3379341872379113e-06</v>
+        <v>-4.3379341872379113E-6</v>
       </c>
       <c r="P10">
-        <v>-1.3104931164993086e-06</v>
+        <v>-1.3104931164993086E-6</v>
       </c>
       <c r="Q10">
-        <v>-3.252660825229992e-07</v>
+        <v>-3.252660825229992E-7</v>
       </c>
       <c r="R10">
-        <v>-7.6395670367471531e-09</v>
+        <v>-7.6395670367471531E-9</v>
       </c>
       <c r="S10">
-        <v>-3.4153585396998965e-06</v>
+        <v>-3.4153585396998965E-6</v>
       </c>
       <c r="T10">
-        <v>-2.4279277772050357e-06</v>
+        <v>-2.4279277772050357E-6</v>
       </c>
       <c r="U10">
-        <v>-0.0030671840658051974</v>
+        <v>-3.0671840658051974E-3</v>
       </c>
       <c r="V10">
-        <v>2.7716188615908838e-05</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>2.7716188615908838E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1110,339 +1407,339 @@
         <v>0.25460219041319526</v>
       </c>
       <c r="C11">
-        <v>2.9566368279724079e-06</v>
+        <v>2.9566368279724079E-6</v>
       </c>
       <c r="D11">
-        <v>-2.5332271651949638e-08</v>
+        <v>-2.5332271651949638E-8</v>
       </c>
       <c r="E11">
-        <v>-3.8417057068733326e-06</v>
+        <v>-3.8417057068733326E-6</v>
       </c>
       <c r="F11">
-        <v>-1.7153887471305845e-05</v>
+        <v>-1.7153887471305845E-5</v>
       </c>
       <c r="G11">
-        <v>1.6901529230731788e-07</v>
+        <v>1.6901529230731788E-7</v>
       </c>
       <c r="H11">
-        <v>8.9090832629188453e-07</v>
+        <v>8.9090832629188453E-7</v>
       </c>
       <c r="I11">
-        <v>0.0030272724129013287</v>
+        <v>3.0272724129013287E-3</v>
       </c>
       <c r="J11">
-        <v>0.0030335148204005506</v>
+        <v>3.0335148204005506E-3</v>
       </c>
       <c r="K11">
-        <v>0.0030427483595873513</v>
+        <v>3.0427483595873513E-3</v>
       </c>
       <c r="L11">
-        <v>0.0030932566988714524</v>
+        <v>3.0932566988714524E-3</v>
       </c>
       <c r="M11">
-        <v>9.747898794460846e-07</v>
+        <v>9.747898794460846E-7</v>
       </c>
       <c r="N11">
-        <v>2.5310455710252637e-07</v>
+        <v>2.5310455710252637E-7</v>
       </c>
       <c r="O11">
-        <v>-4.1935728125301529e-06</v>
+        <v>-4.1935728125301529E-6</v>
       </c>
       <c r="P11">
-        <v>3.0977431755784001e-07</v>
+        <v>3.0977431755784001E-7</v>
       </c>
       <c r="Q11">
-        <v>-1.9566763145856507e-07</v>
+        <v>-1.9566763145856507E-7</v>
       </c>
       <c r="R11">
-        <v>-2.5491723900837718e-09</v>
+        <v>-2.5491723900837718E-9</v>
       </c>
       <c r="S11">
-        <v>-3.7125465402936158e-06</v>
+        <v>-3.7125465402936158E-6</v>
       </c>
       <c r="T11">
-        <v>-3.0263695757145263e-06</v>
+        <v>-3.0263695757145263E-6</v>
       </c>
       <c r="U11">
-        <v>-0.0031283288770682224</v>
+        <v>-3.1283288770682224E-3</v>
       </c>
       <c r="V11">
-        <v>2.8649253181900568e-05</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>2.8649253181900568E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
       <c r="B12">
-        <v>0.0083335579328768592</v>
+        <v>8.3335579328768592E-3</v>
       </c>
       <c r="C12">
-        <v>1.2068090182804621e-07</v>
+        <v>1.2068090182804621E-7</v>
       </c>
       <c r="D12">
-        <v>-2.1767320020637379e-09</v>
+        <v>-2.1767320020637379E-9</v>
       </c>
       <c r="E12">
-        <v>-4.9458132332830786e-06</v>
+        <v>-4.9458132332830786E-6</v>
       </c>
       <c r="F12">
-        <v>-1.0608408797322664e-05</v>
+        <v>-1.0608408797322664E-5</v>
       </c>
       <c r="G12">
-        <v>9.0785319159750885e-08</v>
+        <v>9.0785319159750885E-8</v>
       </c>
       <c r="H12">
-        <v>1.209816098187894e-07</v>
+        <v>1.209816098187894E-7</v>
       </c>
       <c r="I12">
-        <v>7.6505132509809354e-07</v>
+        <v>7.6505132509809354E-7</v>
       </c>
       <c r="J12">
-        <v>1.8675927780591668e-07</v>
+        <v>1.8675927780591668E-7</v>
       </c>
       <c r="K12">
-        <v>-2.3448166659836787e-07</v>
+        <v>-2.3448166659836787E-7</v>
       </c>
       <c r="L12">
-        <v>9.747898794460846e-07</v>
+        <v>9.747898794460846E-7</v>
       </c>
       <c r="M12">
-        <v>9.1153503188232793e-05</v>
+        <v>9.1153503188232793E-5</v>
       </c>
       <c r="N12">
-        <v>4.4046811231707851e-05</v>
+        <v>4.4046811231707851E-5</v>
       </c>
       <c r="O12">
-        <v>4.422370120461402e-05</v>
+        <v>4.422370120461402E-5</v>
       </c>
       <c r="P12">
-        <v>4.4098559985987563e-05</v>
+        <v>4.4098559985987563E-5</v>
       </c>
       <c r="Q12">
-        <v>2.129868386484657e-06</v>
+        <v>2.129868386484657E-6</v>
       </c>
       <c r="R12">
-        <v>-8.6919700482914961e-08</v>
+        <v>-8.6919700482914961E-8</v>
       </c>
       <c r="S12">
-        <v>-3.6611526577338309e-07</v>
+        <v>-3.6611526577338309E-7</v>
       </c>
       <c r="T12">
-        <v>-8.2632936736806816e-07</v>
+        <v>-8.2632936736806816E-7</v>
       </c>
       <c r="U12">
-        <v>-3.525280006894576e-05</v>
+        <v>-3.525280006894576E-5</v>
       </c>
       <c r="V12">
-        <v>1.3685012801618141e-06</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1.3685012801618141E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
       <c r="B13">
-        <v>0.02705584039975107</v>
+        <v>2.705584039975107E-2</v>
       </c>
       <c r="C13">
-        <v>3.3810341724291634e-07</v>
+        <v>3.3810341724291634E-7</v>
       </c>
       <c r="D13">
-        <v>-4.5538198974041156e-09</v>
+        <v>-4.5538198974041156E-9</v>
       </c>
       <c r="E13">
-        <v>-5.627809411566338e-07</v>
+        <v>-5.627809411566338E-7</v>
       </c>
       <c r="F13">
-        <v>-3.0484089197335197e-06</v>
+        <v>-3.0484089197335197E-6</v>
       </c>
       <c r="G13">
-        <v>3.0097087744728916e-08</v>
+        <v>3.0097087744728916E-8</v>
       </c>
       <c r="H13">
-        <v>6.9910388203098331e-08</v>
+        <v>6.9910388203098331E-8</v>
       </c>
       <c r="I13">
-        <v>-1.364876060161576e-06</v>
+        <v>-1.364876060161576E-6</v>
       </c>
       <c r="J13">
-        <v>-8.848362644608013e-07</v>
+        <v>-8.848362644608013E-7</v>
       </c>
       <c r="K13">
-        <v>-1.1096201922835455e-06</v>
+        <v>-1.1096201922835455E-6</v>
       </c>
       <c r="L13">
-        <v>2.5310455710252637e-07</v>
+        <v>2.5310455710252637E-7</v>
       </c>
       <c r="M13">
-        <v>4.4046811231707851e-05</v>
+        <v>4.4046811231707851E-5</v>
       </c>
       <c r="N13">
-        <v>0.00011879691065105111</v>
+        <v>1.1879691065105111E-4</v>
       </c>
       <c r="O13">
-        <v>4.401200596027503e-05</v>
+        <v>4.401200596027503E-5</v>
       </c>
       <c r="P13">
-        <v>4.4058319277406546e-05</v>
+        <v>4.4058319277406546E-5</v>
       </c>
       <c r="Q13">
-        <v>1.5973644248127898e-06</v>
+        <v>1.5973644248127898E-6</v>
       </c>
       <c r="R13">
-        <v>-4.6789976826757827e-08</v>
+        <v>-4.6789976826757827E-8</v>
       </c>
       <c r="S13">
-        <v>-1.4224116434211398e-06</v>
+        <v>-1.4224116434211398E-6</v>
       </c>
       <c r="T13">
-        <v>-8.9077703775039161e-07</v>
+        <v>-8.9077703775039161E-7</v>
       </c>
       <c r="U13">
-        <v>-4.4069279660249129e-05</v>
+        <v>-4.4069279660249129E-5</v>
       </c>
       <c r="V13">
-        <v>7.4703763738124884e-08</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>7.4703763738124884E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
       <c r="B14">
-        <v>0.0011885813837463218</v>
+        <v>1.1885813837463218E-3</v>
       </c>
       <c r="C14">
-        <v>-1.238364991441445e-07</v>
+        <v>-1.238364991441445E-7</v>
       </c>
       <c r="D14">
-        <v>5.3624008225968987e-10</v>
+        <v>5.3624008225968987E-10</v>
       </c>
       <c r="E14">
-        <v>-4.2670068545485246e-06</v>
+        <v>-4.2670068545485246E-6</v>
       </c>
       <c r="F14">
-        <v>-7.3288205622758489e-06</v>
+        <v>-7.3288205622758489E-6</v>
       </c>
       <c r="G14">
-        <v>9.496221407268425e-08</v>
+        <v>9.496221407268425E-8</v>
       </c>
       <c r="H14">
-        <v>5.4148529084220542e-08</v>
+        <v>5.4148529084220542E-8</v>
       </c>
       <c r="I14">
-        <v>-3.691235940804715e-06</v>
+        <v>-3.691235940804715E-6</v>
       </c>
       <c r="J14">
-        <v>-3.9706231753579159e-06</v>
+        <v>-3.9706231753579159E-6</v>
       </c>
       <c r="K14">
-        <v>-4.3379341872379113e-06</v>
+        <v>-4.3379341872379113E-6</v>
       </c>
       <c r="L14">
-        <v>-4.1935728125301529e-06</v>
+        <v>-4.1935728125301529E-6</v>
       </c>
       <c r="M14">
-        <v>4.422370120461402e-05</v>
+        <v>4.422370120461402E-5</v>
       </c>
       <c r="N14">
-        <v>4.401200596027503e-05</v>
+        <v>4.401200596027503E-5</v>
       </c>
       <c r="O14">
-        <v>9.0645492483507368e-05</v>
+        <v>9.0645492483507368E-5</v>
       </c>
       <c r="P14">
-        <v>4.4074113009937744e-05</v>
+        <v>4.4074113009937744E-5</v>
       </c>
       <c r="Q14">
-        <v>1.4014500300570488e-06</v>
+        <v>1.4014500300570488E-6</v>
       </c>
       <c r="R14">
-        <v>-9.5670263213541079e-08</v>
+        <v>-9.5670263213541079E-8</v>
       </c>
       <c r="S14">
-        <v>1.2863238020437718e-07</v>
+        <v>1.2863238020437718E-7</v>
       </c>
       <c r="T14">
-        <v>4.0775898320495001e-07</v>
+        <v>4.0775898320495001E-7</v>
       </c>
       <c r="U14">
-        <v>-2.4852237938715475e-05</v>
+        <v>-2.4852237938715475E-5</v>
       </c>
       <c r="V14">
-        <v>-4.9554044099753112e-07</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>-4.9554044099753112E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
       <c r="B15">
-        <v>-0.044991738344973393</v>
+        <v>-4.4991738344973393E-2</v>
       </c>
       <c r="C15">
-        <v>1.0215912513359728e-07</v>
+        <v>1.0215912513359728E-7</v>
       </c>
       <c r="D15">
-        <v>-1.6669059656836359e-09</v>
+        <v>-1.6669059656836359E-9</v>
       </c>
       <c r="E15">
-        <v>4.7886988730571146e-07</v>
+        <v>4.7886988730571146E-7</v>
       </c>
       <c r="F15">
-        <v>1.1115588097028388e-06</v>
+        <v>1.1115588097028388E-6</v>
       </c>
       <c r="G15">
-        <v>1.6068896802480572e-08</v>
+        <v>1.6068896802480572E-8</v>
       </c>
       <c r="H15">
-        <v>-5.1197510418094307e-08</v>
+        <v>-5.1197510418094307E-8</v>
       </c>
       <c r="I15">
-        <v>-1.3768764468251437e-06</v>
+        <v>-1.3768764468251437E-6</v>
       </c>
       <c r="J15">
-        <v>-1.8952102368341652e-06</v>
+        <v>-1.8952102368341652E-6</v>
       </c>
       <c r="K15">
-        <v>-1.3104931164993086e-06</v>
+        <v>-1.3104931164993086E-6</v>
       </c>
       <c r="L15">
-        <v>3.0977431755784001e-07</v>
+        <v>3.0977431755784001E-7</v>
       </c>
       <c r="M15">
-        <v>4.4098559985987563e-05</v>
+        <v>4.4098559985987563E-5</v>
       </c>
       <c r="N15">
-        <v>4.4058319277406546e-05</v>
+        <v>4.4058319277406546E-5</v>
       </c>
       <c r="O15">
-        <v>4.4074113009937744e-05</v>
+        <v>4.4074113009937744E-5</v>
       </c>
       <c r="P15">
-        <v>6.1915998958013036e-05</v>
+        <v>6.1915998958013036E-5</v>
       </c>
       <c r="Q15">
-        <v>1.4178507909682633e-06</v>
+        <v>1.4178507909682633E-6</v>
       </c>
       <c r="R15">
-        <v>-6.1366654125358135e-08</v>
+        <v>-6.1366654125358135E-8</v>
       </c>
       <c r="S15">
-        <v>-1.0260823671818835e-06</v>
+        <v>-1.0260823671818835E-6</v>
       </c>
       <c r="T15">
-        <v>-8.0326848812981917e-07</v>
+        <v>-8.0326848812981917E-7</v>
       </c>
       <c r="U15">
-        <v>-3.806822766392523e-05</v>
+        <v>-3.806822766392523E-5</v>
       </c>
       <c r="V15">
-        <v>5.8391775548212476e-07</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>5.8391775548212476E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1450,271 +1747,271 @@
         <v>0.15440435516845671</v>
       </c>
       <c r="C16">
-        <v>1.2868869503707406e-06</v>
+        <v>1.2868869503707406E-6</v>
       </c>
       <c r="D16">
-        <v>-1.6399631699118336e-08</v>
+        <v>-1.6399631699118336E-8</v>
       </c>
       <c r="E16">
-        <v>-2.518342379120552e-06</v>
+        <v>-2.518342379120552E-6</v>
       </c>
       <c r="F16">
-        <v>-4.1025626837536007e-06</v>
+        <v>-4.1025626837536007E-6</v>
       </c>
       <c r="G16">
-        <v>1.0719338819509999e-07</v>
+        <v>1.0719338819509999E-7</v>
       </c>
       <c r="H16">
-        <v>5.8920242813982746e-08</v>
+        <v>5.8920242813982746E-8</v>
       </c>
       <c r="I16">
-        <v>-3.4871077512173773e-06</v>
+        <v>-3.4871077512173773E-6</v>
       </c>
       <c r="J16">
-        <v>-1.791760589507212e-06</v>
+        <v>-1.791760589507212E-6</v>
       </c>
       <c r="K16">
-        <v>-3.252660825229992e-07</v>
+        <v>-3.252660825229992E-7</v>
       </c>
       <c r="L16">
-        <v>-1.9566763145856507e-07</v>
+        <v>-1.9566763145856507E-7</v>
       </c>
       <c r="M16">
-        <v>2.129868386484657e-06</v>
+        <v>2.129868386484657E-6</v>
       </c>
       <c r="N16">
-        <v>1.5973644248127898e-06</v>
+        <v>1.5973644248127898E-6</v>
       </c>
       <c r="O16">
-        <v>1.4014500300570488e-06</v>
+        <v>1.4014500300570488E-6</v>
       </c>
       <c r="P16">
-        <v>1.4178507909682633e-06</v>
+        <v>1.4178507909682633E-6</v>
       </c>
       <c r="Q16">
-        <v>0.00010275622091604013</v>
+        <v>1.0275622091604013E-4</v>
       </c>
       <c r="R16">
-        <v>1.1882449274786724e-07</v>
+        <v>1.1882449274786724E-7</v>
       </c>
       <c r="S16">
-        <v>-1.0881082168777707e-06</v>
+        <v>-1.0881082168777707E-6</v>
       </c>
       <c r="T16">
-        <v>-1.3085758463989376e-06</v>
+        <v>-1.3085758463989376E-6</v>
       </c>
       <c r="U16">
-        <v>-4.4358779436278592e-05</v>
+        <v>-4.4358779436278592E-5</v>
       </c>
       <c r="V16">
-        <v>-5.7008368325542436e-06</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>-5.7008368325542436E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
       <c r="B17">
-        <v>0.0038295325501462849</v>
+        <v>3.8295325501462849E-3</v>
       </c>
       <c r="C17">
-        <v>-3.0443273059907e-09</v>
+        <v>-3.0443273059907E-9</v>
       </c>
       <c r="D17">
-        <v>-8.6130814858915289e-11</v>
+        <v>-8.6130814858915289E-11</v>
       </c>
       <c r="E17">
-        <v>2.4622778622312496e-08</v>
+        <v>2.4622778622312496E-8</v>
       </c>
       <c r="F17">
-        <v>-1.9307941966382042e-07</v>
+        <v>-1.9307941966382042E-7</v>
       </c>
       <c r="G17">
-        <v>2.8366709537948588e-09</v>
+        <v>2.8366709537948588E-9</v>
       </c>
       <c r="H17">
-        <v>9.4525579509966195e-09</v>
+        <v>9.4525579509966195E-9</v>
       </c>
       <c r="I17">
-        <v>1.055040628316656e-07</v>
+        <v>1.055040628316656E-7</v>
       </c>
       <c r="J17">
-        <v>9.3083014878435117e-08</v>
+        <v>9.3083014878435117E-8</v>
       </c>
       <c r="K17">
-        <v>-7.6395670367471531e-09</v>
+        <v>-7.6395670367471531E-9</v>
       </c>
       <c r="L17">
-        <v>-2.5491723900837718e-09</v>
+        <v>-2.5491723900837718E-9</v>
       </c>
       <c r="M17">
-        <v>-8.6919700482914961e-08</v>
+        <v>-8.6919700482914961E-8</v>
       </c>
       <c r="N17">
-        <v>-4.6789976826757827e-08</v>
+        <v>-4.6789976826757827E-8</v>
       </c>
       <c r="O17">
-        <v>-9.5670263213541079e-08</v>
+        <v>-9.5670263213541079E-8</v>
       </c>
       <c r="P17">
-        <v>-6.1366654125358135e-08</v>
+        <v>-6.1366654125358135E-8</v>
       </c>
       <c r="Q17">
-        <v>1.1882449274786724e-07</v>
+        <v>1.1882449274786724E-7</v>
       </c>
       <c r="R17">
-        <v>5.0845163613639966e-08</v>
+        <v>5.0845163613639966E-8</v>
       </c>
       <c r="S17">
-        <v>-7.7056542250381076e-07</v>
+        <v>-7.7056542250381076E-7</v>
       </c>
       <c r="T17">
-        <v>-9.2903032268191193e-07</v>
+        <v>-9.2903032268191193E-7</v>
       </c>
       <c r="U17">
-        <v>-5.228965281488511e-06</v>
+        <v>-5.228965281488511E-6</v>
       </c>
       <c r="V17">
-        <v>-7.3700802080627295e-09</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>-7.3700802080627295E-9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>39</v>
       </c>
       <c r="B18">
-        <v>0.049855895566313965</v>
+        <v>4.9855895566313965E-2</v>
       </c>
       <c r="C18">
-        <v>-2.3621210190511055e-08</v>
+        <v>-2.3621210190511055E-8</v>
       </c>
       <c r="D18">
-        <v>1.2166375867943272e-09</v>
+        <v>1.2166375867943272E-9</v>
       </c>
       <c r="E18">
-        <v>9.7866890382210562e-07</v>
+        <v>9.7866890382210562E-7</v>
       </c>
       <c r="F18">
-        <v>3.6769049999317933e-06</v>
+        <v>3.6769049999317933E-6</v>
       </c>
       <c r="G18">
-        <v>-4.0797229596750681e-08</v>
+        <v>-4.0797229596750681E-8</v>
       </c>
       <c r="H18">
-        <v>-1.0867347129254e-07</v>
+        <v>-1.0867347129254E-7</v>
       </c>
       <c r="I18">
-        <v>-2.6463265974058484e-06</v>
+        <v>-2.6463265974058484E-6</v>
       </c>
       <c r="J18">
-        <v>-3.3674191002731795e-06</v>
+        <v>-3.3674191002731795E-6</v>
       </c>
       <c r="K18">
-        <v>-3.4153585396998965e-06</v>
+        <v>-3.4153585396998965E-6</v>
       </c>
       <c r="L18">
-        <v>-3.7125465402936158e-06</v>
+        <v>-3.7125465402936158E-6</v>
       </c>
       <c r="M18">
-        <v>-3.6611526577338309e-07</v>
+        <v>-3.6611526577338309E-7</v>
       </c>
       <c r="N18">
-        <v>-1.4224116434211398e-06</v>
+        <v>-1.4224116434211398E-6</v>
       </c>
       <c r="O18">
-        <v>1.2863238020437718e-07</v>
+        <v>1.2863238020437718E-7</v>
       </c>
       <c r="P18">
-        <v>-1.0260823671818835e-06</v>
+        <v>-1.0260823671818835E-6</v>
       </c>
       <c r="Q18">
-        <v>-1.0881082168777707e-06</v>
+        <v>-1.0881082168777707E-6</v>
       </c>
       <c r="R18">
-        <v>-7.7056542250381076e-07</v>
+        <v>-7.7056542250381076E-7</v>
       </c>
       <c r="S18">
-        <v>0.00013364424020636531</v>
+        <v>1.3364424020636531E-4</v>
       </c>
       <c r="T18">
-        <v>2.2831571976786849e-05</v>
+        <v>2.2831571976786849E-5</v>
       </c>
       <c r="U18">
-        <v>7.8067257599261634e-05</v>
+        <v>7.8067257599261634E-5</v>
       </c>
       <c r="V18">
-        <v>-1.7272678892905792e-06</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>-1.7272678892905792E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="B19">
-        <v>0.027431351526688626</v>
+        <v>2.7431351526688626E-2</v>
       </c>
       <c r="C19">
-        <v>-3.1352851083403726e-08</v>
+        <v>-3.1352851083403726E-8</v>
       </c>
       <c r="D19">
-        <v>1.634277312334384e-09</v>
+        <v>1.634277312334384E-9</v>
       </c>
       <c r="E19">
-        <v>2.0194812079165307e-06</v>
+        <v>2.0194812079165307E-6</v>
       </c>
       <c r="F19">
-        <v>3.893495457997588e-06</v>
+        <v>3.893495457997588E-6</v>
       </c>
       <c r="G19">
-        <v>-7.0791792088767467e-08</v>
+        <v>-7.0791792088767467E-8</v>
       </c>
       <c r="H19">
-        <v>-1.183944413746588e-07</v>
+        <v>-1.183944413746588E-7</v>
       </c>
       <c r="I19">
-        <v>-1.9312994038301898e-06</v>
+        <v>-1.9312994038301898E-6</v>
       </c>
       <c r="J19">
-        <v>-1.9334533506246357e-06</v>
+        <v>-1.9334533506246357E-6</v>
       </c>
       <c r="K19">
-        <v>-2.4279277772050357e-06</v>
+        <v>-2.4279277772050357E-6</v>
       </c>
       <c r="L19">
-        <v>-3.0263695757145263e-06</v>
+        <v>-3.0263695757145263E-6</v>
       </c>
       <c r="M19">
-        <v>-8.2632936736806816e-07</v>
+        <v>-8.2632936736806816E-7</v>
       </c>
       <c r="N19">
-        <v>-8.9077703775039161e-07</v>
+        <v>-8.9077703775039161E-7</v>
       </c>
       <c r="O19">
-        <v>4.0775898320495001e-07</v>
+        <v>4.0775898320495001E-7</v>
       </c>
       <c r="P19">
-        <v>-8.0326848812981917e-07</v>
+        <v>-8.0326848812981917E-7</v>
       </c>
       <c r="Q19">
-        <v>-1.3085758463989376e-06</v>
+        <v>-1.3085758463989376E-6</v>
       </c>
       <c r="R19">
-        <v>-9.2903032268191193e-07</v>
+        <v>-9.2903032268191193E-7</v>
       </c>
       <c r="S19">
-        <v>2.2831571976786849e-05</v>
+        <v>2.2831571976786849E-5</v>
       </c>
       <c r="T19">
-        <v>0.00014814108933439225</v>
+        <v>1.4814108933439225E-4</v>
       </c>
       <c r="U19">
-        <v>9.3305142780873173e-05</v>
+        <v>9.3305142780873173E-5</v>
       </c>
       <c r="V19">
-        <v>-3.9560632178029668e-07</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>-3.9560632178029668E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1722,67 +2019,67 @@
         <v>0.11967648653930617</v>
       </c>
       <c r="C20">
-        <v>-8.5567216401620963e-05</v>
+        <v>-8.5567216401620963E-5</v>
       </c>
       <c r="D20">
-        <v>9.1766039847488133e-07</v>
+        <v>9.1766039847488133E-7</v>
       </c>
       <c r="E20">
-        <v>-0.00034583742543704799</v>
+        <v>-3.4583742543704799E-4</v>
       </c>
       <c r="F20">
-        <v>-0.00023444928571363967</v>
+        <v>-2.3444928571363967E-4</v>
       </c>
       <c r="G20">
-        <v>7.4215545530132213e-06</v>
+        <v>7.4215545530132213E-6</v>
       </c>
       <c r="H20">
-        <v>4.3230276470916549e-06</v>
+        <v>4.3230276470916549E-6</v>
       </c>
       <c r="I20">
-        <v>-0.0030457851616802686</v>
+        <v>-3.0457851616802686E-3</v>
       </c>
       <c r="J20">
-        <v>-0.0030618229133462516</v>
+        <v>-3.0618229133462516E-3</v>
       </c>
       <c r="K20">
-        <v>-0.0030671840658051974</v>
+        <v>-3.0671840658051974E-3</v>
       </c>
       <c r="L20">
-        <v>-0.0031283288770682224</v>
+        <v>-3.1283288770682224E-3</v>
       </c>
       <c r="M20">
-        <v>-3.525280006894576e-05</v>
+        <v>-3.525280006894576E-5</v>
       </c>
       <c r="N20">
-        <v>-4.4069279660249129e-05</v>
+        <v>-4.4069279660249129E-5</v>
       </c>
       <c r="O20">
-        <v>-2.4852237938715475e-05</v>
+        <v>-2.4852237938715475E-5</v>
       </c>
       <c r="P20">
-        <v>-3.806822766392523e-05</v>
+        <v>-3.806822766392523E-5</v>
       </c>
       <c r="Q20">
-        <v>-4.4358779436278592e-05</v>
+        <v>-4.4358779436278592E-5</v>
       </c>
       <c r="R20">
-        <v>-5.228965281488511e-06</v>
+        <v>-5.228965281488511E-6</v>
       </c>
       <c r="S20">
-        <v>7.8067257599261634e-05</v>
+        <v>7.8067257599261634E-5</v>
       </c>
       <c r="T20">
-        <v>9.3305142780873173e-05</v>
+        <v>9.3305142780873173E-5</v>
       </c>
       <c r="U20">
-        <v>0.0055952521152258308</v>
+        <v>5.5952521152258308E-3</v>
       </c>
       <c r="V20">
-        <v>-0.00015218188966993043</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>-1.5218188966993043E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1790,79 +2087,80 @@
         <v>-0.11901755009190702</v>
       </c>
       <c r="C21">
-        <v>5.6012429124135965e-06</v>
+        <v>5.6012429124135965E-6</v>
       </c>
       <c r="D21">
-        <v>-6.5152717011151527e-08</v>
+        <v>-6.5152717011151527E-8</v>
       </c>
       <c r="E21">
-        <v>-8.5420764099746514e-06</v>
+        <v>-8.5420764099746514E-6</v>
       </c>
       <c r="F21">
-        <v>-3.9567854381959409e-05</v>
+        <v>-3.9567854381959409E-5</v>
       </c>
       <c r="G21">
-        <v>1.0154755128875033e-07</v>
+        <v>1.0154755128875033E-7</v>
       </c>
       <c r="H21">
-        <v>5.5314081060674364e-07</v>
+        <v>5.5314081060674364E-7</v>
       </c>
       <c r="I21">
-        <v>1.5166717312154494e-05</v>
+        <v>1.5166717312154494E-5</v>
       </c>
       <c r="J21">
-        <v>2.4506878197730962e-05</v>
+        <v>2.4506878197730962E-5</v>
       </c>
       <c r="K21">
-        <v>2.7716188615908838e-05</v>
+        <v>2.7716188615908838E-5</v>
       </c>
       <c r="L21">
-        <v>2.8649253181900568e-05</v>
+        <v>2.8649253181900568E-5</v>
       </c>
       <c r="M21">
-        <v>1.3685012801618141e-06</v>
+        <v>1.3685012801618141E-6</v>
       </c>
       <c r="N21">
-        <v>7.4703763738124884e-08</v>
+        <v>7.4703763738124884E-8</v>
       </c>
       <c r="O21">
-        <v>-4.9554044099753112e-07</v>
+        <v>-4.9554044099753112E-7</v>
       </c>
       <c r="P21">
-        <v>5.8391775548212476e-07</v>
+        <v>5.8391775548212476E-7</v>
       </c>
       <c r="Q21">
-        <v>-5.7008368325542436e-06</v>
+        <v>-5.7008368325542436E-6</v>
       </c>
       <c r="R21">
-        <v>-7.3700802080627295e-09</v>
+        <v>-7.3700802080627295E-9</v>
       </c>
       <c r="S21">
-        <v>-1.7272678892905792e-06</v>
+        <v>-1.7272678892905792E-6</v>
       </c>
       <c r="T21">
-        <v>-3.9560632178029668e-07</v>
+        <v>-3.9560632178029668E-7</v>
       </c>
       <c r="U21">
-        <v>-0.00015218188966993043</v>
+        <v>-1.5218188966993043E-4</v>
       </c>
       <c r="V21">
-        <v>6.3531170575090591e-05</v>
+        <v>6.3531170575090591E-5</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1930,551 +2228,551 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2">
-        <v>0.043592901124043369</v>
+        <v>4.3592901124043369E-2</v>
       </c>
       <c r="C2">
-        <v>3.2206018856665638e-06</v>
+        <v>3.2206018856665638E-6</v>
       </c>
       <c r="D2">
-        <v>-3.3770939767060129e-08</v>
+        <v>-3.3770939767060129E-8</v>
       </c>
       <c r="E2">
-        <v>1.4917070440772305e-05</v>
+        <v>1.4917070440772305E-5</v>
       </c>
       <c r="F2">
-        <v>1.4658271238352207e-05</v>
+        <v>1.4658271238352207E-5</v>
       </c>
       <c r="G2">
-        <v>-3.4061773709745298e-07</v>
+        <v>-3.4061773709745298E-7</v>
       </c>
       <c r="H2">
-        <v>-3.2716951269188252e-07</v>
+        <v>-3.2716951269188252E-7</v>
       </c>
       <c r="I2">
-        <v>9.2480046709029532e-07</v>
+        <v>9.2480046709029532E-7</v>
       </c>
       <c r="J2">
-        <v>1.7908031423996577e-06</v>
+        <v>1.7908031423996577E-6</v>
       </c>
       <c r="K2">
-        <v>1.4188452339631969e-06</v>
+        <v>1.4188452339631969E-6</v>
       </c>
       <c r="L2">
-        <v>3.2013446179104678e-06</v>
+        <v>3.2013446179104678E-6</v>
       </c>
       <c r="M2">
-        <v>1.3295745918648144e-07</v>
+        <v>1.3295745918648144E-7</v>
       </c>
       <c r="N2">
-        <v>-7.8782222113765361e-08</v>
+        <v>-7.8782222113765361E-8</v>
       </c>
       <c r="O2">
-        <v>-1.8770160486494024e-07</v>
+        <v>-1.8770160486494024E-7</v>
       </c>
       <c r="P2">
-        <v>-3.5714799957775621e-08</v>
+        <v>-3.5714799957775621E-8</v>
       </c>
       <c r="Q2">
-        <v>2.5507678301275693e-06</v>
+        <v>2.5507678301275693E-6</v>
       </c>
       <c r="R2">
-        <v>3.314239666872741e-09</v>
+        <v>3.314239666872741E-9</v>
       </c>
       <c r="S2">
-        <v>-1.1123191806743202e-07</v>
+        <v>-1.1123191806743202E-7</v>
       </c>
       <c r="T2">
-        <v>-4.6588364297259917e-08</v>
+        <v>-4.6588364297259917E-8</v>
       </c>
       <c r="U2">
-        <v>-7.4613092364366954e-05</v>
+        <v>-7.4613092364366954E-5</v>
       </c>
       <c r="V2">
-        <v>6.0239027218038284e-06</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>6.0239027218038284E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3">
-        <v>-0.00038645118715319486</v>
+        <v>-3.8645118715319486E-4</v>
       </c>
       <c r="C3">
-        <v>-3.3770939767060129e-08</v>
+        <v>-3.3770939767060129E-8</v>
       </c>
       <c r="D3">
-        <v>3.866829744841141e-10</v>
+        <v>3.866829744841141E-10</v>
       </c>
       <c r="E3">
-        <v>-4.832941320992192e-08</v>
+        <v>-4.832941320992192E-8</v>
       </c>
       <c r="F3">
-        <v>-4.2885068910992562e-08</v>
+        <v>-4.2885068910992562E-8</v>
       </c>
       <c r="G3">
-        <v>9.2694092479948541e-10</v>
+        <v>9.2694092479948541E-10</v>
       </c>
       <c r="H3">
-        <v>7.370277783136539e-10</v>
+        <v>7.370277783136539E-10</v>
       </c>
       <c r="I3">
-        <v>-1.0983083483309323e-08</v>
+        <v>-1.0983083483309323E-8</v>
       </c>
       <c r="J3">
-        <v>-2.1604064327458507e-08</v>
+        <v>-2.1604064327458507E-8</v>
       </c>
       <c r="K3">
-        <v>-1.3428558171883629e-08</v>
+        <v>-1.3428558171883629E-8</v>
       </c>
       <c r="L3">
-        <v>-2.8161047602666538e-08</v>
+        <v>-2.8161047602666538E-8</v>
       </c>
       <c r="M3">
-        <v>-2.384763821274194e-09</v>
+        <v>-2.384763821274194E-9</v>
       </c>
       <c r="N3">
-        <v>-2.7560553429402627e-10</v>
+        <v>-2.7560553429402627E-10</v>
       </c>
       <c r="O3">
-        <v>1.350144840732081e-09</v>
+        <v>1.350144840732081E-9</v>
       </c>
       <c r="P3">
-        <v>2.2462124056915422e-10</v>
+        <v>2.2462124056915422E-10</v>
       </c>
       <c r="Q3">
-        <v>-3.2588011086063637e-08</v>
+        <v>-3.2588011086063637E-8</v>
       </c>
       <c r="R3">
-        <v>-1.2929205771067281e-10</v>
+        <v>-1.2929205771067281E-10</v>
       </c>
       <c r="S3">
-        <v>2.7654401231375974e-09</v>
+        <v>2.7654401231375974E-9</v>
       </c>
       <c r="T3">
-        <v>1.8246189847060525e-09</v>
+        <v>1.8246189847060525E-9</v>
       </c>
       <c r="U3">
-        <v>7.3423983532499709e-07</v>
+        <v>7.3423983532499709E-7</v>
       </c>
       <c r="V3">
-        <v>-7.2516605912914439e-08</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>-7.2516605912914439E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="B4">
-        <v>-0.090530954676465408</v>
+        <v>-9.0530954676465408E-2</v>
       </c>
       <c r="C4">
-        <v>1.4917070440772305e-05</v>
+        <v>1.4917070440772305E-5</v>
       </c>
       <c r="D4">
-        <v>-4.832941320992192e-08</v>
+        <v>-4.832941320992192E-8</v>
       </c>
       <c r="E4">
-        <v>0.00061492839486870787</v>
+        <v>6.1492839486870787E-4</v>
       </c>
       <c r="F4">
-        <v>0.00048246816428757785</v>
+        <v>4.8246816428757785E-4</v>
       </c>
       <c r="G4">
-        <v>-1.3754885548264782e-05</v>
+        <v>-1.3754885548264782E-5</v>
       </c>
       <c r="H4">
-        <v>-1.0871304591192617e-05</v>
+        <v>-1.0871304591192617E-5</v>
       </c>
       <c r="I4">
-        <v>1.2912881379908431e-06</v>
+        <v>1.2912881379908431E-6</v>
       </c>
       <c r="J4">
-        <v>-2.6452284565903375e-06</v>
+        <v>-2.6452284565903375E-6</v>
       </c>
       <c r="K4">
-        <v>-8.1666654488190945e-06</v>
+        <v>-8.1666654488190945E-6</v>
       </c>
       <c r="L4">
-        <v>-2.6287765468338179e-06</v>
+        <v>-2.6287765468338179E-6</v>
       </c>
       <c r="M4">
-        <v>-2.0650137708531209e-06</v>
+        <v>-2.0650137708531209E-6</v>
       </c>
       <c r="N4">
-        <v>-2.1762409589631016e-06</v>
+        <v>-2.1762409589631016E-6</v>
       </c>
       <c r="O4">
-        <v>-2.2079654469453422e-06</v>
+        <v>-2.2079654469453422E-6</v>
       </c>
       <c r="P4">
-        <v>4.7825852857397362e-07</v>
+        <v>4.7825852857397362E-7</v>
       </c>
       <c r="Q4">
-        <v>-2.3707761787512191e-06</v>
+        <v>-2.3707761787512191E-6</v>
       </c>
       <c r="R4">
-        <v>6.297365344799205e-08</v>
+        <v>6.297365344799205E-8</v>
       </c>
       <c r="S4">
-        <v>2.7686593490405425e-06</v>
+        <v>2.7686593490405425E-6</v>
       </c>
       <c r="T4">
-        <v>1.5283742408599028e-06</v>
+        <v>1.5283742408599028E-6</v>
       </c>
       <c r="U4">
-        <v>-0.0005590087981275397</v>
+        <v>-5.590087981275397E-4</v>
       </c>
       <c r="V4">
-        <v>1.3285894679176042e-06</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1.3285894679176042E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5">
-        <v>0.014443388803588952</v>
+        <v>1.4443388803588952E-2</v>
       </c>
       <c r="C5">
-        <v>1.4658271238352207e-05</v>
+        <v>1.4658271238352207E-5</v>
       </c>
       <c r="D5">
-        <v>-4.2885068910992562e-08</v>
+        <v>-4.2885068910992562E-8</v>
       </c>
       <c r="E5">
-        <v>0.00048246816428757785</v>
+        <v>4.8246816428757785E-4</v>
       </c>
       <c r="F5">
-        <v>0.001546394931913725</v>
+        <v>1.546394931913725E-3</v>
       </c>
       <c r="G5">
-        <v>-1.0937817760013365e-05</v>
+        <v>-1.0937817760013365E-5</v>
       </c>
       <c r="H5">
-        <v>-3.3076335651950156e-05</v>
+        <v>-3.3076335651950156E-5</v>
       </c>
       <c r="I5">
-        <v>-7.0014296356878522e-06</v>
+        <v>-7.0014296356878522E-6</v>
       </c>
       <c r="J5">
-        <v>-2.225225440791077e-05</v>
+        <v>-2.225225440791077E-5</v>
       </c>
       <c r="K5">
-        <v>-3.0614486621214361e-05</v>
+        <v>-3.0614486621214361E-5</v>
       </c>
       <c r="L5">
-        <v>-2.3756307200096674e-05</v>
+        <v>-2.3756307200096674E-5</v>
       </c>
       <c r="M5">
-        <v>-9.4867826717167846e-06</v>
+        <v>-9.4867826717167846E-6</v>
       </c>
       <c r="N5">
-        <v>-3.5514857081890773e-06</v>
+        <v>-3.5514857081890773E-6</v>
       </c>
       <c r="O5">
-        <v>-8.3969087295227919e-06</v>
+        <v>-8.3969087295227919E-6</v>
       </c>
       <c r="P5">
-        <v>2.3244275395470005e-06</v>
+        <v>2.3244275395470005E-6</v>
       </c>
       <c r="Q5">
-        <v>-8.3083306728247162e-06</v>
+        <v>-8.3083306728247162E-6</v>
       </c>
       <c r="R5">
-        <v>-1.3791127130437086e-07</v>
+        <v>-1.3791127130437086E-7</v>
       </c>
       <c r="S5">
-        <v>5.7755206930441918e-06</v>
+        <v>5.7755206930441918E-6</v>
       </c>
       <c r="T5">
-        <v>3.9326859065655088e-06</v>
+        <v>3.9326859065655088E-6</v>
       </c>
       <c r="U5">
-        <v>-0.00050506134452029186</v>
+        <v>-5.0506134452029186E-4</v>
       </c>
       <c r="V5">
-        <v>-3.9276490770532653e-05</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>-3.9276490770532653E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6">
-        <v>-0.0074380518368222176</v>
+        <v>-7.4380518368222176E-3</v>
       </c>
       <c r="C6">
-        <v>-3.4061773709745298e-07</v>
+        <v>-3.4061773709745298E-7</v>
       </c>
       <c r="D6">
-        <v>9.2694092479948541e-10</v>
+        <v>9.2694092479948541E-10</v>
       </c>
       <c r="E6">
-        <v>-1.3754885548264782e-05</v>
+        <v>-1.3754885548264782E-5</v>
       </c>
       <c r="F6">
-        <v>-1.0937817760013365e-05</v>
+        <v>-1.0937817760013365E-5</v>
       </c>
       <c r="G6">
-        <v>3.3159692265053129e-07</v>
+        <v>3.3159692265053129E-7</v>
       </c>
       <c r="H6">
-        <v>2.6513957932334023e-07</v>
+        <v>2.6513957932334023E-7</v>
       </c>
       <c r="I6">
-        <v>-3.7427363328476533e-08</v>
+        <v>-3.7427363328476533E-8</v>
       </c>
       <c r="J6">
-        <v>7.540555320201622e-08</v>
+        <v>7.540555320201622E-8</v>
       </c>
       <c r="K6">
-        <v>2.7117897793638351e-07</v>
+        <v>2.7117897793638351E-7</v>
       </c>
       <c r="L6">
-        <v>2.1009024307438583e-07</v>
+        <v>2.1009024307438583E-7</v>
       </c>
       <c r="M6">
-        <v>-5.114399103632702e-09</v>
+        <v>-5.114399103632702E-9</v>
       </c>
       <c r="N6">
-        <v>4.5372530691248786e-08</v>
+        <v>4.5372530691248786E-8</v>
       </c>
       <c r="O6">
-        <v>1.6788789472576808e-08</v>
+        <v>1.6788789472576808E-8</v>
       </c>
       <c r="P6">
-        <v>-1.5848106904668379e-08</v>
+        <v>-1.5848106904668379E-8</v>
       </c>
       <c r="Q6">
-        <v>1.4238444213742215e-07</v>
+        <v>1.4238444213742215E-7</v>
       </c>
       <c r="R6">
-        <v>1.1605848139819005e-09</v>
+        <v>1.1605848139819005E-9</v>
       </c>
       <c r="S6">
-        <v>-8.1834175959856852e-08</v>
+        <v>-8.1834175959856852E-8</v>
       </c>
       <c r="T6">
-        <v>-6.2063398193029576e-08</v>
+        <v>-6.2063398193029576E-8</v>
       </c>
       <c r="U6">
-        <v>1.1952993746486194e-05</v>
+        <v>1.1952993746486194E-5</v>
       </c>
       <c r="V6">
-        <v>4.6580279363849994e-08</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>4.6580279363849994E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7">
-        <v>-0.015095793384027103</v>
+        <v>-1.5095793384027103E-2</v>
       </c>
       <c r="C7">
-        <v>-3.2716951269188252e-07</v>
+        <v>-3.2716951269188252E-7</v>
       </c>
       <c r="D7">
-        <v>7.370277783136539e-10</v>
+        <v>7.370277783136539E-10</v>
       </c>
       <c r="E7">
-        <v>-1.0871304591192617e-05</v>
+        <v>-1.0871304591192617E-5</v>
       </c>
       <c r="F7">
-        <v>-3.3076335651950156e-05</v>
+        <v>-3.3076335651950156E-5</v>
       </c>
       <c r="G7">
-        <v>2.6513957932334023e-07</v>
+        <v>2.6513957932334023E-7</v>
       </c>
       <c r="H7">
-        <v>7.7471986012717756e-07</v>
+        <v>7.7471986012717756E-7</v>
       </c>
       <c r="I7">
-        <v>7.5845612653072009e-08</v>
+        <v>7.5845612653072009E-8</v>
       </c>
       <c r="J7">
-        <v>4.0845824661898323e-07</v>
+        <v>4.0845824661898323E-7</v>
       </c>
       <c r="K7">
-        <v>6.915957620135601e-07</v>
+        <v>6.915957620135601E-7</v>
       </c>
       <c r="L7">
-        <v>6.2290106383673911e-07</v>
+        <v>6.2290106383673911E-7</v>
       </c>
       <c r="M7">
-        <v>1.1239029328960749e-07</v>
+        <v>1.1239029328960749E-7</v>
       </c>
       <c r="N7">
-        <v>7.0192990960282088e-08</v>
+        <v>7.0192990960282088E-8</v>
       </c>
       <c r="O7">
-        <v>7.9907754360265199e-08</v>
+        <v>7.9907754360265199E-8</v>
       </c>
       <c r="P7">
-        <v>-1.2595538874421535e-07</v>
+        <v>-1.2595538874421535E-7</v>
       </c>
       <c r="Q7">
-        <v>1.5073577212503051e-07</v>
+        <v>1.5073577212503051E-7</v>
       </c>
       <c r="R7">
-        <v>7.1141937707025024e-09</v>
+        <v>7.1141937707025024E-9</v>
       </c>
       <c r="S7">
-        <v>-1.4830511965655155e-07</v>
+        <v>-1.4830511965655155E-7</v>
       </c>
       <c r="T7">
-        <v>-1.2142515716290895e-07</v>
+        <v>-1.2142515716290895E-7</v>
       </c>
       <c r="U7">
-        <v>1.0575391970139978e-05</v>
+        <v>1.0575391970139978E-5</v>
       </c>
       <c r="V7">
-        <v>7.0096581331090176e-07</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>7.0096581331090176E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
       <c r="B8">
-        <v>0.0050465070705230956</v>
+        <v>5.0465070705230956E-3</v>
       </c>
       <c r="C8">
-        <v>9.2480046709029532e-07</v>
+        <v>9.2480046709029532E-7</v>
       </c>
       <c r="D8">
-        <v>-1.0983083483309323e-08</v>
+        <v>-1.0983083483309323E-8</v>
       </c>
       <c r="E8">
-        <v>1.2912881379908431e-06</v>
+        <v>1.2912881379908431E-6</v>
       </c>
       <c r="F8">
-        <v>-7.0014296356878522e-06</v>
+        <v>-7.0014296356878522E-6</v>
       </c>
       <c r="G8">
-        <v>-3.7427363328476533e-08</v>
+        <v>-3.7427363328476533E-8</v>
       </c>
       <c r="H8">
-        <v>7.5845612653072009e-08</v>
+        <v>7.5845612653072009E-8</v>
       </c>
       <c r="I8">
-        <v>0.0025751937749982877</v>
+        <v>2.5751937749982877E-3</v>
       </c>
       <c r="J8">
-        <v>0.0023446632275184467</v>
+        <v>2.3446632275184467E-3</v>
       </c>
       <c r="K8">
-        <v>0.002345287976521779</v>
+        <v>2.345287976521779E-3</v>
       </c>
       <c r="L8">
-        <v>0.0023452517073691307</v>
+        <v>2.3452517073691307E-3</v>
       </c>
       <c r="M8">
-        <v>1.4357264027440315e-06</v>
+        <v>1.4357264027440315E-6</v>
       </c>
       <c r="N8">
-        <v>2.5849836471894524e-06</v>
+        <v>2.5849836471894524E-6</v>
       </c>
       <c r="O8">
-        <v>-1.6530312622256748e-06</v>
+        <v>-1.6530312622256748E-6</v>
       </c>
       <c r="P8">
-        <v>-1.3133147042815781e-06</v>
+        <v>-1.3133147042815781E-6</v>
       </c>
       <c r="Q8">
-        <v>-1.2244200596531235e-06</v>
+        <v>-1.2244200596531235E-6</v>
       </c>
       <c r="R8">
-        <v>1.6149758475543714e-07</v>
+        <v>1.6149758475543714E-7</v>
       </c>
       <c r="S8">
-        <v>-4.7677060641691729e-06</v>
+        <v>-4.7677060641691729E-6</v>
       </c>
       <c r="T8">
-        <v>-1.1807720107913419e-06</v>
+        <v>-1.1807720107913419E-6</v>
       </c>
       <c r="U8">
-        <v>-0.0023826807687701941</v>
+        <v>-2.3826807687701941E-3</v>
       </c>
       <c r="V8">
-        <v>1.585376199073887e-05</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1.585376199073887E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9">
-        <v>0.063223095197705442</v>
+        <v>6.3223095197705442E-2</v>
       </c>
       <c r="C9">
-        <v>1.7908031423996577e-06</v>
+        <v>1.7908031423996577E-6</v>
       </c>
       <c r="D9">
-        <v>-2.1604064327458507e-08</v>
+        <v>-2.1604064327458507E-8</v>
       </c>
       <c r="E9">
-        <v>-2.6452284565903375e-06</v>
+        <v>-2.6452284565903375E-6</v>
       </c>
       <c r="F9">
-        <v>-2.225225440791077e-05</v>
+        <v>-2.225225440791077E-5</v>
       </c>
       <c r="G9">
-        <v>7.540555320201622e-08</v>
+        <v>7.540555320201622E-8</v>
       </c>
       <c r="H9">
-        <v>4.0845824661898323e-07</v>
+        <v>4.0845824661898323E-7</v>
       </c>
       <c r="I9">
-        <v>0.0023446632275184467</v>
+        <v>2.3446632275184467E-3</v>
       </c>
       <c r="J9">
-        <v>0.0023908646990428912</v>
+        <v>2.3908646990428912E-3</v>
       </c>
       <c r="K9">
-        <v>0.0023558863104720701</v>
+        <v>2.3558863104720701E-3</v>
       </c>
       <c r="L9">
-        <v>0.0023563344505149178</v>
+        <v>2.3563344505149178E-3</v>
       </c>
       <c r="M9">
-        <v>1.0593997915102223e-06</v>
+        <v>1.0593997915102223E-6</v>
       </c>
       <c r="N9">
-        <v>2.3071502244104323e-06</v>
+        <v>2.3071502244104323E-6</v>
       </c>
       <c r="O9">
-        <v>-2.940147023990013e-06</v>
+        <v>-2.940147023990013E-6</v>
       </c>
       <c r="P9">
-        <v>-2.6166485946111423e-06</v>
+        <v>-2.6166485946111423E-6</v>
       </c>
       <c r="Q9">
-        <v>4.2528447057868123e-06</v>
+        <v>4.2528447057868123E-6</v>
       </c>
       <c r="R9">
-        <v>1.1612560477693651e-07</v>
+        <v>1.1612560477693651E-7</v>
       </c>
       <c r="S9">
-        <v>-3.8675946223561115e-06</v>
+        <v>-3.8675946223561115E-6</v>
       </c>
       <c r="T9">
-        <v>-1.8209521309865158e-06</v>
+        <v>-1.8209521309865158E-6</v>
       </c>
       <c r="U9">
-        <v>-0.0024078753384392118</v>
+        <v>-2.4078753384392118E-3</v>
       </c>
       <c r="V9">
-        <v>3.5718355408363803e-05</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>3.5718355408363803E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2482,67 +2780,67 @@
         <v>0.12135464673295573</v>
       </c>
       <c r="C10">
-        <v>1.4188452339631969e-06</v>
+        <v>1.4188452339631969E-6</v>
       </c>
       <c r="D10">
-        <v>-1.3428558171883629e-08</v>
+        <v>-1.3428558171883629E-8</v>
       </c>
       <c r="E10">
-        <v>-8.1666654488190945e-06</v>
+        <v>-8.1666654488190945E-6</v>
       </c>
       <c r="F10">
-        <v>-3.0614486621214361e-05</v>
+        <v>-3.0614486621214361E-5</v>
       </c>
       <c r="G10">
-        <v>2.7117897793638351e-07</v>
+        <v>2.7117897793638351E-7</v>
       </c>
       <c r="H10">
-        <v>6.915957620135601e-07</v>
+        <v>6.915957620135601E-7</v>
       </c>
       <c r="I10">
-        <v>0.002345287976521779</v>
+        <v>2.345287976521779E-3</v>
       </c>
       <c r="J10">
-        <v>0.0023558863104720701</v>
+        <v>2.3558863104720701E-3</v>
       </c>
       <c r="K10">
-        <v>0.0023774838056500802</v>
+        <v>2.3774838056500802E-3</v>
       </c>
       <c r="L10">
-        <v>0.0023687210151800888</v>
+        <v>2.3687210151800888E-3</v>
       </c>
       <c r="M10">
-        <v>1.1075170489982664e-06</v>
+        <v>1.1075170489982664E-6</v>
       </c>
       <c r="N10">
-        <v>3.1722168502777445e-06</v>
+        <v>3.1722168502777445E-6</v>
       </c>
       <c r="O10">
-        <v>-2.2148197319180237e-06</v>
+        <v>-2.2148197319180237E-6</v>
       </c>
       <c r="P10">
-        <v>-1.3296068673446323e-06</v>
+        <v>-1.3296068673446323E-6</v>
       </c>
       <c r="Q10">
-        <v>7.0383962998611255e-06</v>
+        <v>7.0383962998611255E-6</v>
       </c>
       <c r="R10">
-        <v>1.9055666881261894e-08</v>
+        <v>1.9055666881261894E-8</v>
       </c>
       <c r="S10">
-        <v>-3.7663774123584896e-06</v>
+        <v>-3.7663774123584896E-6</v>
       </c>
       <c r="T10">
-        <v>-2.0527026931768768e-06</v>
+        <v>-2.0527026931768768E-6</v>
       </c>
       <c r="U10">
-        <v>-0.0024102204991367955</v>
+        <v>-2.4102204991367955E-3</v>
       </c>
       <c r="V10">
-        <v>4.2139696390400475e-05</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>4.2139696390400475E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -2550,679 +2848,679 @@
         <v>0.15768187436719946</v>
       </c>
       <c r="C11">
-        <v>3.2013446179104678e-06</v>
+        <v>3.2013446179104678E-6</v>
       </c>
       <c r="D11">
-        <v>-2.8161047602666538e-08</v>
+        <v>-2.8161047602666538E-8</v>
       </c>
       <c r="E11">
-        <v>-2.6287765468338179e-06</v>
+        <v>-2.6287765468338179E-6</v>
       </c>
       <c r="F11">
-        <v>-2.3756307200096674e-05</v>
+        <v>-2.3756307200096674E-5</v>
       </c>
       <c r="G11">
-        <v>2.1009024307438583e-07</v>
+        <v>2.1009024307438583E-7</v>
       </c>
       <c r="H11">
-        <v>6.2290106383673911e-07</v>
+        <v>6.2290106383673911E-7</v>
       </c>
       <c r="I11">
-        <v>0.0023452517073691307</v>
+        <v>2.3452517073691307E-3</v>
       </c>
       <c r="J11">
-        <v>0.0023563344505149178</v>
+        <v>2.3563344505149178E-3</v>
       </c>
       <c r="K11">
-        <v>0.0023687210151800888</v>
+        <v>2.3687210151800888E-3</v>
       </c>
       <c r="L11">
-        <v>0.002412683927032604</v>
+        <v>2.412683927032604E-3</v>
       </c>
       <c r="M11">
-        <v>1.3321011196153058e-06</v>
+        <v>1.3321011196153058E-6</v>
       </c>
       <c r="N11">
-        <v>3.6807213634627577e-06</v>
+        <v>3.6807213634627577E-6</v>
       </c>
       <c r="O11">
-        <v>-2.5452334385892967e-06</v>
+        <v>-2.5452334385892967E-6</v>
       </c>
       <c r="P11">
-        <v>-8.7636665600980096e-07</v>
+        <v>-8.7636665600980096E-7</v>
       </c>
       <c r="Q11">
-        <v>6.8748781054710965e-06</v>
+        <v>6.8748781054710965E-6</v>
       </c>
       <c r="R11">
-        <v>2.7143007085636777e-08</v>
+        <v>2.7143007085636777E-8</v>
       </c>
       <c r="S11">
-        <v>-3.9148515209379949e-06</v>
+        <v>-3.9148515209379949E-6</v>
       </c>
       <c r="T11">
-        <v>-1.7908129116657194e-06</v>
+        <v>-1.7908129116657194E-6</v>
       </c>
       <c r="U11">
-        <v>-0.0024648129618741279</v>
+        <v>-2.4648129618741279E-3</v>
       </c>
       <c r="V11">
-        <v>4.258344212992153e-05</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>4.258344212992153E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
       <c r="B12">
-        <v>-0.01883137436931244</v>
+        <v>-1.883137436931244E-2</v>
       </c>
       <c r="C12">
-        <v>1.3295745918648144e-07</v>
+        <v>1.3295745918648144E-7</v>
       </c>
       <c r="D12">
-        <v>-2.384763821274194e-09</v>
+        <v>-2.384763821274194E-9</v>
       </c>
       <c r="E12">
-        <v>-2.0650137708531209e-06</v>
+        <v>-2.0650137708531209E-6</v>
       </c>
       <c r="F12">
-        <v>-9.4867826717167846e-06</v>
+        <v>-9.4867826717167846E-6</v>
       </c>
       <c r="G12">
-        <v>-5.114399103632702e-09</v>
+        <v>-5.114399103632702E-9</v>
       </c>
       <c r="H12">
-        <v>1.1239029328960749e-07</v>
+        <v>1.1239029328960749E-7</v>
       </c>
       <c r="I12">
-        <v>1.4357264027440315e-06</v>
+        <v>1.4357264027440315E-6</v>
       </c>
       <c r="J12">
-        <v>1.0593997915102223e-06</v>
+        <v>1.0593997915102223E-6</v>
       </c>
       <c r="K12">
-        <v>1.1075170489982664e-06</v>
+        <v>1.1075170489982664E-6</v>
       </c>
       <c r="L12">
-        <v>1.3321011196153058e-06</v>
+        <v>1.3321011196153058E-6</v>
       </c>
       <c r="M12">
-        <v>8.9078365797503958e-05</v>
+        <v>8.9078365797503958E-5</v>
       </c>
       <c r="N12">
-        <v>4.3242642002571517e-05</v>
+        <v>4.3242642002571517E-5</v>
       </c>
       <c r="O12">
-        <v>4.3368815975347805e-05</v>
+        <v>4.3368815975347805E-5</v>
       </c>
       <c r="P12">
-        <v>4.3222419268780515e-05</v>
+        <v>4.3222419268780515E-5</v>
       </c>
       <c r="Q12">
-        <v>2.3848257158140883e-06</v>
+        <v>2.3848257158140883E-6</v>
       </c>
       <c r="R12">
-        <v>-8.0400286180602205e-08</v>
+        <v>-8.0400286180602205E-8</v>
       </c>
       <c r="S12">
-        <v>-7.3524197521278799e-07</v>
+        <v>-7.3524197521278799E-7</v>
       </c>
       <c r="T12">
-        <v>-6.11659332541522e-07</v>
+        <v>-6.11659332541522E-7</v>
       </c>
       <c r="U12">
-        <v>-3.5050335164451543e-05</v>
+        <v>-3.5050335164451543E-5</v>
       </c>
       <c r="V12">
-        <v>2.1229177514151522e-06</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>2.1229177514151522E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
       <c r="B13">
-        <v>0.070948013712757108</v>
+        <v>7.0948013712757108E-2</v>
       </c>
       <c r="C13">
-        <v>-7.8782222113765361e-08</v>
+        <v>-7.8782222113765361E-8</v>
       </c>
       <c r="D13">
-        <v>-2.7560553429402627e-10</v>
+        <v>-2.7560553429402627E-10</v>
       </c>
       <c r="E13">
-        <v>-2.1762409589631016e-06</v>
+        <v>-2.1762409589631016E-6</v>
       </c>
       <c r="F13">
-        <v>-3.5514857081890773e-06</v>
+        <v>-3.5514857081890773E-6</v>
       </c>
       <c r="G13">
-        <v>4.5372530691248786e-08</v>
+        <v>4.5372530691248786E-8</v>
       </c>
       <c r="H13">
-        <v>7.0192990960282088e-08</v>
+        <v>7.0192990960282088E-8</v>
       </c>
       <c r="I13">
-        <v>2.5849836471894524e-06</v>
+        <v>2.5849836471894524E-6</v>
       </c>
       <c r="J13">
-        <v>2.3071502244104323e-06</v>
+        <v>2.3071502244104323E-6</v>
       </c>
       <c r="K13">
-        <v>3.1722168502777445e-06</v>
+        <v>3.1722168502777445E-6</v>
       </c>
       <c r="L13">
-        <v>3.6807213634627577e-06</v>
+        <v>3.6807213634627577E-6</v>
       </c>
       <c r="M13">
-        <v>4.3242642002571517e-05</v>
+        <v>4.3242642002571517E-5</v>
       </c>
       <c r="N13">
-        <v>0.00011626413352695539</v>
+        <v>1.1626413352695539E-4</v>
       </c>
       <c r="O13">
-        <v>4.3231771653138556e-05</v>
+        <v>4.3231771653138556E-5</v>
       </c>
       <c r="P13">
-        <v>4.3189846423304963e-05</v>
+        <v>4.3189846423304963E-5</v>
       </c>
       <c r="Q13">
-        <v>2.9172347827134761e-06</v>
+        <v>2.9172347827134761E-6</v>
       </c>
       <c r="R13">
-        <v>-6.5281067389424343e-08</v>
+        <v>-6.5281067389424343E-8</v>
       </c>
       <c r="S13">
-        <v>-1.5478352479915231e-06</v>
+        <v>-1.5478352479915231E-6</v>
       </c>
       <c r="T13">
-        <v>-1.033302400926882e-06</v>
+        <v>-1.033302400926882E-6</v>
       </c>
       <c r="U13">
-        <v>-3.4862884281745334e-05</v>
+        <v>-3.4862884281745334E-5</v>
       </c>
       <c r="V13">
-        <v>-3.2359137468795345e-07</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>-3.2359137468795345E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
       <c r="B14">
-        <v>-0.014457202728520621</v>
+        <v>-1.4457202728520621E-2</v>
       </c>
       <c r="C14">
-        <v>-1.8770160486494024e-07</v>
+        <v>-1.8770160486494024E-7</v>
       </c>
       <c r="D14">
-        <v>1.350144840732081e-09</v>
+        <v>1.350144840732081E-9</v>
       </c>
       <c r="E14">
-        <v>-2.2079654469453422e-06</v>
+        <v>-2.2079654469453422E-6</v>
       </c>
       <c r="F14">
-        <v>-8.3969087295227919e-06</v>
+        <v>-8.3969087295227919E-6</v>
       </c>
       <c r="G14">
-        <v>1.6788789472576808e-08</v>
+        <v>1.6788789472576808E-8</v>
       </c>
       <c r="H14">
-        <v>7.9907754360265199e-08</v>
+        <v>7.9907754360265199E-8</v>
       </c>
       <c r="I14">
-        <v>-1.6530312622256748e-06</v>
+        <v>-1.6530312622256748E-6</v>
       </c>
       <c r="J14">
-        <v>-2.940147023990013e-06</v>
+        <v>-2.940147023990013E-6</v>
       </c>
       <c r="K14">
-        <v>-2.2148197319180237e-06</v>
+        <v>-2.2148197319180237E-6</v>
       </c>
       <c r="L14">
-        <v>-2.5452334385892967e-06</v>
+        <v>-2.5452334385892967E-6</v>
       </c>
       <c r="M14">
-        <v>4.3368815975347805e-05</v>
+        <v>4.3368815975347805E-5</v>
       </c>
       <c r="N14">
-        <v>4.3231771653138556e-05</v>
+        <v>4.3231771653138556E-5</v>
       </c>
       <c r="O14">
-        <v>8.7678717895281358e-05</v>
+        <v>8.7678717895281358E-5</v>
       </c>
       <c r="P14">
-        <v>4.3251566322441582e-05</v>
+        <v>4.3251566322441582E-5</v>
       </c>
       <c r="Q14">
-        <v>3.2070390636034681e-06</v>
+        <v>3.2070390636034681E-6</v>
       </c>
       <c r="R14">
-        <v>-9.3537860843192442e-08</v>
+        <v>-9.3537860843192442E-8</v>
       </c>
       <c r="S14">
-        <v>3.4039304797858591e-08</v>
+        <v>3.4039304797858591E-8</v>
       </c>
       <c r="T14">
-        <v>5.2069180858575609e-07</v>
+        <v>5.2069180858575609E-7</v>
       </c>
       <c r="U14">
-        <v>-2.3907359542745653e-05</v>
+        <v>-2.3907359542745653E-5</v>
       </c>
       <c r="V14">
-        <v>-2.7225517226161014e-07</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>-2.7225517226161014E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
       <c r="B15">
-        <v>-0.093985384974738698</v>
+        <v>-9.3985384974738698E-2</v>
       </c>
       <c r="C15">
-        <v>-3.5714799957775621e-08</v>
+        <v>-3.5714799957775621E-8</v>
       </c>
       <c r="D15">
-        <v>2.2462124056915422e-10</v>
+        <v>2.2462124056915422E-10</v>
       </c>
       <c r="E15">
-        <v>4.7825852857397362e-07</v>
+        <v>4.7825852857397362E-7</v>
       </c>
       <c r="F15">
-        <v>2.3244275395470005e-06</v>
+        <v>2.3244275395470005E-6</v>
       </c>
       <c r="G15">
-        <v>-1.5848106904668379e-08</v>
+        <v>-1.5848106904668379E-8</v>
       </c>
       <c r="H15">
-        <v>-1.2595538874421535e-07</v>
+        <v>-1.2595538874421535E-7</v>
       </c>
       <c r="I15">
-        <v>-1.3133147042815781e-06</v>
+        <v>-1.3133147042815781E-6</v>
       </c>
       <c r="J15">
-        <v>-2.6166485946111423e-06</v>
+        <v>-2.6166485946111423E-6</v>
       </c>
       <c r="K15">
-        <v>-1.3296068673446323e-06</v>
+        <v>-1.3296068673446323E-6</v>
       </c>
       <c r="L15">
-        <v>-8.7636665600980096e-07</v>
+        <v>-8.7636665600980096E-7</v>
       </c>
       <c r="M15">
-        <v>4.3222419268780515e-05</v>
+        <v>4.3222419268780515E-5</v>
       </c>
       <c r="N15">
-        <v>4.3189846423304963e-05</v>
+        <v>4.3189846423304963E-5</v>
       </c>
       <c r="O15">
-        <v>4.3251566322441582e-05</v>
+        <v>4.3251566322441582E-5</v>
       </c>
       <c r="P15">
-        <v>6.1015307063454786e-05</v>
+        <v>6.1015307063454786E-5</v>
       </c>
       <c r="Q15">
-        <v>1.2964639162865686e-06</v>
+        <v>1.2964639162865686E-6</v>
       </c>
       <c r="R15">
-        <v>-6.7162498856225911e-08</v>
+        <v>-6.7162498856225911E-8</v>
       </c>
       <c r="S15">
-        <v>-8.5780432772668374e-07</v>
+        <v>-8.5780432772668374E-7</v>
       </c>
       <c r="T15">
-        <v>-9.7475367182159543e-07</v>
+        <v>-9.7475367182159543E-7</v>
       </c>
       <c r="U15">
-        <v>-3.2890408328685417e-05</v>
+        <v>-3.2890408328685417E-5</v>
       </c>
       <c r="V15">
-        <v>2.9748637335805763e-07</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>2.9748637335805763E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
       <c r="B16">
-        <v>-0.0085684740167149762</v>
+        <v>-8.5684740167149762E-3</v>
       </c>
       <c r="C16">
-        <v>2.5507678301275693e-06</v>
+        <v>2.5507678301275693E-6</v>
       </c>
       <c r="D16">
-        <v>-3.2588011086063637e-08</v>
+        <v>-3.2588011086063637E-8</v>
       </c>
       <c r="E16">
-        <v>-2.3707761787512191e-06</v>
+        <v>-2.3707761787512191E-6</v>
       </c>
       <c r="F16">
-        <v>-8.3083306728247162e-06</v>
+        <v>-8.3083306728247162E-6</v>
       </c>
       <c r="G16">
-        <v>1.4238444213742215e-07</v>
+        <v>1.4238444213742215E-7</v>
       </c>
       <c r="H16">
-        <v>1.5073577212503051e-07</v>
+        <v>1.5073577212503051E-7</v>
       </c>
       <c r="I16">
-        <v>-1.2244200596531235e-06</v>
+        <v>-1.2244200596531235E-6</v>
       </c>
       <c r="J16">
-        <v>4.2528447057868123e-06</v>
+        <v>4.2528447057868123E-6</v>
       </c>
       <c r="K16">
-        <v>7.0383962998611255e-06</v>
+        <v>7.0383962998611255E-6</v>
       </c>
       <c r="L16">
-        <v>6.8748781054710965e-06</v>
+        <v>6.8748781054710965E-6</v>
       </c>
       <c r="M16">
-        <v>2.3848257158140883e-06</v>
+        <v>2.3848257158140883E-6</v>
       </c>
       <c r="N16">
-        <v>2.9172347827134761e-06</v>
+        <v>2.9172347827134761E-6</v>
       </c>
       <c r="O16">
-        <v>3.2070390636034681e-06</v>
+        <v>3.2070390636034681E-6</v>
       </c>
       <c r="P16">
-        <v>1.2964639162865686e-06</v>
+        <v>1.2964639162865686E-6</v>
       </c>
       <c r="Q16">
-        <v>0.0002882969017654703</v>
+        <v>2.882969017654703E-4</v>
       </c>
       <c r="R16">
-        <v>1.1608439504657209e-07</v>
+        <v>1.1608439504657209E-7</v>
       </c>
       <c r="S16">
-        <v>-1.2220548841542171e-06</v>
+        <v>-1.2220548841542171E-6</v>
       </c>
       <c r="T16">
-        <v>-9.1994884872467018e-07</v>
+        <v>-9.1994884872467018E-7</v>
       </c>
       <c r="U16">
-        <v>-7.3114358578189349e-05</v>
+        <v>-7.3114358578189349E-5</v>
       </c>
       <c r="V16">
-        <v>-1.0038749781514762e-05</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>-1.0038749781514762E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
       <c r="B17">
-        <v>0.0050996772116353329</v>
+        <v>5.0996772116353329E-3</v>
       </c>
       <c r="C17">
-        <v>3.314239666872741e-09</v>
+        <v>3.314239666872741E-9</v>
       </c>
       <c r="D17">
-        <v>-1.2929205771067281e-10</v>
+        <v>-1.2929205771067281E-10</v>
       </c>
       <c r="E17">
-        <v>6.297365344799205e-08</v>
+        <v>6.297365344799205E-8</v>
       </c>
       <c r="F17">
-        <v>-1.3791127130437086e-07</v>
+        <v>-1.3791127130437086E-7</v>
       </c>
       <c r="G17">
-        <v>1.1605848139819005e-09</v>
+        <v>1.1605848139819005E-9</v>
       </c>
       <c r="H17">
-        <v>7.1141937707025024e-09</v>
+        <v>7.1141937707025024E-9</v>
       </c>
       <c r="I17">
-        <v>1.6149758475543714e-07</v>
+        <v>1.6149758475543714E-7</v>
       </c>
       <c r="J17">
-        <v>1.1612560477693651e-07</v>
+        <v>1.1612560477693651E-7</v>
       </c>
       <c r="K17">
-        <v>1.9055666881261894e-08</v>
+        <v>1.9055666881261894E-8</v>
       </c>
       <c r="L17">
-        <v>2.7143007085636777e-08</v>
+        <v>2.7143007085636777E-8</v>
       </c>
       <c r="M17">
-        <v>-8.0400286180602205e-08</v>
+        <v>-8.0400286180602205E-8</v>
       </c>
       <c r="N17">
-        <v>-6.5281067389424343e-08</v>
+        <v>-6.5281067389424343E-8</v>
       </c>
       <c r="O17">
-        <v>-9.3537860843192442e-08</v>
+        <v>-9.3537860843192442E-8</v>
       </c>
       <c r="P17">
-        <v>-6.7162498856225911e-08</v>
+        <v>-6.7162498856225911E-8</v>
       </c>
       <c r="Q17">
-        <v>1.1608439504657209e-07</v>
+        <v>1.1608439504657209E-7</v>
       </c>
       <c r="R17">
-        <v>4.9368276636717e-08</v>
+        <v>4.9368276636717E-8</v>
       </c>
       <c r="S17">
-        <v>-7.6464913768009493e-07</v>
+        <v>-7.6464913768009493E-7</v>
       </c>
       <c r="T17">
-        <v>-9.1886560979852282e-07</v>
+        <v>-9.1886560979852282E-7</v>
       </c>
       <c r="U17">
-        <v>-5.2683618810882036e-06</v>
+        <v>-5.2683618810882036E-6</v>
       </c>
       <c r="V17">
-        <v>4.2722717494677886e-08</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>4.2722717494677886E-8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>39</v>
       </c>
       <c r="B18">
-        <v>0.048950442676558924</v>
+        <v>4.8950442676558924E-2</v>
       </c>
       <c r="C18">
-        <v>-1.1123191806743202e-07</v>
+        <v>-1.1123191806743202E-7</v>
       </c>
       <c r="D18">
-        <v>2.7654401231375974e-09</v>
+        <v>2.7654401231375974E-9</v>
       </c>
       <c r="E18">
-        <v>2.7686593490405425e-06</v>
+        <v>2.7686593490405425E-6</v>
       </c>
       <c r="F18">
-        <v>5.7755206930441918e-06</v>
+        <v>5.7755206930441918E-6</v>
       </c>
       <c r="G18">
-        <v>-8.1834175959856852e-08</v>
+        <v>-8.1834175959856852E-8</v>
       </c>
       <c r="H18">
-        <v>-1.4830511965655155e-07</v>
+        <v>-1.4830511965655155E-7</v>
       </c>
       <c r="I18">
-        <v>-4.7677060641691729e-06</v>
+        <v>-4.7677060641691729E-6</v>
       </c>
       <c r="J18">
-        <v>-3.8675946223561115e-06</v>
+        <v>-3.8675946223561115E-6</v>
       </c>
       <c r="K18">
-        <v>-3.7663774123584896e-06</v>
+        <v>-3.7663774123584896E-6</v>
       </c>
       <c r="L18">
-        <v>-3.9148515209379949e-06</v>
+        <v>-3.9148515209379949E-6</v>
       </c>
       <c r="M18">
-        <v>-7.3524197521278799e-07</v>
+        <v>-7.3524197521278799E-7</v>
       </c>
       <c r="N18">
-        <v>-1.5478352479915231e-06</v>
+        <v>-1.5478352479915231E-6</v>
       </c>
       <c r="O18">
-        <v>3.4039304797858591e-08</v>
+        <v>3.4039304797858591E-8</v>
       </c>
       <c r="P18">
-        <v>-8.5780432772668374e-07</v>
+        <v>-8.5780432772668374E-7</v>
       </c>
       <c r="Q18">
-        <v>-1.2220548841542171e-06</v>
+        <v>-1.2220548841542171E-6</v>
       </c>
       <c r="R18">
-        <v>-7.6464913768009493e-07</v>
+        <v>-7.6464913768009493E-7</v>
       </c>
       <c r="S18">
-        <v>0.00013432519009756437</v>
+        <v>1.3432519009756437E-4</v>
       </c>
       <c r="T18">
-        <v>2.2724423733835991e-05</v>
+        <v>2.2724423733835991E-5</v>
       </c>
       <c r="U18">
-        <v>7.8539971376796221e-05</v>
+        <v>7.8539971376796221E-5</v>
       </c>
       <c r="V18">
-        <v>-2.1759133442782147e-06</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>-2.1759133442782147E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="B19">
-        <v>0.02171249411169408</v>
+        <v>2.171249411169408E-2</v>
       </c>
       <c r="C19">
-        <v>-4.6588364297259917e-08</v>
+        <v>-4.6588364297259917E-8</v>
       </c>
       <c r="D19">
-        <v>1.8246189847060525e-09</v>
+        <v>1.8246189847060525E-9</v>
       </c>
       <c r="E19">
-        <v>1.5283742408599028e-06</v>
+        <v>1.5283742408599028E-6</v>
       </c>
       <c r="F19">
-        <v>3.9326859065655088e-06</v>
+        <v>3.9326859065655088E-6</v>
       </c>
       <c r="G19">
-        <v>-6.2063398193029576e-08</v>
+        <v>-6.2063398193029576E-8</v>
       </c>
       <c r="H19">
-        <v>-1.2142515716290895e-07</v>
+        <v>-1.2142515716290895E-7</v>
       </c>
       <c r="I19">
-        <v>-1.1807720107913419e-06</v>
+        <v>-1.1807720107913419E-6</v>
       </c>
       <c r="J19">
-        <v>-1.8209521309865158e-06</v>
+        <v>-1.8209521309865158E-6</v>
       </c>
       <c r="K19">
-        <v>-2.0527026931768768e-06</v>
+        <v>-2.0527026931768768E-6</v>
       </c>
       <c r="L19">
-        <v>-1.7908129116657194e-06</v>
+        <v>-1.7908129116657194E-6</v>
       </c>
       <c r="M19">
-        <v>-6.11659332541522e-07</v>
+        <v>-6.11659332541522E-7</v>
       </c>
       <c r="N19">
-        <v>-1.033302400926882e-06</v>
+        <v>-1.033302400926882E-6</v>
       </c>
       <c r="O19">
-        <v>5.2069180858575609e-07</v>
+        <v>5.2069180858575609E-7</v>
       </c>
       <c r="P19">
-        <v>-9.7475367182159543e-07</v>
+        <v>-9.7475367182159543E-7</v>
       </c>
       <c r="Q19">
-        <v>-9.1994884872467018e-07</v>
+        <v>-9.1994884872467018E-7</v>
       </c>
       <c r="R19">
-        <v>-9.1886560979852282e-07</v>
+        <v>-9.1886560979852282E-7</v>
       </c>
       <c r="S19">
-        <v>2.2724423733835991e-05</v>
+        <v>2.2724423733835991E-5</v>
       </c>
       <c r="T19">
-        <v>0.00014598545357753272</v>
+        <v>1.4598545357753272E-4</v>
       </c>
       <c r="U19">
-        <v>9.2184140891157787e-05</v>
+        <v>9.2184140891157787E-5</v>
       </c>
       <c r="V19">
-        <v>-8.3090774197963953e-07</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>-8.3090774197963953E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
       <c r="B20">
-        <v>-0.013485659611445679</v>
+        <v>-1.3485659611445679E-2</v>
       </c>
       <c r="C20">
-        <v>-7.4613092364366954e-05</v>
+        <v>-7.4613092364366954E-5</v>
       </c>
       <c r="D20">
-        <v>7.3423983532499709e-07</v>
+        <v>7.3423983532499709E-7</v>
       </c>
       <c r="E20">
-        <v>-0.0005590087981275397</v>
+        <v>-5.590087981275397E-4</v>
       </c>
       <c r="F20">
-        <v>-0.00050506134452029186</v>
+        <v>-5.0506134452029186E-4</v>
       </c>
       <c r="G20">
-        <v>1.1952993746486194e-05</v>
+        <v>1.1952993746486194E-5</v>
       </c>
       <c r="H20">
-        <v>1.0575391970139978e-05</v>
+        <v>1.0575391970139978E-5</v>
       </c>
       <c r="I20">
-        <v>-0.0023826807687701941</v>
+        <v>-2.3826807687701941E-3</v>
       </c>
       <c r="J20">
-        <v>-0.0024078753384392118</v>
+        <v>-2.4078753384392118E-3</v>
       </c>
       <c r="K20">
-        <v>-0.0024102204991367955</v>
+        <v>-2.4102204991367955E-3</v>
       </c>
       <c r="L20">
-        <v>-0.0024648129618741279</v>
+        <v>-2.4648129618741279E-3</v>
       </c>
       <c r="M20">
-        <v>-3.5050335164451543e-05</v>
+        <v>-3.5050335164451543E-5</v>
       </c>
       <c r="N20">
-        <v>-3.4862884281745334e-05</v>
+        <v>-3.4862884281745334E-5</v>
       </c>
       <c r="O20">
-        <v>-2.3907359542745653e-05</v>
+        <v>-2.3907359542745653E-5</v>
       </c>
       <c r="P20">
-        <v>-3.2890408328685417e-05</v>
+        <v>-3.2890408328685417E-5</v>
       </c>
       <c r="Q20">
-        <v>-7.3114358578189349e-05</v>
+        <v>-7.3114358578189349E-5</v>
       </c>
       <c r="R20">
-        <v>-5.2683618810882036e-06</v>
+        <v>-5.2683618810882036E-6</v>
       </c>
       <c r="S20">
-        <v>7.8539971376796221e-05</v>
+        <v>7.8539971376796221E-5</v>
       </c>
       <c r="T20">
-        <v>9.2184140891157787e-05</v>
+        <v>9.2184140891157787E-5</v>
       </c>
       <c r="U20">
-        <v>0.0048242551243464164</v>
+        <v>4.8242551243464164E-3</v>
       </c>
       <c r="V20">
-        <v>-0.00018070319736963292</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>-1.8070319736963292E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -3230,79 +3528,80 @@
         <v>-0.16586138492645466</v>
       </c>
       <c r="C21">
-        <v>6.0239027218038284e-06</v>
+        <v>6.0239027218038284E-6</v>
       </c>
       <c r="D21">
-        <v>-7.2516605912914439e-08</v>
+        <v>-7.2516605912914439E-8</v>
       </c>
       <c r="E21">
-        <v>1.3285894679176042e-06</v>
+        <v>1.3285894679176042E-6</v>
       </c>
       <c r="F21">
-        <v>-3.9276490770532653e-05</v>
+        <v>-3.9276490770532653E-5</v>
       </c>
       <c r="G21">
-        <v>4.6580279363849994e-08</v>
+        <v>4.6580279363849994E-8</v>
       </c>
       <c r="H21">
-        <v>7.0096581331090176e-07</v>
+        <v>7.0096581331090176E-7</v>
       </c>
       <c r="I21">
-        <v>1.585376199073887e-05</v>
+        <v>1.585376199073887E-5</v>
       </c>
       <c r="J21">
-        <v>3.5718355408363803e-05</v>
+        <v>3.5718355408363803E-5</v>
       </c>
       <c r="K21">
-        <v>4.2139696390400475e-05</v>
+        <v>4.2139696390400475E-5</v>
       </c>
       <c r="L21">
-        <v>4.258344212992153e-05</v>
+        <v>4.258344212992153E-5</v>
       </c>
       <c r="M21">
-        <v>2.1229177514151522e-06</v>
+        <v>2.1229177514151522E-6</v>
       </c>
       <c r="N21">
-        <v>-3.2359137468795345e-07</v>
+        <v>-3.2359137468795345E-7</v>
       </c>
       <c r="O21">
-        <v>-2.7225517226161014e-07</v>
+        <v>-2.7225517226161014E-7</v>
       </c>
       <c r="P21">
-        <v>2.9748637335805763e-07</v>
+        <v>2.9748637335805763E-7</v>
       </c>
       <c r="Q21">
-        <v>-1.0038749781514762e-05</v>
+        <v>-1.0038749781514762E-5</v>
       </c>
       <c r="R21">
-        <v>4.2722717494677886e-08</v>
+        <v>4.2722717494677886E-8</v>
       </c>
       <c r="S21">
-        <v>-2.1759133442782147e-06</v>
+        <v>-2.1759133442782147E-6</v>
       </c>
       <c r="T21">
-        <v>-8.3090774197963953e-07</v>
+        <v>-8.3090774197963953E-7</v>
       </c>
       <c r="U21">
-        <v>-0.00018070319736963292</v>
+        <v>-1.8070319736963292E-4</v>
       </c>
       <c r="V21">
-        <v>9.4055708629224263e-05</v>
+        <v>9.4055708629224263E-5</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -3373,7 +3672,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -3381,567 +3680,567 @@
         <v>0.75914800937421323</v>
       </c>
       <c r="C2">
-        <v>9.1402781963909765e-06</v>
+        <v>9.1402781963909765E-6</v>
       </c>
       <c r="D2">
-        <v>-3.6955652157707165e-07</v>
+        <v>-3.6955652157707165E-7</v>
       </c>
       <c r="E2">
-        <v>2.7207357190041678e-09</v>
+        <v>2.7207357190041678E-9</v>
       </c>
       <c r="F2">
-        <v>8.9292156050020496e-07</v>
+        <v>8.9292156050020496E-7</v>
       </c>
       <c r="G2">
-        <v>2.9632582600010372e-07</v>
+        <v>2.9632582600010372E-7</v>
       </c>
       <c r="H2">
-        <v>7.9195540824657052e-08</v>
+        <v>7.9195540824657052E-8</v>
       </c>
       <c r="I2">
-        <v>1.2936363874674917e-07</v>
+        <v>1.2936363874674917E-7</v>
       </c>
       <c r="J2">
-        <v>-1.329576166668261e-06</v>
+        <v>-1.329576166668261E-6</v>
       </c>
       <c r="K2">
-        <v>-2.1154160469521786e-06</v>
+        <v>-2.1154160469521786E-6</v>
       </c>
       <c r="L2">
-        <v>-2.575516174145509e-06</v>
+        <v>-2.575516174145509E-6</v>
       </c>
       <c r="M2">
-        <v>-3.0398976712361011e-06</v>
+        <v>-3.0398976712361011E-6</v>
       </c>
       <c r="N2">
-        <v>-6.8894745889296805e-08</v>
+        <v>-6.8894745889296805E-8</v>
       </c>
       <c r="O2">
-        <v>-2.0461586583745925e-07</v>
+        <v>-2.0461586583745925E-7</v>
       </c>
       <c r="P2">
-        <v>-1.612995692623056e-08</v>
+        <v>-1.612995692623056E-8</v>
       </c>
       <c r="Q2">
-        <v>4.1253785063112049e-07</v>
+        <v>4.1253785063112049E-7</v>
       </c>
       <c r="R2">
-        <v>-5.3985273628379837e-07</v>
+        <v>-5.3985273628379837E-7</v>
       </c>
       <c r="S2">
-        <v>-3.1725445782703972e-08</v>
+        <v>-3.1725445782703972E-8</v>
       </c>
       <c r="T2">
-        <v>-5.7451745290199412e-07</v>
+        <v>-5.7451745290199412E-7</v>
       </c>
       <c r="U2">
-        <v>-3.3993745147163856e-07</v>
+        <v>-3.3993745147163856E-7</v>
       </c>
       <c r="V2">
-        <v>1.7306224963702015e-06</v>
+        <v>1.7306224963702015E-6</v>
       </c>
       <c r="W2">
-        <v>-8.6087834123038204e-07</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>-8.6087834123038204E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3">
-        <v>0.015570992678284885</v>
+        <v>1.5570992678284885E-2</v>
       </c>
       <c r="C3">
-        <v>-3.6955652157707165e-07</v>
+        <v>-3.6955652157707165E-7</v>
       </c>
       <c r="D3">
-        <v>1.335129241555279e-05</v>
+        <v>1.335129241555279E-5</v>
       </c>
       <c r="E3">
-        <v>-1.5322823428338972e-07</v>
+        <v>-1.5322823428338972E-7</v>
       </c>
       <c r="F3">
-        <v>-1.0827915443886774e-06</v>
+        <v>-1.0827915443886774E-6</v>
       </c>
       <c r="G3">
-        <v>-2.1509982390282668e-05</v>
+        <v>-2.1509982390282668E-5</v>
       </c>
       <c r="H3">
-        <v>-1.2309732383803699e-07</v>
+        <v>-1.2309732383803699E-7</v>
       </c>
       <c r="I3">
-        <v>1.1650385410440496e-07</v>
+        <v>1.1650385410440496E-7</v>
       </c>
       <c r="J3">
-        <v>4.3092976382750868e-05</v>
+        <v>4.3092976382750868E-5</v>
       </c>
       <c r="K3">
-        <v>6.6000108741650563e-05</v>
+        <v>6.6000108741650563E-5</v>
       </c>
       <c r="L3">
-        <v>7.3267008214151325e-05</v>
+        <v>7.3267008214151325E-5</v>
       </c>
       <c r="M3">
-        <v>7.7565540860454331e-05</v>
+        <v>7.7565540860454331E-5</v>
       </c>
       <c r="N3">
-        <v>3.2895653087975842e-06</v>
+        <v>3.2895653087975842E-6</v>
       </c>
       <c r="O3">
-        <v>-9.9589338257899275e-07</v>
+        <v>-9.9589338257899275E-7</v>
       </c>
       <c r="P3">
-        <v>-1.7693611483057637e-06</v>
+        <v>-1.7693611483057637E-6</v>
       </c>
       <c r="Q3">
-        <v>-1.2966564623322738e-07</v>
+        <v>-1.2966564623322738E-7</v>
       </c>
       <c r="R3">
-        <v>-7.6007482328904806e-07</v>
+        <v>-7.6007482328904806E-7</v>
       </c>
       <c r="S3">
-        <v>-3.2161260280618683e-09</v>
+        <v>-3.2161260280618683E-9</v>
       </c>
       <c r="T3">
-        <v>-9.6370431985031101e-06</v>
+        <v>-9.6370431985031101E-6</v>
       </c>
       <c r="U3">
-        <v>-2.8203116859035689e-06</v>
+        <v>-2.8203116859035689E-6</v>
       </c>
       <c r="V3">
-        <v>-0.00037010256147277699</v>
+        <v>-3.7010256147277699E-4</v>
       </c>
       <c r="W3">
-        <v>0.00021486155085840661</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2.1486155085840661E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4">
-        <v>-0.00014573624308038605</v>
+        <v>-1.4573624308038605E-4</v>
       </c>
       <c r="C4">
-        <v>2.7207357190041678e-09</v>
+        <v>2.7207357190041678E-9</v>
       </c>
       <c r="D4">
-        <v>-1.5322823428338972e-07</v>
+        <v>-1.5322823428338972E-7</v>
       </c>
       <c r="E4">
-        <v>1.770975645315036e-09</v>
+        <v>1.770975645315036E-9</v>
       </c>
       <c r="F4">
-        <v>5.3668339660879405e-08</v>
+        <v>5.3668339660879405E-8</v>
       </c>
       <c r="G4">
-        <v>2.9028587513921156e-07</v>
+        <v>2.9028587513921156E-7</v>
       </c>
       <c r="H4">
-        <v>4.0756633435764367e-10</v>
+        <v>4.0756633435764367E-10</v>
       </c>
       <c r="I4">
-        <v>-2.3745246364985281e-09</v>
+        <v>-2.3745246364985281E-9</v>
       </c>
       <c r="J4">
-        <v>-4.9835048261834688e-07</v>
+        <v>-4.9835048261834688E-7</v>
       </c>
       <c r="K4">
-        <v>-7.6301520504357469e-07</v>
+        <v>-7.6301520504357469E-7</v>
       </c>
       <c r="L4">
-        <v>-8.4514173320042382e-07</v>
+        <v>-8.4514173320042382E-7</v>
       </c>
       <c r="M4">
-        <v>-8.9166175463450808e-07</v>
+        <v>-8.9166175463450808E-7</v>
       </c>
       <c r="N4">
-        <v>-3.8328008832915859e-08</v>
+        <v>-3.8328008832915859E-8</v>
       </c>
       <c r="O4">
-        <v>1.1294875937742779e-08</v>
+        <v>1.1294875937742779E-8</v>
       </c>
       <c r="P4">
-        <v>2.0046074731730839e-08</v>
+        <v>2.0046074731730839E-8</v>
       </c>
       <c r="Q4">
-        <v>1.2296963214623994e-09</v>
+        <v>1.2296963214623994E-9</v>
       </c>
       <c r="R4">
-        <v>8.0716558805951755e-09</v>
+        <v>8.0716558805951755E-9</v>
       </c>
       <c r="S4">
-        <v>-1.0452519450567112e-11</v>
+        <v>-1.0452519450567112E-11</v>
       </c>
       <c r="T4">
-        <v>1.1182305324956598e-07</v>
+        <v>1.1182305324956598E-7</v>
       </c>
       <c r="U4">
-        <v>3.3163610931909897e-08</v>
+        <v>3.3163610931909897E-8</v>
       </c>
       <c r="V4">
-        <v>4.2390165884613272e-06</v>
+        <v>4.2390165884613272E-6</v>
       </c>
       <c r="W4">
-        <v>-2.4830711083232331e-06</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>-2.4830711083232331E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5">
-        <v>-0.017488784563135275</v>
+        <v>-1.7488784563135275E-2</v>
       </c>
       <c r="C5">
-        <v>8.9292156050020496e-07</v>
+        <v>8.9292156050020496E-7</v>
       </c>
       <c r="D5">
-        <v>-1.0827915443886774e-06</v>
+        <v>-1.0827915443886774E-6</v>
       </c>
       <c r="E5">
-        <v>5.3668339660879405e-08</v>
+        <v>5.3668339660879405E-8</v>
       </c>
       <c r="F5">
-        <v>0.00027209543309126037</v>
+        <v>2.7209543309126037E-4</v>
       </c>
       <c r="G5">
-        <v>0.00016680955575011083</v>
+        <v>1.6680955575011083E-4</v>
       </c>
       <c r="H5">
-        <v>-5.9684630632905688e-06</v>
+        <v>-5.9684630632905688E-6</v>
       </c>
       <c r="I5">
-        <v>-3.6456973088532176e-06</v>
+        <v>-3.6456973088532176E-6</v>
       </c>
       <c r="J5">
-        <v>-1.9132389603419844e-05</v>
+        <v>-1.9132389603419844E-5</v>
       </c>
       <c r="K5">
-        <v>-3.0578168031125734e-05</v>
+        <v>-3.0578168031125734E-5</v>
       </c>
       <c r="L5">
-        <v>-3.5678410029623528e-05</v>
+        <v>-3.5678410029623528E-5</v>
       </c>
       <c r="M5">
-        <v>-3.3240721594389195e-05</v>
+        <v>-3.3240721594389195E-5</v>
       </c>
       <c r="N5">
-        <v>-3.7267833670423571e-06</v>
+        <v>-3.7267833670423571E-6</v>
       </c>
       <c r="O5">
-        <v>5.9469346436467045e-07</v>
+        <v>5.9469346436467045E-7</v>
       </c>
       <c r="P5">
-        <v>-9.5376204999818191e-07</v>
+        <v>-9.5376204999818191E-7</v>
       </c>
       <c r="Q5">
-        <v>5.8032549033180113e-07</v>
+        <v>5.8032549033180113E-7</v>
       </c>
       <c r="R5">
-        <v>-4.317819622510065e-07</v>
+        <v>-4.317819622510065E-7</v>
       </c>
       <c r="S5">
-        <v>2.1952956958122924e-08</v>
+        <v>2.1952956958122924E-8</v>
       </c>
       <c r="T5">
-        <v>4.5778864452402758e-06</v>
+        <v>4.5778864452402758E-6</v>
       </c>
       <c r="U5">
-        <v>1.9203702156151008e-06</v>
+        <v>1.9203702156151008E-6</v>
       </c>
       <c r="V5">
-        <v>-1.9586883579712538e-05</v>
+        <v>-1.9586883579712538E-5</v>
       </c>
       <c r="W5">
-        <v>-9.0971539066747112e-05</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>-9.0971539066747112E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6">
-        <v>-0.029542980806915257</v>
+        <v>-2.9542980806915257E-2</v>
       </c>
       <c r="C6">
-        <v>2.9632582600010372e-07</v>
+        <v>2.9632582600010372E-7</v>
       </c>
       <c r="D6">
-        <v>-2.1509982390282668e-05</v>
+        <v>-2.1509982390282668E-5</v>
       </c>
       <c r="E6">
-        <v>2.9028587513921156e-07</v>
+        <v>2.9028587513921156E-7</v>
       </c>
       <c r="F6">
-        <v>0.00016680955575011083</v>
+        <v>1.6680955575011083E-4</v>
       </c>
       <c r="G6">
-        <v>0.0015609250696051269</v>
+        <v>1.5609250696051269E-3</v>
       </c>
       <c r="H6">
-        <v>-3.5244721617312359e-06</v>
+        <v>-3.5244721617312359E-6</v>
       </c>
       <c r="I6">
-        <v>-3.1016660379413048e-05</v>
+        <v>-3.1016660379413048E-5</v>
       </c>
       <c r="J6">
-        <v>-9.5364083711132553e-05</v>
+        <v>-9.5364083711132553E-5</v>
       </c>
       <c r="K6">
-        <v>-0.00014993637099250777</v>
+        <v>-1.4993637099250777E-4</v>
       </c>
       <c r="L6">
-        <v>-0.00016807049662611023</v>
+        <v>-1.6807049662611023E-4</v>
       </c>
       <c r="M6">
-        <v>-0.00016874759136849466</v>
+        <v>-1.6874759136849466E-4</v>
       </c>
       <c r="N6">
-        <v>-1.2436775996840554e-05</v>
+        <v>-1.2436775996840554E-5</v>
       </c>
       <c r="O6">
-        <v>2.1729303597008068e-06</v>
+        <v>2.1729303597008068E-6</v>
       </c>
       <c r="P6">
-        <v>3.2033161342278219e-07</v>
+        <v>3.2033161342278219E-7</v>
       </c>
       <c r="Q6">
-        <v>6.6541912203274463e-07</v>
+        <v>6.6541912203274463E-7</v>
       </c>
       <c r="R6">
-        <v>1.2161327350658538e-06</v>
+        <v>1.2161327350658538E-6</v>
       </c>
       <c r="S6">
-        <v>-4.8656950552330201e-08</v>
+        <v>-4.8656950552330201E-8</v>
       </c>
       <c r="T6">
-        <v>2.1901944642785299e-05</v>
+        <v>2.1901944642785299E-5</v>
       </c>
       <c r="U6">
-        <v>7.4920713239843193e-06</v>
+        <v>7.4920713239843193E-6</v>
       </c>
       <c r="V6">
-        <v>0.00057619989151922401</v>
+        <v>5.7619989151922401E-4</v>
       </c>
       <c r="W6">
-        <v>-0.00045083496442177139</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>-4.5083496442177139E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
       <c r="B7">
-        <v>-0.0022295291575184705</v>
+        <v>-2.2295291575184705E-3</v>
       </c>
       <c r="C7">
-        <v>7.9195540824657052e-08</v>
+        <v>7.9195540824657052E-8</v>
       </c>
       <c r="D7">
-        <v>-1.2309732383803699e-07</v>
+        <v>-1.2309732383803699E-7</v>
       </c>
       <c r="E7">
-        <v>4.0756633435764367e-10</v>
+        <v>4.0756633435764367E-10</v>
       </c>
       <c r="F7">
-        <v>-5.9684630632905688e-06</v>
+        <v>-5.9684630632905688E-6</v>
       </c>
       <c r="G7">
-        <v>-3.5244721617312359e-06</v>
+        <v>-3.5244721617312359E-6</v>
       </c>
       <c r="H7">
-        <v>1.4199542999075008e-07</v>
+        <v>1.4199542999075008E-7</v>
       </c>
       <c r="I7">
-        <v>8.8364460262127657e-08</v>
+        <v>8.8364460262127657E-8</v>
       </c>
       <c r="J7">
-        <v>-1.3748010260539537e-07</v>
+        <v>-1.3748010260539537E-7</v>
       </c>
       <c r="K7">
-        <v>-1.6510774277011591e-07</v>
+        <v>-1.6510774277011591E-7</v>
       </c>
       <c r="L7">
-        <v>-1.1158687875166143e-07</v>
+        <v>-1.1158687875166143E-7</v>
       </c>
       <c r="M7">
-        <v>-1.8278824204078499e-07</v>
+        <v>-1.8278824204078499E-7</v>
       </c>
       <c r="N7">
-        <v>3.3872337772345809e-08</v>
+        <v>3.3872337772345809E-8</v>
       </c>
       <c r="O7">
-        <v>7.791044759993477e-09</v>
+        <v>7.791044759993477E-9</v>
       </c>
       <c r="P7">
-        <v>4.2999941333615043e-08</v>
+        <v>4.2999941333615043E-8</v>
       </c>
       <c r="Q7">
-        <v>5.6554498368977109e-09</v>
+        <v>5.6554498368977109E-9</v>
       </c>
       <c r="R7">
-        <v>4.8590897553381585e-08</v>
+        <v>4.8590897553381585E-8</v>
       </c>
       <c r="S7">
-        <v>7.8233311342890696e-10</v>
+        <v>7.8233311342890696E-10</v>
       </c>
       <c r="T7">
-        <v>1.9831679152756437e-09</v>
+        <v>1.9831679152756437E-9</v>
       </c>
       <c r="U7">
-        <v>-2.3385631224593459e-08</v>
+        <v>-2.3385631224593459E-8</v>
       </c>
       <c r="V7">
-        <v>4.3046056610613416e-06</v>
+        <v>4.3046056610613416E-6</v>
       </c>
       <c r="W7">
-        <v>-6.2593705201969432e-07</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>-6.2593705201969432E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="B8">
-        <v>-0.0029109909695478734</v>
+        <v>-2.9109909695478734E-3</v>
       </c>
       <c r="C8">
-        <v>1.2936363874674917e-07</v>
+        <v>1.2936363874674917E-7</v>
       </c>
       <c r="D8">
-        <v>1.1650385410440496e-07</v>
+        <v>1.1650385410440496E-7</v>
       </c>
       <c r="E8">
-        <v>-2.3745246364985281e-09</v>
+        <v>-2.3745246364985281E-9</v>
       </c>
       <c r="F8">
-        <v>-3.6456973088532176e-06</v>
+        <v>-3.6456973088532176E-6</v>
       </c>
       <c r="G8">
-        <v>-3.1016660379413048e-05</v>
+        <v>-3.1016660379413048E-5</v>
       </c>
       <c r="H8">
-        <v>8.8364460262127657e-08</v>
+        <v>8.8364460262127657E-8</v>
       </c>
       <c r="I8">
-        <v>6.6460323246245916e-07</v>
+        <v>6.6460323246245916E-7</v>
       </c>
       <c r="J8">
-        <v>8.7398182392588053e-07</v>
+        <v>8.7398182392588053E-7</v>
       </c>
       <c r="K8">
-        <v>1.3862941608613992e-06</v>
+        <v>1.3862941608613992E-6</v>
       </c>
       <c r="L8">
-        <v>1.6298791007933199e-06</v>
+        <v>1.6298791007933199E-6</v>
       </c>
       <c r="M8">
-        <v>1.5731303552137411e-06</v>
+        <v>1.5731303552137411E-6</v>
       </c>
       <c r="N8">
-        <v>1.2103201358942965e-07</v>
+        <v>1.2103201358942965E-7</v>
       </c>
       <c r="O8">
-        <v>-8.9432753666023755e-09</v>
+        <v>-8.9432753666023755E-9</v>
       </c>
       <c r="P8">
-        <v>-3.8198448461443356e-09</v>
+        <v>-3.8198448461443356E-9</v>
       </c>
       <c r="Q8">
-        <v>-1.8568379817788069e-08</v>
+        <v>-1.8568379817788069E-8</v>
       </c>
       <c r="R8">
-        <v>-2.5867490190967711e-09</v>
+        <v>-2.5867490190967711E-9</v>
       </c>
       <c r="S8">
-        <v>3.213952037914748e-09</v>
+        <v>3.213952037914748E-9</v>
       </c>
       <c r="T8">
-        <v>-2.0481410218698427e-07</v>
+        <v>-2.0481410218698427E-7</v>
       </c>
       <c r="U8">
-        <v>-9.9171176587116558e-08</v>
+        <v>-9.9171176587116558E-8</v>
       </c>
       <c r="V8">
-        <v>-3.0328899356351068e-06</v>
+        <v>-3.0328899356351068E-6</v>
       </c>
       <c r="W8">
-        <v>3.2178544056340832e-06</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>3.2178544056340832E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
       <c r="B9">
-        <v>0.081658378311899149</v>
+        <v>8.1658378311899149E-2</v>
       </c>
       <c r="C9">
-        <v>-1.329576166668261e-06</v>
+        <v>-1.329576166668261E-6</v>
       </c>
       <c r="D9">
-        <v>4.3092976382750868e-05</v>
+        <v>4.3092976382750868E-5</v>
       </c>
       <c r="E9">
-        <v>-4.9835048261834688e-07</v>
+        <v>-4.9835048261834688E-7</v>
       </c>
       <c r="F9">
-        <v>-1.9132389603419844e-05</v>
+        <v>-1.9132389603419844E-5</v>
       </c>
       <c r="G9">
-        <v>-9.5364083711132553e-05</v>
+        <v>-9.5364083711132553E-5</v>
       </c>
       <c r="H9">
-        <v>-1.3748010260539537e-07</v>
+        <v>-1.3748010260539537E-7</v>
       </c>
       <c r="I9">
-        <v>8.7398182392588053e-07</v>
+        <v>8.7398182392588053E-7</v>
       </c>
       <c r="J9">
-        <v>0.0017649681968123822</v>
+        <v>1.7649681968123822E-3</v>
       </c>
       <c r="K9">
-        <v>0.0017398867260378693</v>
+        <v>1.7398867260378693E-3</v>
       </c>
       <c r="L9">
-        <v>0.0017676966891428296</v>
+        <v>1.7676966891428296E-3</v>
       </c>
       <c r="M9">
-        <v>0.0017799388650569818</v>
+        <v>1.7799388650569818E-3</v>
       </c>
       <c r="N9">
-        <v>1.3085676329167249e-05</v>
+        <v>1.3085676329167249E-5</v>
       </c>
       <c r="O9">
-        <v>-4.7702376759018377e-06</v>
+        <v>-4.7702376759018377E-6</v>
       </c>
       <c r="P9">
-        <v>-7.4258954531917537e-06</v>
+        <v>-7.4258954531917537E-6</v>
       </c>
       <c r="Q9">
-        <v>-1.0416980495073182e-06</v>
+        <v>-1.0416980495073182E-6</v>
       </c>
       <c r="R9">
-        <v>-7.4398302362316664e-06</v>
+        <v>-7.4398302362316664E-6</v>
       </c>
       <c r="S9">
-        <v>3.3351608332601688e-08</v>
+        <v>3.3351608332601688E-8</v>
       </c>
       <c r="T9">
-        <v>-3.7046789586502962e-05</v>
+        <v>-3.7046789586502962E-5</v>
       </c>
       <c r="U9">
-        <v>-1.0798167308472676e-05</v>
+        <v>-1.0798167308472676E-5</v>
       </c>
       <c r="V9">
-        <v>-0.002734350313124188</v>
+        <v>-2.734350313124188E-3</v>
       </c>
       <c r="W9">
-        <v>0.00080916455466740784</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>8.0916455466740784E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -3949,70 +4248,70 @@
         <v>0.10016148903490146</v>
       </c>
       <c r="C10">
-        <v>-2.1154160469521786e-06</v>
+        <v>-2.1154160469521786E-6</v>
       </c>
       <c r="D10">
-        <v>6.6000108741650563e-05</v>
+        <v>6.6000108741650563E-5</v>
       </c>
       <c r="E10">
-        <v>-7.6301520504357469e-07</v>
+        <v>-7.6301520504357469E-7</v>
       </c>
       <c r="F10">
-        <v>-3.0578168031125734e-05</v>
+        <v>-3.0578168031125734E-5</v>
       </c>
       <c r="G10">
-        <v>-0.00014993637099250777</v>
+        <v>-1.4993637099250777E-4</v>
       </c>
       <c r="H10">
-        <v>-1.6510774277011591e-07</v>
+        <v>-1.6510774277011591E-7</v>
       </c>
       <c r="I10">
-        <v>1.3862941608613992e-06</v>
+        <v>1.3862941608613992E-6</v>
       </c>
       <c r="J10">
-        <v>0.0017398867260378693</v>
+        <v>1.7398867260378693E-3</v>
       </c>
       <c r="K10">
-        <v>0.0018894881663133491</v>
+        <v>1.8894881663133491E-3</v>
       </c>
       <c r="L10">
-        <v>0.0019161407314848091</v>
+        <v>1.9161407314848091E-3</v>
       </c>
       <c r="M10">
-        <v>0.0019352073314146006</v>
+        <v>1.9352073314146006E-3</v>
       </c>
       <c r="N10">
-        <v>1.9103643974971957e-05</v>
+        <v>1.9103643974971957E-5</v>
       </c>
       <c r="O10">
-        <v>-6.8723915113014682e-06</v>
+        <v>-6.8723915113014682E-6</v>
       </c>
       <c r="P10">
-        <v>-1.1164938581212497e-05</v>
+        <v>-1.1164938581212497E-5</v>
       </c>
       <c r="Q10">
-        <v>-1.6325261441058533e-06</v>
+        <v>-1.6325261441058533E-6</v>
       </c>
       <c r="R10">
-        <v>-9.7709852338133018e-06</v>
+        <v>-9.7709852338133018E-6</v>
       </c>
       <c r="S10">
-        <v>2.4784033747815766e-08</v>
+        <v>2.4784033747815766E-8</v>
       </c>
       <c r="T10">
-        <v>-5.6518460944069701e-05</v>
+        <v>-5.6518460944069701E-5</v>
       </c>
       <c r="U10">
-        <v>-1.6261231449329902e-05</v>
+        <v>-1.6261231449329902E-5</v>
       </c>
       <c r="V10">
-        <v>-0.0033943542645061744</v>
+        <v>-3.3943542645061744E-3</v>
       </c>
       <c r="W10">
-        <v>0.0012381814975155345</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1.2381814975155345E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -4020,70 +4319,70 @@
         <v>0.12738668955320487</v>
       </c>
       <c r="C11">
-        <v>-2.575516174145509e-06</v>
+        <v>-2.575516174145509E-6</v>
       </c>
       <c r="D11">
-        <v>7.3267008214151325e-05</v>
+        <v>7.3267008214151325E-5</v>
       </c>
       <c r="E11">
-        <v>-8.4514173320042382e-07</v>
+        <v>-8.4514173320042382E-7</v>
       </c>
       <c r="F11">
-        <v>-3.5678410029623528e-05</v>
+        <v>-3.5678410029623528E-5</v>
       </c>
       <c r="G11">
-        <v>-0.00016807049662611023</v>
+        <v>-1.6807049662611023E-4</v>
       </c>
       <c r="H11">
-        <v>-1.1158687875166143e-07</v>
+        <v>-1.1158687875166143E-7</v>
       </c>
       <c r="I11">
-        <v>1.6298791007933199e-06</v>
+        <v>1.6298791007933199E-6</v>
       </c>
       <c r="J11">
-        <v>0.0017676966891428296</v>
+        <v>1.7676966891428296E-3</v>
       </c>
       <c r="K11">
-        <v>0.0019161407314848091</v>
+        <v>1.9161407314848091E-3</v>
       </c>
       <c r="L11">
-        <v>0.0019713825061641469</v>
+        <v>1.9713825061641469E-3</v>
       </c>
       <c r="M11">
-        <v>0.0019881943966581516</v>
+        <v>1.9881943966581516E-3</v>
       </c>
       <c r="N11">
-        <v>2.1012423241989099e-05</v>
+        <v>2.1012423241989099E-5</v>
       </c>
       <c r="O11">
-        <v>-7.7545791232043145e-06</v>
+        <v>-7.7545791232043145E-6</v>
       </c>
       <c r="P11">
-        <v>-1.2394052503442905e-05</v>
+        <v>-1.2394052503442905E-5</v>
       </c>
       <c r="Q11">
-        <v>-1.450817826021366e-06</v>
+        <v>-1.450817826021366E-6</v>
       </c>
       <c r="R11">
-        <v>-9.9706012863855343e-06</v>
+        <v>-9.9706012863855343E-6</v>
       </c>
       <c r="S11">
-        <v>-2.0592259074543647e-08</v>
+        <v>-2.0592259074543647E-8</v>
       </c>
       <c r="T11">
-        <v>-6.2674586907900511e-05</v>
+        <v>-6.2674586907900511E-5</v>
       </c>
       <c r="U11">
-        <v>-1.8266920407099411e-05</v>
+        <v>-1.8266920407099411E-5</v>
       </c>
       <c r="V11">
-        <v>-0.0036057398658764631</v>
+        <v>-3.6057398658764631E-3</v>
       </c>
       <c r="W11">
-        <v>0.0013752390306774496</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1.3752390306774496E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -4091,638 +4390,638 @@
         <v>0.13568340750628557</v>
       </c>
       <c r="C12">
-        <v>-3.0398976712361011e-06</v>
+        <v>-3.0398976712361011E-6</v>
       </c>
       <c r="D12">
-        <v>7.7565540860454331e-05</v>
+        <v>7.7565540860454331E-5</v>
       </c>
       <c r="E12">
-        <v>-8.9166175463450808e-07</v>
+        <v>-8.9166175463450808E-7</v>
       </c>
       <c r="F12">
-        <v>-3.3240721594389195e-05</v>
+        <v>-3.3240721594389195E-5</v>
       </c>
       <c r="G12">
-        <v>-0.00016874759136849466</v>
+        <v>-1.6874759136849466E-4</v>
       </c>
       <c r="H12">
-        <v>-1.8278824204078499e-07</v>
+        <v>-1.8278824204078499E-7</v>
       </c>
       <c r="I12">
-        <v>1.5731303552137411e-06</v>
+        <v>1.5731303552137411E-6</v>
       </c>
       <c r="J12">
-        <v>0.0017799388650569818</v>
+        <v>1.7799388650569818E-3</v>
       </c>
       <c r="K12">
-        <v>0.0019352073314146006</v>
+        <v>1.9352073314146006E-3</v>
       </c>
       <c r="L12">
-        <v>0.0019881943966581516</v>
+        <v>1.9881943966581516E-3</v>
       </c>
       <c r="M12">
-        <v>0.002034832135261371</v>
+        <v>2.034832135261371E-3</v>
       </c>
       <c r="N12">
-        <v>2.252956150373692e-05</v>
+        <v>2.252956150373692E-5</v>
       </c>
       <c r="O12">
-        <v>-7.494042535654579e-06</v>
+        <v>-7.494042535654579E-6</v>
       </c>
       <c r="P12">
-        <v>-1.283377104702631e-05</v>
+        <v>-1.283377104702631E-5</v>
       </c>
       <c r="Q12">
-        <v>-7.3097590648177341e-07</v>
+        <v>-7.3097590648177341E-7</v>
       </c>
       <c r="R12">
-        <v>-1.0347697175664487e-05</v>
+        <v>-1.0347697175664487E-5</v>
       </c>
       <c r="S12">
-        <v>-1.6807999975370109e-08</v>
+        <v>-1.6807999975370109E-8</v>
       </c>
       <c r="T12">
-        <v>-6.5524841696822122e-05</v>
+        <v>-6.5524841696822122E-5</v>
       </c>
       <c r="U12">
-        <v>-1.9389344808155573e-05</v>
+        <v>-1.9389344808155573E-5</v>
       </c>
       <c r="V12">
-        <v>-0.0037298557534467874</v>
+        <v>-3.7298557534467874E-3</v>
       </c>
       <c r="W12">
-        <v>0.0014371053802197072</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1.4371053802197072E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
       <c r="B13">
-        <v>0.0083275064454137338</v>
+        <v>8.3275064454137338E-3</v>
       </c>
       <c r="C13">
-        <v>-6.8894745889296805e-08</v>
+        <v>-6.8894745889296805E-8</v>
       </c>
       <c r="D13">
-        <v>3.2895653087975842e-06</v>
+        <v>3.2895653087975842E-6</v>
       </c>
       <c r="E13">
-        <v>-3.8328008832915859e-08</v>
+        <v>-3.8328008832915859E-8</v>
       </c>
       <c r="F13">
-        <v>-3.7267833670423571e-06</v>
+        <v>-3.7267833670423571E-6</v>
       </c>
       <c r="G13">
-        <v>-1.2436775996840554e-05</v>
+        <v>-1.2436775996840554E-5</v>
       </c>
       <c r="H13">
-        <v>3.3872337772345809e-08</v>
+        <v>3.3872337772345809E-8</v>
       </c>
       <c r="I13">
-        <v>1.2103201358942965e-07</v>
+        <v>1.2103201358942965E-7</v>
       </c>
       <c r="J13">
-        <v>1.3085676329167249e-05</v>
+        <v>1.3085676329167249E-5</v>
       </c>
       <c r="K13">
-        <v>1.9103643974971957e-05</v>
+        <v>1.9103643974971957E-5</v>
       </c>
       <c r="L13">
-        <v>2.1012423241989099e-05</v>
+        <v>2.1012423241989099E-5</v>
       </c>
       <c r="M13">
-        <v>2.252956150373692e-05</v>
+        <v>2.252956150373692E-5</v>
       </c>
       <c r="N13">
-        <v>4.3219172689579556e-05</v>
+        <v>4.3219172689579556E-5</v>
       </c>
       <c r="O13">
-        <v>2.0207203682273221e-05</v>
+        <v>2.0207203682273221E-5</v>
       </c>
       <c r="P13">
-        <v>2.0136029019227039e-05</v>
+        <v>2.0136029019227039E-5</v>
       </c>
       <c r="Q13">
-        <v>2.0520898774811205e-05</v>
+        <v>2.0520898774811205E-5</v>
       </c>
       <c r="R13">
-        <v>4.541419541128636e-07</v>
+        <v>4.541419541128636E-7</v>
       </c>
       <c r="S13">
-        <v>-4.5029417916795682e-08</v>
+        <v>-4.5029417916795682E-8</v>
       </c>
       <c r="T13">
-        <v>-2.8688454173198001e-06</v>
+        <v>-2.8688454173198001E-6</v>
       </c>
       <c r="U13">
-        <v>-1.0926995436509485e-06</v>
+        <v>-1.0926995436509485E-6</v>
       </c>
       <c r="V13">
-        <v>-0.00010941811371019872</v>
+        <v>-1.0941811371019872E-4</v>
       </c>
       <c r="W13">
-        <v>6.0647631655173374e-05</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>6.0647631655173374E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
       <c r="B14">
-        <v>0.01690474514223907</v>
+        <v>1.690474514223907E-2</v>
       </c>
       <c r="C14">
-        <v>-2.0461586583745925e-07</v>
+        <v>-2.0461586583745925E-7</v>
       </c>
       <c r="D14">
-        <v>-9.9589338257899275e-07</v>
+        <v>-9.9589338257899275E-7</v>
       </c>
       <c r="E14">
-        <v>1.1294875937742779e-08</v>
+        <v>1.1294875937742779E-8</v>
       </c>
       <c r="F14">
-        <v>5.9469346436467045e-07</v>
+        <v>5.9469346436467045E-7</v>
       </c>
       <c r="G14">
-        <v>2.1729303597008068e-06</v>
+        <v>2.1729303597008068E-6</v>
       </c>
       <c r="H14">
-        <v>7.791044759993477e-09</v>
+        <v>7.791044759993477E-9</v>
       </c>
       <c r="I14">
-        <v>-8.9432753666023755e-09</v>
+        <v>-8.9432753666023755E-9</v>
       </c>
       <c r="J14">
-        <v>-4.7702376759018377e-06</v>
+        <v>-4.7702376759018377E-6</v>
       </c>
       <c r="K14">
-        <v>-6.8723915113014682e-06</v>
+        <v>-6.8723915113014682E-6</v>
       </c>
       <c r="L14">
-        <v>-7.7545791232043145e-06</v>
+        <v>-7.7545791232043145E-6</v>
       </c>
       <c r="M14">
-        <v>-7.494042535654579e-06</v>
+        <v>-7.494042535654579E-6</v>
       </c>
       <c r="N14">
-        <v>2.0207203682273221e-05</v>
+        <v>2.0207203682273221E-5</v>
       </c>
       <c r="O14">
-        <v>5.5796807152798889e-05</v>
+        <v>5.5796807152798889E-5</v>
       </c>
       <c r="P14">
-        <v>2.0700155084168806e-05</v>
+        <v>2.0700155084168806E-5</v>
       </c>
       <c r="Q14">
-        <v>2.0552862375483086e-05</v>
+        <v>2.0552862375483086E-5</v>
       </c>
       <c r="R14">
-        <v>9.6528946751566446e-07</v>
+        <v>9.6528946751566446E-7</v>
       </c>
       <c r="S14">
-        <v>-2.4385040334742639e-08</v>
+        <v>-2.4385040334742639E-8</v>
       </c>
       <c r="T14">
-        <v>3.6326456823938441e-07</v>
+        <v>3.6326456823938441E-7</v>
       </c>
       <c r="U14">
-        <v>-5.2667935480088515e-08</v>
+        <v>-5.2667935480088515E-8</v>
       </c>
       <c r="V14">
-        <v>1.3004444993021177e-05</v>
+        <v>1.3004444993021177E-5</v>
       </c>
       <c r="W14">
-        <v>-2.1866447286830713e-05</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>-2.1866447286830713E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15">
-        <v>0.0027427981650576042</v>
+        <v>2.7427981650576042E-3</v>
       </c>
       <c r="C15">
-        <v>-1.612995692623056e-08</v>
+        <v>-1.612995692623056E-8</v>
       </c>
       <c r="D15">
-        <v>-1.7693611483057637e-06</v>
+        <v>-1.7693611483057637E-6</v>
       </c>
       <c r="E15">
-        <v>2.0046074731730839e-08</v>
+        <v>2.0046074731730839E-8</v>
       </c>
       <c r="F15">
-        <v>-9.5376204999818191e-07</v>
+        <v>-9.5376204999818191E-7</v>
       </c>
       <c r="G15">
-        <v>3.2033161342278219e-07</v>
+        <v>3.2033161342278219E-7</v>
       </c>
       <c r="H15">
-        <v>4.2999941333615043e-08</v>
+        <v>4.2999941333615043E-8</v>
       </c>
       <c r="I15">
-        <v>-3.8198448461443356e-09</v>
+        <v>-3.8198448461443356E-9</v>
       </c>
       <c r="J15">
-        <v>-7.4258954531917537e-06</v>
+        <v>-7.4258954531917537E-6</v>
       </c>
       <c r="K15">
-        <v>-1.1164938581212497e-05</v>
+        <v>-1.1164938581212497E-5</v>
       </c>
       <c r="L15">
-        <v>-1.2394052503442905e-05</v>
+        <v>-1.2394052503442905E-5</v>
       </c>
       <c r="M15">
-        <v>-1.283377104702631e-05</v>
+        <v>-1.283377104702631E-5</v>
       </c>
       <c r="N15">
-        <v>2.0136029019227039e-05</v>
+        <v>2.0136029019227039E-5</v>
       </c>
       <c r="O15">
-        <v>2.0700155084168806e-05</v>
+        <v>2.0700155084168806E-5</v>
       </c>
       <c r="P15">
-        <v>4.2640892286841506e-05</v>
+        <v>4.2640892286841506E-5</v>
       </c>
       <c r="Q15">
-        <v>2.0580744139549283e-05</v>
+        <v>2.0580744139549283E-5</v>
       </c>
       <c r="R15">
-        <v>9.3990740851705736e-07</v>
+        <v>9.3990740851705736E-7</v>
       </c>
       <c r="S15">
-        <v>-4.3773067598317071e-08</v>
+        <v>-4.3773067598317071E-8</v>
       </c>
       <c r="T15">
-        <v>1.4759897660591757e-06</v>
+        <v>1.4759897660591757E-6</v>
       </c>
       <c r="U15">
-        <v>6.6479604857148543e-07</v>
+        <v>6.6479604857148543E-7</v>
       </c>
       <c r="V15">
-        <v>3.698660854811083e-05</v>
+        <v>3.698660854811083E-5</v>
       </c>
       <c r="W15">
-        <v>-3.2050082411115895e-05</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>-3.2050082411115895E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
       <c r="B16">
-        <v>-0.0083720675469531932</v>
+        <v>-8.3720675469531932E-3</v>
       </c>
       <c r="C16">
-        <v>4.1253785063112049e-07</v>
+        <v>4.1253785063112049E-7</v>
       </c>
       <c r="D16">
-        <v>-1.2966564623322738e-07</v>
+        <v>-1.2966564623322738E-7</v>
       </c>
       <c r="E16">
-        <v>1.2296963214623994e-09</v>
+        <v>1.2296963214623994E-9</v>
       </c>
       <c r="F16">
-        <v>5.8032549033180113e-07</v>
+        <v>5.8032549033180113E-7</v>
       </c>
       <c r="G16">
-        <v>6.6541912203274463e-07</v>
+        <v>6.6541912203274463E-7</v>
       </c>
       <c r="H16">
-        <v>5.6554498368977109e-09</v>
+        <v>5.6554498368977109E-9</v>
       </c>
       <c r="I16">
-        <v>-1.8568379817788069e-08</v>
+        <v>-1.8568379817788069E-8</v>
       </c>
       <c r="J16">
-        <v>-1.0416980495073182e-06</v>
+        <v>-1.0416980495073182E-6</v>
       </c>
       <c r="K16">
-        <v>-1.6325261441058533e-06</v>
+        <v>-1.6325261441058533E-6</v>
       </c>
       <c r="L16">
-        <v>-1.450817826021366e-06</v>
+        <v>-1.450817826021366E-6</v>
       </c>
       <c r="M16">
-        <v>-7.3097590648177341e-07</v>
+        <v>-7.3097590648177341E-7</v>
       </c>
       <c r="N16">
-        <v>2.0520898774811205e-05</v>
+        <v>2.0520898774811205E-5</v>
       </c>
       <c r="O16">
-        <v>2.0552862375483086e-05</v>
+        <v>2.0552862375483086E-5</v>
       </c>
       <c r="P16">
-        <v>2.0580744139549283e-05</v>
+        <v>2.0580744139549283E-5</v>
       </c>
       <c r="Q16">
-        <v>2.8867910339995396e-05</v>
+        <v>2.8867910339995396E-5</v>
       </c>
       <c r="R16">
-        <v>5.7142391192028093e-07</v>
+        <v>5.7142391192028093E-7</v>
       </c>
       <c r="S16">
-        <v>-3.2863717814502556e-08</v>
+        <v>-3.2863717814502556E-8</v>
       </c>
       <c r="T16">
-        <v>-2.9347501904206645e-07</v>
+        <v>-2.9347501904206645E-7</v>
       </c>
       <c r="U16">
-        <v>-2.5397048588196829e-07</v>
+        <v>-2.5397048588196829E-7</v>
       </c>
       <c r="V16">
-        <v>-1.30862587691766e-05</v>
+        <v>-1.30862587691766E-5</v>
       </c>
       <c r="W16">
-        <v>-2.4009545364350054e-06</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>-2.4009545364350054E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
       <c r="B17">
-        <v>0.088491077453089359</v>
+        <v>8.8491077453089359E-2</v>
       </c>
       <c r="C17">
-        <v>-5.3985273628379837e-07</v>
+        <v>-5.3985273628379837E-7</v>
       </c>
       <c r="D17">
-        <v>-7.6007482328904806e-07</v>
+        <v>-7.6007482328904806E-7</v>
       </c>
       <c r="E17">
-        <v>8.0716558805951755e-09</v>
+        <v>8.0716558805951755E-9</v>
       </c>
       <c r="F17">
-        <v>-4.317819622510065e-07</v>
+        <v>-4.317819622510065E-7</v>
       </c>
       <c r="G17">
-        <v>1.2161327350658538e-06</v>
+        <v>1.2161327350658538E-6</v>
       </c>
       <c r="H17">
-        <v>4.8590897553381585e-08</v>
+        <v>4.8590897553381585E-8</v>
       </c>
       <c r="I17">
-        <v>-2.5867490190967711e-09</v>
+        <v>-2.5867490190967711E-9</v>
       </c>
       <c r="J17">
-        <v>-7.4398302362316664e-06</v>
+        <v>-7.4398302362316664E-6</v>
       </c>
       <c r="K17">
-        <v>-9.7709852338133018e-06</v>
+        <v>-9.7709852338133018E-6</v>
       </c>
       <c r="L17">
-        <v>-9.9706012863855343e-06</v>
+        <v>-9.9706012863855343E-6</v>
       </c>
       <c r="M17">
-        <v>-1.0347697175664487e-05</v>
+        <v>-1.0347697175664487E-5</v>
       </c>
       <c r="N17">
-        <v>4.541419541128636e-07</v>
+        <v>4.541419541128636E-7</v>
       </c>
       <c r="O17">
-        <v>9.6528946751566446e-07</v>
+        <v>9.6528946751566446E-7</v>
       </c>
       <c r="P17">
-        <v>9.3990740851705736e-07</v>
+        <v>9.3990740851705736E-7</v>
       </c>
       <c r="Q17">
-        <v>5.7142391192028093e-07</v>
+        <v>5.7142391192028093E-7</v>
       </c>
       <c r="R17">
-        <v>5.0746274296874837e-05</v>
+        <v>5.0746274296874837E-5</v>
       </c>
       <c r="S17">
-        <v>6.4367834339691808e-08</v>
+        <v>6.4367834339691808E-8</v>
       </c>
       <c r="T17">
-        <v>8.5890325664010015e-07</v>
+        <v>8.5890325664010015E-7</v>
       </c>
       <c r="U17">
-        <v>-2.1424418401483144e-07</v>
+        <v>-2.1424418401483144E-7</v>
       </c>
       <c r="V17">
-        <v>1.9585805021687986e-05</v>
+        <v>1.9585805021687986E-5</v>
       </c>
       <c r="W17">
-        <v>-3.0787142987034561e-05</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>-3.0787142987034561E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
       <c r="B18">
-        <v>0.00087279153630380186</v>
+        <v>8.7279153630380186E-4</v>
       </c>
       <c r="C18">
-        <v>-3.1725445782703972e-08</v>
+        <v>-3.1725445782703972E-8</v>
       </c>
       <c r="D18">
-        <v>-3.2161260280618683e-09</v>
+        <v>-3.2161260280618683E-9</v>
       </c>
       <c r="E18">
-        <v>-1.0452519450567112e-11</v>
+        <v>-1.0452519450567112E-11</v>
       </c>
       <c r="F18">
-        <v>2.1952956958122924e-08</v>
+        <v>2.1952956958122924E-8</v>
       </c>
       <c r="G18">
-        <v>-4.8656950552330201e-08</v>
+        <v>-4.8656950552330201E-8</v>
       </c>
       <c r="H18">
-        <v>7.8233311342890696e-10</v>
+        <v>7.8233311342890696E-10</v>
       </c>
       <c r="I18">
-        <v>3.213952037914748e-09</v>
+        <v>3.213952037914748E-9</v>
       </c>
       <c r="J18">
-        <v>3.3351608332601688e-08</v>
+        <v>3.3351608332601688E-8</v>
       </c>
       <c r="K18">
-        <v>2.4784033747815766e-08</v>
+        <v>2.4784033747815766E-8</v>
       </c>
       <c r="L18">
-        <v>-2.0592259074543647e-08</v>
+        <v>-2.0592259074543647E-8</v>
       </c>
       <c r="M18">
-        <v>-1.6807999975370109e-08</v>
+        <v>-1.6807999975370109E-8</v>
       </c>
       <c r="N18">
-        <v>-4.5029417916795682e-08</v>
+        <v>-4.5029417916795682E-8</v>
       </c>
       <c r="O18">
-        <v>-2.4385040334742639e-08</v>
+        <v>-2.4385040334742639E-8</v>
       </c>
       <c r="P18">
-        <v>-4.3773067598317071e-08</v>
+        <v>-4.3773067598317071E-8</v>
       </c>
       <c r="Q18">
-        <v>-3.2863717814502556e-08</v>
+        <v>-3.2863717814502556E-8</v>
       </c>
       <c r="R18">
-        <v>6.4367834339691808e-08</v>
+        <v>6.4367834339691808E-8</v>
       </c>
       <c r="S18">
-        <v>2.3181811158833826e-08</v>
+        <v>2.3181811158833826E-8</v>
       </c>
       <c r="T18">
-        <v>-3.4039787616806396e-07</v>
+        <v>-3.4039787616806396E-7</v>
       </c>
       <c r="U18">
-        <v>-4.1610085424614751e-07</v>
+        <v>-4.1610085424614751E-7</v>
       </c>
       <c r="V18">
-        <v>-2.2848720968288204e-06</v>
+        <v>-2.2848720968288204E-6</v>
       </c>
       <c r="W18">
-        <v>-7.0182028266619682e-08</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>-7.0182028266619682E-8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
       <c r="B19">
-        <v>-0.017934762296264645</v>
+        <v>-1.7934762296264645E-2</v>
       </c>
       <c r="C19">
-        <v>-5.7451745290199412e-07</v>
+        <v>-5.7451745290199412E-7</v>
       </c>
       <c r="D19">
-        <v>-9.6370431985031101e-06</v>
+        <v>-9.6370431985031101E-6</v>
       </c>
       <c r="E19">
-        <v>1.1182305324956598e-07</v>
+        <v>1.1182305324956598E-7</v>
       </c>
       <c r="F19">
-        <v>4.5778864452402758e-06</v>
+        <v>4.5778864452402758E-6</v>
       </c>
       <c r="G19">
-        <v>2.1901944642785299e-05</v>
+        <v>2.1901944642785299E-5</v>
       </c>
       <c r="H19">
-        <v>1.9831679152756437e-09</v>
+        <v>1.9831679152756437E-9</v>
       </c>
       <c r="I19">
-        <v>-2.0481410218698427e-07</v>
+        <v>-2.0481410218698427E-7</v>
       </c>
       <c r="J19">
-        <v>-3.7046789586502962e-05</v>
+        <v>-3.7046789586502962E-5</v>
       </c>
       <c r="K19">
-        <v>-5.6518460944069701e-05</v>
+        <v>-5.6518460944069701E-5</v>
       </c>
       <c r="L19">
-        <v>-6.2674586907900511e-05</v>
+        <v>-6.2674586907900511E-5</v>
       </c>
       <c r="M19">
-        <v>-6.5524841696822122e-05</v>
+        <v>-6.5524841696822122E-5</v>
       </c>
       <c r="N19">
-        <v>-2.8688454173198001e-06</v>
+        <v>-2.8688454173198001E-6</v>
       </c>
       <c r="O19">
-        <v>3.6326456823938441e-07</v>
+        <v>3.6326456823938441E-7</v>
       </c>
       <c r="P19">
-        <v>1.4759897660591757e-06</v>
+        <v>1.4759897660591757E-6</v>
       </c>
       <c r="Q19">
-        <v>-2.9347501904206645e-07</v>
+        <v>-2.9347501904206645E-7</v>
       </c>
       <c r="R19">
-        <v>8.5890325664010015e-07</v>
+        <v>8.5890325664010015E-7</v>
       </c>
       <c r="S19">
-        <v>-3.4039787616806396e-07</v>
+        <v>-3.4039787616806396E-7</v>
       </c>
       <c r="T19">
-        <v>7.0561656827931106e-05</v>
+        <v>7.0561656827931106E-5</v>
       </c>
       <c r="U19">
-        <v>1.2706348389601879e-05</v>
+        <v>1.2706348389601879E-5</v>
       </c>
       <c r="V19">
-        <v>0.00031200419238927969</v>
+        <v>3.1200419238927969E-4</v>
       </c>
       <c r="W19">
-        <v>-0.00018050982201790717</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>-1.8050982201790717E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
       <c r="B20">
-        <v>-0.010519011808655646</v>
+        <v>-1.0519011808655646E-2</v>
       </c>
       <c r="C20">
-        <v>-3.3993745147163856e-07</v>
+        <v>-3.3993745147163856E-7</v>
       </c>
       <c r="D20">
-        <v>-2.8203116859035689e-06</v>
+        <v>-2.8203116859035689E-6</v>
       </c>
       <c r="E20">
-        <v>3.3163610931909897e-08</v>
+        <v>3.3163610931909897E-8</v>
       </c>
       <c r="F20">
-        <v>1.9203702156151008e-06</v>
+        <v>1.9203702156151008E-6</v>
       </c>
       <c r="G20">
-        <v>7.4920713239843193e-06</v>
+        <v>7.4920713239843193E-6</v>
       </c>
       <c r="H20">
-        <v>-2.3385631224593459e-08</v>
+        <v>-2.3385631224593459E-8</v>
       </c>
       <c r="I20">
-        <v>-9.9171176587116558e-08</v>
+        <v>-9.9171176587116558E-8</v>
       </c>
       <c r="J20">
-        <v>-1.0798167308472676e-05</v>
+        <v>-1.0798167308472676E-5</v>
       </c>
       <c r="K20">
-        <v>-1.6261231449329902e-05</v>
+        <v>-1.6261231449329902E-5</v>
       </c>
       <c r="L20">
-        <v>-1.8266920407099411e-05</v>
+        <v>-1.8266920407099411E-5</v>
       </c>
       <c r="M20">
-        <v>-1.9389344808155573e-05</v>
+        <v>-1.9389344808155573E-5</v>
       </c>
       <c r="N20">
-        <v>-1.0926995436509485e-06</v>
+        <v>-1.0926995436509485E-6</v>
       </c>
       <c r="O20">
-        <v>-5.2667935480088515e-08</v>
+        <v>-5.2667935480088515E-8</v>
       </c>
       <c r="P20">
-        <v>6.6479604857148543e-07</v>
+        <v>6.6479604857148543E-7</v>
       </c>
       <c r="Q20">
-        <v>-2.5397048588196829e-07</v>
+        <v>-2.5397048588196829E-7</v>
       </c>
       <c r="R20">
-        <v>-2.1424418401483144e-07</v>
+        <v>-2.1424418401483144E-7</v>
       </c>
       <c r="S20">
-        <v>-4.1610085424614751e-07</v>
+        <v>-4.1610085424614751E-7</v>
       </c>
       <c r="T20">
-        <v>1.2706348389601879e-05</v>
+        <v>1.2706348389601879E-5</v>
       </c>
       <c r="U20">
-        <v>6.9552957763724789e-05</v>
+        <v>6.9552957763724789E-5</v>
       </c>
       <c r="V20">
-        <v>0.00012216265549412376</v>
+        <v>1.2216265549412376E-4</v>
       </c>
       <c r="W20">
-        <v>-5.197353396347335e-05</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>-5.197353396347335E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -4730,70 +5029,70 @@
         <v>-0.2175846901168523</v>
       </c>
       <c r="C21">
-        <v>1.7306224963702015e-06</v>
+        <v>1.7306224963702015E-6</v>
       </c>
       <c r="D21">
-        <v>-0.00037010256147277699</v>
+        <v>-3.7010256147277699E-4</v>
       </c>
       <c r="E21">
-        <v>4.2390165884613272e-06</v>
+        <v>4.2390165884613272E-6</v>
       </c>
       <c r="F21">
-        <v>-1.9586883579712538e-05</v>
+        <v>-1.9586883579712538E-5</v>
       </c>
       <c r="G21">
-        <v>0.00057619989151922401</v>
+        <v>5.7619989151922401E-4</v>
       </c>
       <c r="H21">
-        <v>4.3046056610613416e-06</v>
+        <v>4.3046056610613416E-6</v>
       </c>
       <c r="I21">
-        <v>-3.0328899356351068e-06</v>
+        <v>-3.0328899356351068E-6</v>
       </c>
       <c r="J21">
-        <v>-0.002734350313124188</v>
+        <v>-2.734350313124188E-3</v>
       </c>
       <c r="K21">
-        <v>-0.0033943542645061744</v>
+        <v>-3.3943542645061744E-3</v>
       </c>
       <c r="L21">
-        <v>-0.0036057398658764631</v>
+        <v>-3.6057398658764631E-3</v>
       </c>
       <c r="M21">
-        <v>-0.0037298557534467874</v>
+        <v>-3.7298557534467874E-3</v>
       </c>
       <c r="N21">
-        <v>-0.00010941811371019872</v>
+        <v>-1.0941811371019872E-4</v>
       </c>
       <c r="O21">
-        <v>1.3004444993021177e-05</v>
+        <v>1.3004444993021177E-5</v>
       </c>
       <c r="P21">
-        <v>3.698660854811083e-05</v>
+        <v>3.698660854811083E-5</v>
       </c>
       <c r="Q21">
-        <v>-1.30862587691766e-05</v>
+        <v>-1.30862587691766E-5</v>
       </c>
       <c r="R21">
-        <v>1.9585805021687986e-05</v>
+        <v>1.9585805021687986E-5</v>
       </c>
       <c r="S21">
-        <v>-2.2848720968288204e-06</v>
+        <v>-2.2848720968288204E-6</v>
       </c>
       <c r="T21">
-        <v>0.00031200419238927969</v>
+        <v>3.1200419238927969E-4</v>
       </c>
       <c r="U21">
-        <v>0.00012216265549412376</v>
+        <v>1.2216265549412376E-4</v>
       </c>
       <c r="V21">
-        <v>0.012166687571188863</v>
+        <v>1.2166687571188863E-2</v>
       </c>
       <c r="W21">
-        <v>-0.0061807080262202604</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>-6.1807080262202604E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -4801,82 +5100,83 @@
         <v>0.15642191618843199</v>
       </c>
       <c r="C22">
-        <v>-8.6087834123038204e-07</v>
+        <v>-8.6087834123038204E-7</v>
       </c>
       <c r="D22">
-        <v>0.00021486155085840661</v>
+        <v>2.1486155085840661E-4</v>
       </c>
       <c r="E22">
-        <v>-2.4830711083232331e-06</v>
+        <v>-2.4830711083232331E-6</v>
       </c>
       <c r="F22">
-        <v>-9.0971539066747112e-05</v>
+        <v>-9.0971539066747112E-5</v>
       </c>
       <c r="G22">
-        <v>-0.00045083496442177139</v>
+        <v>-4.5083496442177139E-4</v>
       </c>
       <c r="H22">
-        <v>-6.2593705201969432e-07</v>
+        <v>-6.2593705201969432E-7</v>
       </c>
       <c r="I22">
-        <v>3.2178544056340832e-06</v>
+        <v>3.2178544056340832E-6</v>
       </c>
       <c r="J22">
-        <v>0.00080916455466740784</v>
+        <v>8.0916455466740784E-4</v>
       </c>
       <c r="K22">
-        <v>0.0012381814975155345</v>
+        <v>1.2381814975155345E-3</v>
       </c>
       <c r="L22">
-        <v>0.0013752390306774496</v>
+        <v>1.3752390306774496E-3</v>
       </c>
       <c r="M22">
-        <v>0.0014371053802197072</v>
+        <v>1.4371053802197072E-3</v>
       </c>
       <c r="N22">
-        <v>6.0647631655173374e-05</v>
+        <v>6.0647631655173374E-5</v>
       </c>
       <c r="O22">
-        <v>-2.1866447286830713e-05</v>
+        <v>-2.1866447286830713E-5</v>
       </c>
       <c r="P22">
-        <v>-3.2050082411115895e-05</v>
+        <v>-3.2050082411115895E-5</v>
       </c>
       <c r="Q22">
-        <v>-2.4009545364350054e-06</v>
+        <v>-2.4009545364350054E-6</v>
       </c>
       <c r="R22">
-        <v>-3.0787142987034561e-05</v>
+        <v>-3.0787142987034561E-5</v>
       </c>
       <c r="S22">
-        <v>-7.0182028266619682e-08</v>
+        <v>-7.0182028266619682E-8</v>
       </c>
       <c r="T22">
-        <v>-0.00018050982201790717</v>
+        <v>-1.8050982201790717E-4</v>
       </c>
       <c r="U22">
-        <v>-5.197353396347335e-05</v>
+        <v>-5.197353396347335E-5</v>
       </c>
       <c r="V22">
-        <v>-0.0061807080262202604</v>
+        <v>-6.1807080262202604E-3</v>
       </c>
       <c r="W22">
-        <v>0.0040004999967319845</v>
+        <v>4.0004999967319845E-3</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -4947,7 +5247,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -4955,496 +5255,496 @@
         <v>0.81754152829622773</v>
       </c>
       <c r="C2">
-        <v>8.5719799380112936e-06</v>
+        <v>8.5719799380112936E-6</v>
       </c>
       <c r="D2">
-        <v>-9.6357485484354118e-08</v>
+        <v>-9.6357485484354118E-8</v>
       </c>
       <c r="E2">
-        <v>-2.2830238276407115e-11</v>
+        <v>-2.2830238276407115E-11</v>
       </c>
       <c r="F2">
-        <v>1.0016690684354763e-06</v>
+        <v>1.0016690684354763E-6</v>
       </c>
       <c r="G2">
-        <v>-3.360436818405722e-07</v>
+        <v>-3.360436818405722E-7</v>
       </c>
       <c r="H2">
-        <v>5.72596780673939e-08</v>
+        <v>5.72596780673939E-8</v>
       </c>
       <c r="I2">
-        <v>1.2885582860948503e-07</v>
+        <v>1.2885582860948503E-7</v>
       </c>
       <c r="J2">
-        <v>5.45439141752782e-07</v>
+        <v>5.45439141752782E-7</v>
       </c>
       <c r="K2">
-        <v>1.4482514845650772e-06</v>
+        <v>1.4482514845650772E-6</v>
       </c>
       <c r="L2">
-        <v>1.2815801798531074e-06</v>
+        <v>1.2815801798531074E-6</v>
       </c>
       <c r="M2">
-        <v>1.0122393671551963e-06</v>
+        <v>1.0122393671551963E-6</v>
       </c>
       <c r="N2">
-        <v>2.5149956979487623e-07</v>
+        <v>2.5149956979487623E-7</v>
       </c>
       <c r="O2">
-        <v>-7.2497937398557479e-07</v>
+        <v>-7.2497937398557479E-7</v>
       </c>
       <c r="P2">
-        <v>1.1035047931850824e-08</v>
+        <v>1.1035047931850824E-8</v>
       </c>
       <c r="Q2">
-        <v>7.5953216481798214e-07</v>
+        <v>7.5953216481798214E-7</v>
       </c>
       <c r="R2">
-        <v>1.271963702109067e-06</v>
+        <v>1.271963702109067E-6</v>
       </c>
       <c r="S2">
-        <v>-4.6056211331114222e-08</v>
+        <v>-4.6056211331114222E-8</v>
       </c>
       <c r="T2">
-        <v>-7.6555364133873366e-07</v>
+        <v>-7.6555364133873366E-7</v>
       </c>
       <c r="U2">
-        <v>-1.4418322794137973e-07</v>
+        <v>-1.4418322794137973E-7</v>
       </c>
       <c r="V2">
-        <v>-7.7439097670995628e-06</v>
+        <v>-7.7439097670995628E-6</v>
       </c>
       <c r="W2">
-        <v>9.5290420813499604e-06</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>9.5290420813499604E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3">
-        <v>-0.0083017969195921214</v>
+        <v>-8.3017969195921214E-3</v>
       </c>
       <c r="C3">
-        <v>-9.6357485484354118e-08</v>
+        <v>-9.6357485484354118E-8</v>
       </c>
       <c r="D3">
-        <v>8.9388123718401584e-06</v>
+        <v>8.9388123718401584E-6</v>
       </c>
       <c r="E3">
-        <v>-1.0437997512938109e-07</v>
+        <v>-1.0437997512938109E-7</v>
       </c>
       <c r="F3">
-        <v>1.3995870290245832e-05</v>
+        <v>1.3995870290245832E-5</v>
       </c>
       <c r="G3">
-        <v>-4.5035087354437294e-06</v>
+        <v>-4.5035087354437294E-6</v>
       </c>
       <c r="H3">
-        <v>-3.2349271651709307e-07</v>
+        <v>-3.2349271651709307E-7</v>
       </c>
       <c r="I3">
-        <v>-6.787524881522505e-08</v>
+        <v>-6.787524881522505E-8</v>
       </c>
       <c r="J3">
-        <v>3.2709055480318718e-05</v>
+        <v>3.2709055480318718E-5</v>
       </c>
       <c r="K3">
-        <v>6.7662252681921655e-05</v>
+        <v>6.7662252681921655E-5</v>
       </c>
       <c r="L3">
-        <v>7.54016541980888e-05</v>
+        <v>7.54016541980888E-5</v>
       </c>
       <c r="M3">
-        <v>7.804515926095962e-05</v>
+        <v>7.804515926095962E-5</v>
       </c>
       <c r="N3">
-        <v>1.7596591154108668e-06</v>
+        <v>1.7596591154108668E-6</v>
       </c>
       <c r="O3">
-        <v>-2.1433693691763144e-06</v>
+        <v>-2.1433693691763144E-6</v>
       </c>
       <c r="P3">
-        <v>-2.1303960959452357e-06</v>
+        <v>-2.1303960959452357E-6</v>
       </c>
       <c r="Q3">
-        <v>-6.7038047163706636e-07</v>
+        <v>-6.7038047163706636E-7</v>
       </c>
       <c r="R3">
-        <v>-1.4164345413678755e-06</v>
+        <v>-1.4164345413678755E-6</v>
       </c>
       <c r="S3">
-        <v>-1.7519818906491076e-08</v>
+        <v>-1.7519818906491076E-8</v>
       </c>
       <c r="T3">
-        <v>-6.1920262790011074e-06</v>
+        <v>-6.1920262790011074E-6</v>
       </c>
       <c r="U3">
-        <v>1.5354376099694776e-06</v>
+        <v>1.5354376099694776E-6</v>
       </c>
       <c r="V3">
-        <v>-0.00027068070388926749</v>
+        <v>-2.7068070388926749E-4</v>
       </c>
       <c r="W3">
-        <v>0.000211687281128268</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2.11687281128268E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4">
-        <v>0.00011471489932512702</v>
+        <v>1.1471489932512702E-4</v>
       </c>
       <c r="C4">
-        <v>-2.2830238276407115e-11</v>
+        <v>-2.2830238276407115E-11</v>
       </c>
       <c r="D4">
-        <v>-1.0437997512938109e-07</v>
+        <v>-1.0437997512938109E-7</v>
       </c>
       <c r="E4">
-        <v>1.2429712343061825e-09</v>
+        <v>1.2429712343061825E-9</v>
       </c>
       <c r="F4">
-        <v>-8.7328849216225061e-08</v>
+        <v>-8.7328849216225061E-8</v>
       </c>
       <c r="G4">
-        <v>1.3717856467672172e-07</v>
+        <v>1.3717856467672172E-7</v>
       </c>
       <c r="H4">
-        <v>1.9431635005202673e-09</v>
+        <v>1.9431635005202673E-9</v>
       </c>
       <c r="I4">
-        <v>-1.1590458210061321e-09</v>
+        <v>-1.1590458210061321E-9</v>
       </c>
       <c r="J4">
-        <v>-3.9488572922500512e-07</v>
+        <v>-3.9488572922500512E-7</v>
       </c>
       <c r="K4">
-        <v>-8.1697856204955601e-07</v>
+        <v>-8.1697856204955601E-7</v>
       </c>
       <c r="L4">
-        <v>-9.0812400888249725e-07</v>
+        <v>-9.0812400888249725E-7</v>
       </c>
       <c r="M4">
-        <v>-9.356514221247226e-07</v>
+        <v>-9.356514221247226E-7</v>
       </c>
       <c r="N4">
-        <v>-2.1759824142311797e-08</v>
+        <v>-2.1759824142311797E-8</v>
       </c>
       <c r="O4">
-        <v>2.528213581687567e-08</v>
+        <v>2.528213581687567E-8</v>
       </c>
       <c r="P4">
-        <v>2.5148081304804029e-08</v>
+        <v>2.5148081304804029E-8</v>
       </c>
       <c r="Q4">
-        <v>7.8880233373053858e-09</v>
+        <v>7.8880233373053858E-9</v>
       </c>
       <c r="R4">
-        <v>1.5472056656198025e-08</v>
+        <v>1.5472056656198025E-8</v>
       </c>
       <c r="S4">
-        <v>1.7314233839552872e-10</v>
+        <v>1.7314233839552872E-10</v>
       </c>
       <c r="T4">
-        <v>7.5454734888846687e-08</v>
+        <v>7.5454734888846687E-8</v>
       </c>
       <c r="U4">
-        <v>-1.8035694006008437e-08</v>
+        <v>-1.8035694006008437E-8</v>
       </c>
       <c r="V4">
-        <v>3.1562671385628023e-06</v>
+        <v>3.1562671385628023E-6</v>
       </c>
       <c r="W4">
-        <v>-2.5550678443893168e-06</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>-2.5550678443893168E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5">
-        <v>-0.033800948836971205</v>
+        <v>-3.3800948836971205E-2</v>
       </c>
       <c r="C5">
-        <v>1.0016690684354763e-06</v>
+        <v>1.0016690684354763E-6</v>
       </c>
       <c r="D5">
-        <v>1.3995870290245832e-05</v>
+        <v>1.3995870290245832E-5</v>
       </c>
       <c r="E5">
-        <v>-8.7328849216225061e-08</v>
+        <v>-8.7328849216225061E-8</v>
       </c>
       <c r="F5">
-        <v>0.00039116895927665139</v>
+        <v>3.9116895927665139E-4</v>
       </c>
       <c r="G5">
-        <v>0.00028974671161578335</v>
+        <v>2.8974671161578335E-4</v>
       </c>
       <c r="H5">
-        <v>-8.6544952991215635e-06</v>
+        <v>-8.6544952991215635E-6</v>
       </c>
       <c r="I5">
-        <v>-6.5799288765850334e-06</v>
+        <v>-6.5799288765850334E-6</v>
       </c>
       <c r="J5">
-        <v>2.2852958638569301e-05</v>
+        <v>2.2852958638569301E-5</v>
       </c>
       <c r="K5">
-        <v>4.4878858244122343e-05</v>
+        <v>4.4878858244122343E-5</v>
       </c>
       <c r="L5">
-        <v>4.7167701996976456e-05</v>
+        <v>4.7167701996976456E-5</v>
       </c>
       <c r="M5">
-        <v>5.1549719409393884e-05</v>
+        <v>5.1549719409393884E-5</v>
       </c>
       <c r="N5">
-        <v>-1.663898711954644e-07</v>
+        <v>-1.663898711954644E-7</v>
       </c>
       <c r="O5">
-        <v>-2.2942380001830508e-06</v>
+        <v>-2.2942380001830508E-6</v>
       </c>
       <c r="P5">
-        <v>-2.5514086210217328e-06</v>
+        <v>-2.5514086210217328E-6</v>
       </c>
       <c r="Q5">
-        <v>2.0714775073959332e-07</v>
+        <v>2.0714775073959332E-7</v>
       </c>
       <c r="R5">
-        <v>-4.3740824761927539e-06</v>
+        <v>-4.3740824761927539E-6</v>
       </c>
       <c r="S5">
-        <v>2.563808435029714e-08</v>
+        <v>2.563808435029714E-8</v>
       </c>
       <c r="T5">
-        <v>-2.7753638319107293e-06</v>
+        <v>-2.7753638319107293E-6</v>
       </c>
       <c r="U5">
-        <v>1.4323137028340943e-06</v>
+        <v>1.4323137028340943E-6</v>
       </c>
       <c r="V5">
-        <v>-0.00050643826020385001</v>
+        <v>-5.0643826020385001E-4</v>
       </c>
       <c r="W5">
-        <v>0.00015054492978484828</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1.5054492978484828E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6">
-        <v>0.027336816364298924</v>
+        <v>2.7336816364298924E-2</v>
       </c>
       <c r="C6">
-        <v>-3.360436818405722e-07</v>
+        <v>-3.360436818405722E-7</v>
       </c>
       <c r="D6">
-        <v>-4.5035087354437294e-06</v>
+        <v>-4.5035087354437294E-6</v>
       </c>
       <c r="E6">
-        <v>1.3717856467672172e-07</v>
+        <v>1.3717856467672172E-7</v>
       </c>
       <c r="F6">
-        <v>0.00028974671161578335</v>
+        <v>2.8974671161578335E-4</v>
       </c>
       <c r="G6">
-        <v>0.001080811256420974</v>
+        <v>1.080811256420974E-3</v>
       </c>
       <c r="H6">
-        <v>-6.4864023356591805e-06</v>
+        <v>-6.4864023356591805E-6</v>
       </c>
       <c r="I6">
-        <v>-2.2421869511660834e-05</v>
+        <v>-2.2421869511660834E-5</v>
       </c>
       <c r="J6">
-        <v>-6.7416349533931346e-05</v>
+        <v>-6.7416349533931346E-5</v>
       </c>
       <c r="K6">
-        <v>-0.00014490814886148576</v>
+        <v>-1.4490814886148576E-4</v>
       </c>
       <c r="L6">
-        <v>-0.00016478541560917853</v>
+        <v>-1.6478541560917853E-4</v>
       </c>
       <c r="M6">
-        <v>-0.00016330872044930625</v>
+        <v>-1.6330872044930625E-4</v>
       </c>
       <c r="N6">
-        <v>-9.4373476933446708e-06</v>
+        <v>-9.4373476933446708E-6</v>
       </c>
       <c r="O6">
-        <v>2.1034788979253253e-06</v>
+        <v>2.1034788979253253E-6</v>
       </c>
       <c r="P6">
-        <v>-1.5483297437031937e-06</v>
+        <v>-1.5483297437031937E-6</v>
       </c>
       <c r="Q6">
-        <v>2.314120354258204e-06</v>
+        <v>2.314120354258204E-6</v>
       </c>
       <c r="R6">
-        <v>2.1150473544687655e-06</v>
+        <v>2.1150473544687655E-6</v>
       </c>
       <c r="S6">
-        <v>-1.715397334683928e-08</v>
+        <v>-1.715397334683928E-8</v>
       </c>
       <c r="T6">
-        <v>1.5606146623387442e-05</v>
+        <v>1.5606146623387442E-5</v>
       </c>
       <c r="U6">
-        <v>-8.8262432999707306e-07</v>
+        <v>-8.8262432999707306E-7</v>
       </c>
       <c r="V6">
-        <v>0.00011809779953667602</v>
+        <v>1.1809779953667602E-4</v>
       </c>
       <c r="W6">
-        <v>-0.0004303779294505138</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>-4.303779294505138E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
       <c r="B7">
-        <v>-0.00081720134106618466</v>
+        <v>-8.1720134106618466E-4</v>
       </c>
       <c r="C7">
-        <v>5.72596780673939e-08</v>
+        <v>5.72596780673939E-8</v>
       </c>
       <c r="D7">
-        <v>-3.2349271651709307e-07</v>
+        <v>-3.2349271651709307E-7</v>
       </c>
       <c r="E7">
-        <v>1.9431635005202673e-09</v>
+        <v>1.9431635005202673E-9</v>
       </c>
       <c r="F7">
-        <v>-8.6544952991215635e-06</v>
+        <v>-8.6544952991215635E-6</v>
       </c>
       <c r="G7">
-        <v>-6.4864023356591805e-06</v>
+        <v>-6.4864023356591805E-6</v>
       </c>
       <c r="H7">
-        <v>2.0648134157550635e-07</v>
+        <v>2.0648134157550635E-7</v>
       </c>
       <c r="I7">
-        <v>1.5972469268649885e-07</v>
+        <v>1.5972469268649885E-7</v>
       </c>
       <c r="J7">
-        <v>-5.2541192679914334e-07</v>
+        <v>-5.2541192679914334E-7</v>
       </c>
       <c r="K7">
-        <v>-1.0162192002197664e-06</v>
+        <v>-1.0162192002197664E-6</v>
       </c>
       <c r="L7">
-        <v>-1.0327568482186059e-06</v>
+        <v>-1.0327568482186059E-6</v>
       </c>
       <c r="M7">
-        <v>-1.0949702594944283e-06</v>
+        <v>-1.0949702594944283E-6</v>
       </c>
       <c r="N7">
-        <v>-2.6986928807212213e-08</v>
+        <v>-2.6986928807212213E-8</v>
       </c>
       <c r="O7">
-        <v>4.4127182160795488e-08</v>
+        <v>4.4127182160795488E-8</v>
       </c>
       <c r="P7">
-        <v>3.8305648314895476e-08</v>
+        <v>3.8305648314895476E-8</v>
       </c>
       <c r="Q7">
-        <v>-8.9451320988791462e-11</v>
+        <v>-8.9451320988791462E-11</v>
       </c>
       <c r="R7">
-        <v>1.6288223690267113e-07</v>
+        <v>1.6288223690267113E-7</v>
       </c>
       <c r="S7">
-        <v>3.3239530248624334e-10</v>
+        <v>3.3239530248624334E-10</v>
       </c>
       <c r="T7">
-        <v>5.0381889612308155e-08</v>
+        <v>5.0381889612308155E-8</v>
       </c>
       <c r="U7">
-        <v>-4.7653173744185951e-08</v>
+        <v>-4.7653173744185951E-8</v>
       </c>
       <c r="V7">
-        <v>1.1074650930368207e-05</v>
+        <v>1.1074650930368207E-5</v>
       </c>
       <c r="W7">
-        <v>-3.3633505240804736e-06</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>-3.3633505240804736E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="B8">
-        <v>-0.0028640926986650086</v>
+        <v>-2.8640926986650086E-3</v>
       </c>
       <c r="C8">
-        <v>1.2885582860948503e-07</v>
+        <v>1.2885582860948503E-7</v>
       </c>
       <c r="D8">
-        <v>-6.787524881522505e-08</v>
+        <v>-6.787524881522505E-8</v>
       </c>
       <c r="E8">
-        <v>-1.1590458210061321e-09</v>
+        <v>-1.1590458210061321E-9</v>
       </c>
       <c r="F8">
-        <v>-6.5799288765850334e-06</v>
+        <v>-6.5799288765850334E-6</v>
       </c>
       <c r="G8">
-        <v>-2.2421869511660834e-05</v>
+        <v>-2.2421869511660834E-5</v>
       </c>
       <c r="H8">
-        <v>1.5972469268649885e-07</v>
+        <v>1.5972469268649885E-7</v>
       </c>
       <c r="I8">
-        <v>5.1080297085191474e-07</v>
+        <v>5.1080297085191474E-7</v>
       </c>
       <c r="J8">
-        <v>6.8121666884890313e-07</v>
+        <v>6.8121666884890313E-7</v>
       </c>
       <c r="K8">
-        <v>1.5755446475584516e-06</v>
+        <v>1.5755446475584516E-6</v>
       </c>
       <c r="L8">
-        <v>1.8823616874370457e-06</v>
+        <v>1.8823616874370457E-6</v>
       </c>
       <c r="M8">
-        <v>1.8633373988000331e-06</v>
+        <v>1.8633373988000331E-6</v>
       </c>
       <c r="N8">
-        <v>1.1228733379932175e-07</v>
+        <v>1.1228733379932175E-7</v>
       </c>
       <c r="O8">
-        <v>-1.2590502197977029e-08</v>
+        <v>-1.2590502197977029E-8</v>
       </c>
       <c r="P8">
-        <v>1.9481302101165153e-08</v>
+        <v>1.9481302101165153E-8</v>
       </c>
       <c r="Q8">
-        <v>-7.2141003498394036e-08</v>
+        <v>-7.2141003498394036E-8</v>
       </c>
       <c r="R8">
-        <v>2.6881361916250879e-08</v>
+        <v>2.6881361916250879E-8</v>
       </c>
       <c r="S8">
-        <v>2.3750169529830964e-09</v>
+        <v>2.3750169529830964E-9</v>
       </c>
       <c r="T8">
-        <v>-2.1674460423205684e-07</v>
+        <v>-2.1674460423205684E-7</v>
       </c>
       <c r="U8">
-        <v>-3.3126276989111385e-08</v>
+        <v>-3.3126276989111385E-8</v>
       </c>
       <c r="V8">
-        <v>2.2420853471717389e-06</v>
+        <v>2.2420853471717389E-6</v>
       </c>
       <c r="W8">
-        <v>4.5450041182570334e-06</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>4.5450041182570334E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -5452,70 +5752,70 @@
         <v>-0.12682867431996114</v>
       </c>
       <c r="C9">
-        <v>5.45439141752782e-07</v>
+        <v>5.45439141752782E-7</v>
       </c>
       <c r="D9">
-        <v>3.2709055480318718e-05</v>
+        <v>3.2709055480318718E-5</v>
       </c>
       <c r="E9">
-        <v>-3.9488572922500512e-07</v>
+        <v>-3.9488572922500512E-7</v>
       </c>
       <c r="F9">
-        <v>2.2852958638569301e-05</v>
+        <v>2.2852958638569301E-5</v>
       </c>
       <c r="G9">
-        <v>-6.7416349533931346e-05</v>
+        <v>-6.7416349533931346E-5</v>
       </c>
       <c r="H9">
-        <v>-5.2541192679914334e-07</v>
+        <v>-5.2541192679914334E-7</v>
       </c>
       <c r="I9">
-        <v>6.8121666884890313e-07</v>
+        <v>6.8121666884890313E-7</v>
       </c>
       <c r="J9">
-        <v>0.0015370985970945392</v>
+        <v>1.5370985970945392E-3</v>
       </c>
       <c r="K9">
-        <v>0.0015662776354217784</v>
+        <v>1.5662776354217784E-3</v>
       </c>
       <c r="L9">
-        <v>0.0016042794076839635</v>
+        <v>1.6042794076839635E-3</v>
       </c>
       <c r="M9">
-        <v>0.0016111986078070164</v>
+        <v>1.6111986078070164E-3</v>
       </c>
       <c r="N9">
-        <v>9.2986042328685394e-06</v>
+        <v>9.2986042328685394E-6</v>
       </c>
       <c r="O9">
-        <v>-8.4997406297836351e-06</v>
+        <v>-8.4997406297836351E-6</v>
       </c>
       <c r="P9">
-        <v>-1.0044284433739983e-05</v>
+        <v>-1.0044284433739983E-5</v>
       </c>
       <c r="Q9">
-        <v>-3.632798489226808e-06</v>
+        <v>-3.632798489226808E-6</v>
       </c>
       <c r="R9">
-        <v>-1.2131121602420204e-05</v>
+        <v>-1.2131121602420204E-5</v>
       </c>
       <c r="S9">
-        <v>-3.1125058306251189e-09</v>
+        <v>-3.1125058306251189E-9</v>
       </c>
       <c r="T9">
-        <v>-3.0729180899911556e-05</v>
+        <v>-3.0729180899911556E-5</v>
       </c>
       <c r="U9">
-        <v>7.4441621883989011e-06</v>
+        <v>7.4441621883989011E-6</v>
       </c>
       <c r="V9">
-        <v>-0.0023200130782038619</v>
+        <v>-2.3200130782038619E-3</v>
       </c>
       <c r="W9">
-        <v>0.00098395537889925215</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>9.8395537889925215E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -5523,70 +5823,70 @@
         <v>-0.18597625216344818</v>
       </c>
       <c r="C10">
-        <v>1.4482514845650772e-06</v>
+        <v>1.4482514845650772E-6</v>
       </c>
       <c r="D10">
-        <v>6.7662252681921655e-05</v>
+        <v>6.7662252681921655E-5</v>
       </c>
       <c r="E10">
-        <v>-8.1697856204955601e-07</v>
+        <v>-8.1697856204955601E-7</v>
       </c>
       <c r="F10">
-        <v>4.4878858244122343e-05</v>
+        <v>4.4878858244122343E-5</v>
       </c>
       <c r="G10">
-        <v>-0.00014490814886148576</v>
+        <v>-1.4490814886148576E-4</v>
       </c>
       <c r="H10">
-        <v>-1.0162192002197664e-06</v>
+        <v>-1.0162192002197664E-6</v>
       </c>
       <c r="I10">
-        <v>1.5755446475584516e-06</v>
+        <v>1.5755446475584516E-6</v>
       </c>
       <c r="J10">
-        <v>0.0015662776354217784</v>
+        <v>1.5662776354217784E-3</v>
       </c>
       <c r="K10">
-        <v>0.0019289438172209873</v>
+        <v>1.9289438172209873E-3</v>
       </c>
       <c r="L10">
-        <v>0.0019856627981936509</v>
+        <v>1.9856627981936509E-3</v>
       </c>
       <c r="M10">
-        <v>0.0020003199190514027</v>
+        <v>2.0003199190514027E-3</v>
       </c>
       <c r="N10">
-        <v>1.7421114537083598e-05</v>
+        <v>1.7421114537083598E-5</v>
       </c>
       <c r="O10">
-        <v>-1.9380769725766443e-05</v>
+        <v>-1.9380769725766443E-5</v>
       </c>
       <c r="P10">
-        <v>-2.1100969449017541e-05</v>
+        <v>-2.1100969449017541E-5</v>
       </c>
       <c r="Q10">
-        <v>-7.4343586068787462e-06</v>
+        <v>-7.4343586068787462E-6</v>
       </c>
       <c r="R10">
-        <v>-2.3546433459851598e-05</v>
+        <v>-2.3546433459851598E-5</v>
       </c>
       <c r="S10">
-        <v>-1.3170913625806322e-07</v>
+        <v>-1.3170913625806322E-7</v>
       </c>
       <c r="T10">
-        <v>-6.0635308691845765e-05</v>
+        <v>-6.0635308691845765E-5</v>
       </c>
       <c r="U10">
-        <v>1.4928499224466714e-05</v>
+        <v>1.4928499224466714E-5</v>
       </c>
       <c r="V10">
-        <v>-0.0034533272165144999</v>
+        <v>-3.4533272165144999E-3</v>
       </c>
       <c r="W10">
-        <v>0.0020395056304370841</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>2.0395056304370841E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -5594,70 +5894,70 @@
         <v>-0.19232358361157023</v>
       </c>
       <c r="C11">
-        <v>1.2815801798531074e-06</v>
+        <v>1.2815801798531074E-6</v>
       </c>
       <c r="D11">
-        <v>7.54016541980888e-05</v>
+        <v>7.54016541980888E-5</v>
       </c>
       <c r="E11">
-        <v>-9.0812400888249725e-07</v>
+        <v>-9.0812400888249725E-7</v>
       </c>
       <c r="F11">
-        <v>4.7167701996976456e-05</v>
+        <v>4.7167701996976456E-5</v>
       </c>
       <c r="G11">
-        <v>-0.00016478541560917853</v>
+        <v>-1.6478541560917853E-4</v>
       </c>
       <c r="H11">
-        <v>-1.0327568482186059e-06</v>
+        <v>-1.0327568482186059E-6</v>
       </c>
       <c r="I11">
-        <v>1.8823616874370457e-06</v>
+        <v>1.8823616874370457E-6</v>
       </c>
       <c r="J11">
-        <v>0.0016042794076839635</v>
+        <v>1.6042794076839635E-3</v>
       </c>
       <c r="K11">
-        <v>0.0019856627981936509</v>
+        <v>1.9856627981936509E-3</v>
       </c>
       <c r="L11">
-        <v>0.0020858760186119626</v>
+        <v>2.0858760186119626E-3</v>
       </c>
       <c r="M11">
-        <v>0.0020965943724471263</v>
+        <v>2.0965943724471263E-3</v>
       </c>
       <c r="N11">
-        <v>1.938655486933362e-05</v>
+        <v>1.938655486933362E-5</v>
       </c>
       <c r="O11">
-        <v>-2.1257406307672501e-05</v>
+        <v>-2.1257406307672501E-5</v>
       </c>
       <c r="P11">
-        <v>-2.2987766814459635e-05</v>
+        <v>-2.2987766814459635E-5</v>
       </c>
       <c r="Q11">
-        <v>-7.4080580122130805e-06</v>
+        <v>-7.4080580122130805E-6</v>
       </c>
       <c r="R11">
-        <v>-2.5533167378453458e-05</v>
+        <v>-2.5533167378453458E-5</v>
       </c>
       <c r="S11">
-        <v>-2.0578065663118315e-07</v>
+        <v>-2.0578065663118315E-7</v>
       </c>
       <c r="T11">
-        <v>-6.7838067575316406e-05</v>
+        <v>-6.7838067575316406E-5</v>
       </c>
       <c r="U11">
-        <v>1.6476605513574525e-05</v>
+        <v>1.6476605513574525E-5</v>
       </c>
       <c r="V11">
-        <v>-0.003714004004424125</v>
+        <v>-3.714004004424125E-3</v>
       </c>
       <c r="W11">
-        <v>0.0022851689451956186</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>2.2851689451956186E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -5665,638 +5965,638 @@
         <v>-0.19348663814856684</v>
       </c>
       <c r="C12">
-        <v>1.0122393671551963e-06</v>
+        <v>1.0122393671551963E-6</v>
       </c>
       <c r="D12">
-        <v>7.804515926095962e-05</v>
+        <v>7.804515926095962E-5</v>
       </c>
       <c r="E12">
-        <v>-9.356514221247226e-07</v>
+        <v>-9.356514221247226E-7</v>
       </c>
       <c r="F12">
-        <v>5.1549719409393884e-05</v>
+        <v>5.1549719409393884E-5</v>
       </c>
       <c r="G12">
-        <v>-0.00016330872044930625</v>
+        <v>-1.6330872044930625E-4</v>
       </c>
       <c r="H12">
-        <v>-1.0949702594944283e-06</v>
+        <v>-1.0949702594944283E-6</v>
       </c>
       <c r="I12">
-        <v>1.8633373988000331e-06</v>
+        <v>1.8633373988000331E-6</v>
       </c>
       <c r="J12">
-        <v>0.0016111986078070164</v>
+        <v>1.6111986078070164E-3</v>
       </c>
       <c r="K12">
-        <v>0.0020003199190514027</v>
+        <v>2.0003199190514027E-3</v>
       </c>
       <c r="L12">
-        <v>0.0020965943724471263</v>
+        <v>2.0965943724471263E-3</v>
       </c>
       <c r="M12">
-        <v>0.002140985465172517</v>
+        <v>2.140985465172517E-3</v>
       </c>
       <c r="N12">
-        <v>1.9854748068220714e-05</v>
+        <v>1.9854748068220714E-5</v>
       </c>
       <c r="O12">
-        <v>-2.1458495492841612e-05</v>
+        <v>-2.1458495492841612E-5</v>
       </c>
       <c r="P12">
-        <v>-2.3613286354808168e-05</v>
+        <v>-2.3613286354808168E-5</v>
       </c>
       <c r="Q12">
-        <v>-7.2447414872821684e-06</v>
+        <v>-7.2447414872821684E-6</v>
       </c>
       <c r="R12">
-        <v>-2.6494759600030859e-05</v>
+        <v>-2.6494759600030859E-5</v>
       </c>
       <c r="S12">
-        <v>-2.0345329743264723e-07</v>
+        <v>-2.0345329743264723E-7</v>
       </c>
       <c r="T12">
-        <v>-6.9119289664842202e-05</v>
+        <v>-6.9119289664842202E-5</v>
       </c>
       <c r="U12">
-        <v>1.6922054704051905e-05</v>
+        <v>1.6922054704051905E-5</v>
       </c>
       <c r="V12">
-        <v>-0.0037972162758293281</v>
+        <v>-3.7972162758293281E-3</v>
       </c>
       <c r="W12">
-        <v>0.0023300807872463905</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>2.3300807872463905E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
       <c r="B13">
-        <v>-0.0055909952398109234</v>
+        <v>-5.5909952398109234E-3</v>
       </c>
       <c r="C13">
-        <v>2.5149956979487623e-07</v>
+        <v>2.5149956979487623E-7</v>
       </c>
       <c r="D13">
-        <v>1.7596591154108668e-06</v>
+        <v>1.7596591154108668E-6</v>
       </c>
       <c r="E13">
-        <v>-2.1759824142311797e-08</v>
+        <v>-2.1759824142311797E-8</v>
       </c>
       <c r="F13">
-        <v>-1.663898711954644e-07</v>
+        <v>-1.663898711954644E-7</v>
       </c>
       <c r="G13">
-        <v>-9.4373476933446708e-06</v>
+        <v>-9.4373476933446708E-6</v>
       </c>
       <c r="H13">
-        <v>-2.6986928807212213e-08</v>
+        <v>-2.6986928807212213E-8</v>
       </c>
       <c r="I13">
-        <v>1.1228733379932175e-07</v>
+        <v>1.1228733379932175E-7</v>
       </c>
       <c r="J13">
-        <v>9.2986042328685394e-06</v>
+        <v>9.2986042328685394E-6</v>
       </c>
       <c r="K13">
-        <v>1.7421114537083598e-05</v>
+        <v>1.7421114537083598E-5</v>
       </c>
       <c r="L13">
-        <v>1.938655486933362e-05</v>
+        <v>1.938655486933362E-5</v>
       </c>
       <c r="M13">
-        <v>1.9854748068220714e-05</v>
+        <v>1.9854748068220714E-5</v>
       </c>
       <c r="N13">
-        <v>5.5212904368207931e-05</v>
+        <v>5.5212904368207931E-5</v>
       </c>
       <c r="O13">
-        <v>2.6223557869535353e-05</v>
+        <v>2.6223557869535353E-5</v>
       </c>
       <c r="P13">
-        <v>2.6334541172359565e-05</v>
+        <v>2.6334541172359565E-5</v>
       </c>
       <c r="Q13">
-        <v>2.6607845999418355e-05</v>
+        <v>2.6607845999418355E-5</v>
       </c>
       <c r="R13">
-        <v>6.0612879037040311e-07</v>
+        <v>6.0612879037040311E-7</v>
       </c>
       <c r="S13">
-        <v>-5.0326543723558223e-08</v>
+        <v>-5.0326543723558223E-8</v>
       </c>
       <c r="T13">
-        <v>-2.0484027777916082e-06</v>
+        <v>-2.0484027777916082E-6</v>
       </c>
       <c r="U13">
-        <v>-1.4131059656954673e-07</v>
+        <v>-1.4131059656954673E-7</v>
       </c>
       <c r="V13">
-        <v>-7.7266189159671815e-05</v>
+        <v>-7.7266189159671815E-5</v>
       </c>
       <c r="W13">
-        <v>5.2455898638150565e-05</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>5.2455898638150565E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
       <c r="B14">
-        <v>0.019781822803334459</v>
+        <v>1.9781822803334459E-2</v>
       </c>
       <c r="C14">
-        <v>-7.2497937398557479e-07</v>
+        <v>-7.2497937398557479E-7</v>
       </c>
       <c r="D14">
-        <v>-2.1433693691763144e-06</v>
+        <v>-2.1433693691763144E-6</v>
       </c>
       <c r="E14">
-        <v>2.528213581687567e-08</v>
+        <v>2.528213581687567E-8</v>
       </c>
       <c r="F14">
-        <v>-2.2942380001830508e-06</v>
+        <v>-2.2942380001830508E-6</v>
       </c>
       <c r="G14">
-        <v>2.1034788979253253e-06</v>
+        <v>2.1034788979253253E-6</v>
       </c>
       <c r="H14">
-        <v>4.4127182160795488e-08</v>
+        <v>4.4127182160795488E-8</v>
       </c>
       <c r="I14">
-        <v>-1.2590502197977029e-08</v>
+        <v>-1.2590502197977029E-8</v>
       </c>
       <c r="J14">
-        <v>-8.4997406297836351e-06</v>
+        <v>-8.4997406297836351E-6</v>
       </c>
       <c r="K14">
-        <v>-1.9380769725766443e-05</v>
+        <v>-1.9380769725766443E-5</v>
       </c>
       <c r="L14">
-        <v>-2.1257406307672501e-05</v>
+        <v>-2.1257406307672501E-5</v>
       </c>
       <c r="M14">
-        <v>-2.1458495492841612e-05</v>
+        <v>-2.1458495492841612E-5</v>
       </c>
       <c r="N14">
-        <v>2.6223557869535353e-05</v>
+        <v>2.6223557869535353E-5</v>
       </c>
       <c r="O14">
-        <v>7.2672953178037935e-05</v>
+        <v>7.2672953178037935E-5</v>
       </c>
       <c r="P14">
-        <v>2.7369406509486224e-05</v>
+        <v>2.7369406509486224E-5</v>
       </c>
       <c r="Q14">
-        <v>2.6855445766981229e-05</v>
+        <v>2.6855445766981229E-5</v>
       </c>
       <c r="R14">
-        <v>2.3302832495415866e-06</v>
+        <v>2.3302832495415866E-6</v>
       </c>
       <c r="S14">
-        <v>-2.8859692300840721e-08</v>
+        <v>-2.8859692300840721E-8</v>
       </c>
       <c r="T14">
-        <v>1.0698789766227658e-06</v>
+        <v>1.0698789766227658E-6</v>
       </c>
       <c r="U14">
-        <v>-1.2768029009950127e-06</v>
+        <v>-1.2768029009950127E-6</v>
       </c>
       <c r="V14">
-        <v>4.7201468949169018e-05</v>
+        <v>4.7201468949169018E-5</v>
       </c>
       <c r="W14">
-        <v>-6.3894914669658856e-05</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>-6.3894914669658856E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15">
-        <v>-0.00024628104430081936</v>
+        <v>-2.4628104430081936E-4</v>
       </c>
       <c r="C15">
-        <v>1.1035047931850824e-08</v>
+        <v>1.1035047931850824E-8</v>
       </c>
       <c r="D15">
-        <v>-2.1303960959452357e-06</v>
+        <v>-2.1303960959452357E-6</v>
       </c>
       <c r="E15">
-        <v>2.5148081304804029e-08</v>
+        <v>2.5148081304804029E-8</v>
       </c>
       <c r="F15">
-        <v>-2.5514086210217328e-06</v>
+        <v>-2.5514086210217328E-6</v>
       </c>
       <c r="G15">
-        <v>-1.5483297437031937e-06</v>
+        <v>-1.5483297437031937E-6</v>
       </c>
       <c r="H15">
-        <v>3.8305648314895476e-08</v>
+        <v>3.8305648314895476E-8</v>
       </c>
       <c r="I15">
-        <v>1.9481302101165153e-08</v>
+        <v>1.9481302101165153E-8</v>
       </c>
       <c r="J15">
-        <v>-1.0044284433739983e-05</v>
+        <v>-1.0044284433739983E-5</v>
       </c>
       <c r="K15">
-        <v>-2.1100969449017541e-05</v>
+        <v>-2.1100969449017541E-5</v>
       </c>
       <c r="L15">
-        <v>-2.2987766814459635e-05</v>
+        <v>-2.2987766814459635E-5</v>
       </c>
       <c r="M15">
-        <v>-2.3613286354808168e-05</v>
+        <v>-2.3613286354808168E-5</v>
       </c>
       <c r="N15">
-        <v>2.6334541172359565e-05</v>
+        <v>2.6334541172359565E-5</v>
       </c>
       <c r="O15">
-        <v>2.7369406509486224e-05</v>
+        <v>2.7369406509486224E-5</v>
       </c>
       <c r="P15">
-        <v>5.470732688079102e-05</v>
+        <v>5.470732688079102E-5</v>
       </c>
       <c r="Q15">
-        <v>2.6949070985318957e-05</v>
+        <v>2.6949070985318957E-5</v>
       </c>
       <c r="R15">
-        <v>2.4856350733548306e-06</v>
+        <v>2.4856350733548306E-6</v>
       </c>
       <c r="S15">
-        <v>-4.5359042264877324e-08</v>
+        <v>-4.5359042264877324E-8</v>
       </c>
       <c r="T15">
-        <v>1.5822250471813385e-06</v>
+        <v>1.5822250471813385E-6</v>
       </c>
       <c r="U15">
-        <v>-3.4832985096298883e-07</v>
+        <v>-3.4832985096298883E-7</v>
       </c>
       <c r="V15">
-        <v>4.9554757008236024e-05</v>
+        <v>4.9554757008236024E-5</v>
       </c>
       <c r="W15">
-        <v>-6.10072983171746e-05</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>-6.10072983171746E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
       <c r="B16">
-        <v>-0.019636755600888296</v>
+        <v>-1.9636755600888296E-2</v>
       </c>
       <c r="C16">
-        <v>7.5953216481798214e-07</v>
+        <v>7.5953216481798214E-7</v>
       </c>
       <c r="D16">
-        <v>-6.7038047163706636e-07</v>
+        <v>-6.7038047163706636E-7</v>
       </c>
       <c r="E16">
-        <v>7.8880233373053858e-09</v>
+        <v>7.8880233373053858E-9</v>
       </c>
       <c r="F16">
-        <v>2.0714775073959332e-07</v>
+        <v>2.0714775073959332E-7</v>
       </c>
       <c r="G16">
-        <v>2.314120354258204e-06</v>
+        <v>2.314120354258204E-6</v>
       </c>
       <c r="H16">
-        <v>-8.9451320988791462e-11</v>
+        <v>-8.9451320988791462E-11</v>
       </c>
       <c r="I16">
-        <v>-7.2141003498394036e-08</v>
+        <v>-7.2141003498394036E-8</v>
       </c>
       <c r="J16">
-        <v>-3.632798489226808e-06</v>
+        <v>-3.632798489226808E-6</v>
       </c>
       <c r="K16">
-        <v>-7.4343586068787462e-06</v>
+        <v>-7.4343586068787462E-6</v>
       </c>
       <c r="L16">
-        <v>-7.4080580122130805e-06</v>
+        <v>-7.4080580122130805E-6</v>
       </c>
       <c r="M16">
-        <v>-7.2447414872821684e-06</v>
+        <v>-7.2447414872821684E-6</v>
       </c>
       <c r="N16">
-        <v>2.6607845999418355e-05</v>
+        <v>2.6607845999418355E-5</v>
       </c>
       <c r="O16">
-        <v>2.6855445766981229e-05</v>
+        <v>2.6855445766981229E-5</v>
       </c>
       <c r="P16">
-        <v>2.6949070985318957e-05</v>
+        <v>2.6949070985318957E-5</v>
       </c>
       <c r="Q16">
-        <v>3.7829722435506775e-05</v>
+        <v>3.7829722435506775E-5</v>
       </c>
       <c r="R16">
-        <v>9.0545308518893389e-07</v>
+        <v>9.0545308518893389E-7</v>
       </c>
       <c r="S16">
-        <v>-3.9930400098641225e-08</v>
+        <v>-3.9930400098641225E-8</v>
       </c>
       <c r="T16">
-        <v>-9.2283978193022047e-08</v>
+        <v>-9.2283978193022047E-8</v>
       </c>
       <c r="U16">
-        <v>-8.3524859504991147e-07</v>
+        <v>-8.3524859504991147E-7</v>
       </c>
       <c r="V16">
-        <v>-1.0225508076369443e-06</v>
+        <v>-1.0225508076369443E-6</v>
       </c>
       <c r="W16">
-        <v>-1.789162308675783e-05</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>-1.789162308675783E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
       <c r="B17">
-        <v>0.089313046402185431</v>
+        <v>8.9313046402185431E-2</v>
       </c>
       <c r="C17">
-        <v>1.271963702109067e-06</v>
+        <v>1.271963702109067E-6</v>
       </c>
       <c r="D17">
-        <v>-1.4164345413678755e-06</v>
+        <v>-1.4164345413678755E-6</v>
       </c>
       <c r="E17">
-        <v>1.5472056656198025e-08</v>
+        <v>1.5472056656198025E-8</v>
       </c>
       <c r="F17">
-        <v>-4.3740824761927539e-06</v>
+        <v>-4.3740824761927539E-6</v>
       </c>
       <c r="G17">
-        <v>2.1150473544687655e-06</v>
+        <v>2.1150473544687655E-6</v>
       </c>
       <c r="H17">
-        <v>1.6288223690267113e-07</v>
+        <v>1.6288223690267113E-7</v>
       </c>
       <c r="I17">
-        <v>2.6881361916250879e-08</v>
+        <v>2.6881361916250879E-8</v>
       </c>
       <c r="J17">
-        <v>-1.2131121602420204e-05</v>
+        <v>-1.2131121602420204E-5</v>
       </c>
       <c r="K17">
-        <v>-2.3546433459851598e-05</v>
+        <v>-2.3546433459851598E-5</v>
       </c>
       <c r="L17">
-        <v>-2.5533167378453458e-05</v>
+        <v>-2.5533167378453458E-5</v>
       </c>
       <c r="M17">
-        <v>-2.6494759600030859e-05</v>
+        <v>-2.6494759600030859E-5</v>
       </c>
       <c r="N17">
-        <v>6.0612879037040311e-07</v>
+        <v>6.0612879037040311E-7</v>
       </c>
       <c r="O17">
-        <v>2.3302832495415866e-06</v>
+        <v>2.3302832495415866E-6</v>
       </c>
       <c r="P17">
-        <v>2.4856350733548306e-06</v>
+        <v>2.4856350733548306E-6</v>
       </c>
       <c r="Q17">
-        <v>9.0545308518893389e-07</v>
+        <v>9.0545308518893389E-7</v>
       </c>
       <c r="R17">
-        <v>0.00015670511443059327</v>
+        <v>1.5670511443059327E-4</v>
       </c>
       <c r="S17">
-        <v>7.7410704150196652e-08</v>
+        <v>7.7410704150196652E-8</v>
       </c>
       <c r="T17">
-        <v>1.5134363629546563e-06</v>
+        <v>1.5134363629546563E-6</v>
       </c>
       <c r="U17">
-        <v>-1.3500394806490287e-06</v>
+        <v>-1.3500394806490287E-6</v>
       </c>
       <c r="V17">
-        <v>4.8216145251824444e-05</v>
+        <v>4.8216145251824444E-5</v>
       </c>
       <c r="W17">
-        <v>-8.8649223544190928e-05</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>-8.8649223544190928E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
       <c r="B18">
-        <v>0.00092136950778537268</v>
+        <v>9.2136950778537268E-4</v>
       </c>
       <c r="C18">
-        <v>-4.6056211331114222e-08</v>
+        <v>-4.6056211331114222E-8</v>
       </c>
       <c r="D18">
-        <v>-1.7519818906491076e-08</v>
+        <v>-1.7519818906491076E-8</v>
       </c>
       <c r="E18">
-        <v>1.7314233839552872e-10</v>
+        <v>1.7314233839552872E-10</v>
       </c>
       <c r="F18">
-        <v>2.563808435029714e-08</v>
+        <v>2.563808435029714E-8</v>
       </c>
       <c r="G18">
-        <v>-1.715397334683928e-08</v>
+        <v>-1.715397334683928E-8</v>
       </c>
       <c r="H18">
-        <v>3.3239530248624334e-10</v>
+        <v>3.3239530248624334E-10</v>
       </c>
       <c r="I18">
-        <v>2.3750169529830964e-09</v>
+        <v>2.3750169529830964E-9</v>
       </c>
       <c r="J18">
-        <v>-3.1125058306251189e-09</v>
+        <v>-3.1125058306251189E-9</v>
       </c>
       <c r="K18">
-        <v>-1.3170913625806322e-07</v>
+        <v>-1.3170913625806322E-7</v>
       </c>
       <c r="L18">
-        <v>-2.0578065663118315e-07</v>
+        <v>-2.0578065663118315E-7</v>
       </c>
       <c r="M18">
-        <v>-2.0345329743264723e-07</v>
+        <v>-2.0345329743264723E-7</v>
       </c>
       <c r="N18">
-        <v>-5.0326543723558223e-08</v>
+        <v>-5.0326543723558223E-8</v>
       </c>
       <c r="O18">
-        <v>-2.8859692300840721e-08</v>
+        <v>-2.8859692300840721E-8</v>
       </c>
       <c r="P18">
-        <v>-4.5359042264877324e-08</v>
+        <v>-4.5359042264877324E-8</v>
       </c>
       <c r="Q18">
-        <v>-3.9930400098641225e-08</v>
+        <v>-3.9930400098641225E-8</v>
       </c>
       <c r="R18">
-        <v>7.7410704150196652e-08</v>
+        <v>7.7410704150196652E-8</v>
       </c>
       <c r="S18">
-        <v>2.624220070062028e-08</v>
+        <v>2.624220070062028E-8</v>
       </c>
       <c r="T18">
-        <v>-3.7672121204795223e-07</v>
+        <v>-3.7672121204795223E-7</v>
       </c>
       <c r="U18">
-        <v>-4.823175081076111e-07</v>
+        <v>-4.823175081076111E-7</v>
       </c>
       <c r="V18">
-        <v>-2.0941076945431973e-06</v>
+        <v>-2.0941076945431973E-6</v>
       </c>
       <c r="W18">
-        <v>-6.2047212236389585e-07</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>-6.2047212236389585E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
       <c r="B19">
-        <v>0.0062245012297201712</v>
+        <v>6.2245012297201712E-3</v>
       </c>
       <c r="C19">
-        <v>-7.6555364133873366e-07</v>
+        <v>-7.6555364133873366E-7</v>
       </c>
       <c r="D19">
-        <v>-6.1920262790011074e-06</v>
+        <v>-6.1920262790011074E-6</v>
       </c>
       <c r="E19">
-        <v>7.5454734888846687e-08</v>
+        <v>7.5454734888846687E-8</v>
       </c>
       <c r="F19">
-        <v>-2.7753638319107293e-06</v>
+        <v>-2.7753638319107293E-6</v>
       </c>
       <c r="G19">
-        <v>1.5606146623387442e-05</v>
+        <v>1.5606146623387442E-5</v>
       </c>
       <c r="H19">
-        <v>5.0381889612308155e-08</v>
+        <v>5.0381889612308155E-8</v>
       </c>
       <c r="I19">
-        <v>-2.1674460423205684e-07</v>
+        <v>-2.1674460423205684E-7</v>
       </c>
       <c r="J19">
-        <v>-3.0729180899911556e-05</v>
+        <v>-3.0729180899911556E-5</v>
       </c>
       <c r="K19">
-        <v>-6.0635308691845765e-05</v>
+        <v>-6.0635308691845765E-5</v>
       </c>
       <c r="L19">
-        <v>-6.7838067575316406e-05</v>
+        <v>-6.7838067575316406E-5</v>
       </c>
       <c r="M19">
-        <v>-6.9119289664842202e-05</v>
+        <v>-6.9119289664842202E-5</v>
       </c>
       <c r="N19">
-        <v>-2.0484027777916082e-06</v>
+        <v>-2.0484027777916082E-6</v>
       </c>
       <c r="O19">
-        <v>1.0698789766227658e-06</v>
+        <v>1.0698789766227658E-6</v>
       </c>
       <c r="P19">
-        <v>1.5822250471813385e-06</v>
+        <v>1.5822250471813385E-6</v>
       </c>
       <c r="Q19">
-        <v>-9.2283978193022047e-08</v>
+        <v>-9.2283978193022047E-8</v>
       </c>
       <c r="R19">
-        <v>1.5134363629546563e-06</v>
+        <v>1.5134363629546563E-6</v>
       </c>
       <c r="S19">
-        <v>-3.7672121204795223e-07</v>
+        <v>-3.7672121204795223E-7</v>
       </c>
       <c r="T19">
-        <v>8.6456088631339234e-05</v>
+        <v>8.6456088631339234E-5</v>
       </c>
       <c r="U19">
-        <v>1.1219996551260862e-05</v>
+        <v>1.1219996551260862E-5</v>
       </c>
       <c r="V19">
-        <v>0.0002391492982519858</v>
+        <v>2.391492982519858E-4</v>
       </c>
       <c r="W19">
-        <v>-0.00018580069181388934</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>-1.8580069181388934E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
       <c r="B20">
-        <v>-0.016346296665950819</v>
+        <v>-1.6346296665950819E-2</v>
       </c>
       <c r="C20">
-        <v>-1.4418322794137973e-07</v>
+        <v>-1.4418322794137973E-7</v>
       </c>
       <c r="D20">
-        <v>1.5354376099694776e-06</v>
+        <v>1.5354376099694776E-6</v>
       </c>
       <c r="E20">
-        <v>-1.8035694006008437e-08</v>
+        <v>-1.8035694006008437E-8</v>
       </c>
       <c r="F20">
-        <v>1.4323137028340943e-06</v>
+        <v>1.4323137028340943E-6</v>
       </c>
       <c r="G20">
-        <v>-8.8262432999707306e-07</v>
+        <v>-8.8262432999707306E-7</v>
       </c>
       <c r="H20">
-        <v>-4.7653173744185951e-08</v>
+        <v>-4.7653173744185951E-8</v>
       </c>
       <c r="I20">
-        <v>-3.3126276989111385e-08</v>
+        <v>-3.3126276989111385E-8</v>
       </c>
       <c r="J20">
-        <v>7.4441621883989011e-06</v>
+        <v>7.4441621883989011E-6</v>
       </c>
       <c r="K20">
-        <v>1.4928499224466714e-05</v>
+        <v>1.4928499224466714E-5</v>
       </c>
       <c r="L20">
-        <v>1.6476605513574525e-05</v>
+        <v>1.6476605513574525E-5</v>
       </c>
       <c r="M20">
-        <v>1.6922054704051905e-05</v>
+        <v>1.6922054704051905E-5</v>
       </c>
       <c r="N20">
-        <v>-1.4131059656954673e-07</v>
+        <v>-1.4131059656954673E-7</v>
       </c>
       <c r="O20">
-        <v>-1.2768029009950127e-06</v>
+        <v>-1.2768029009950127E-6</v>
       </c>
       <c r="P20">
-        <v>-3.4832985096298883e-07</v>
+        <v>-3.4832985096298883E-7</v>
       </c>
       <c r="Q20">
-        <v>-8.3524859504991147e-07</v>
+        <v>-8.3524859504991147E-7</v>
       </c>
       <c r="R20">
-        <v>-1.3500394806490287e-06</v>
+        <v>-1.3500394806490287E-6</v>
       </c>
       <c r="S20">
-        <v>-4.823175081076111e-07</v>
+        <v>-4.823175081076111E-7</v>
       </c>
       <c r="T20">
-        <v>1.1219996551260862e-05</v>
+        <v>1.1219996551260862E-5</v>
       </c>
       <c r="U20">
-        <v>8.8873173955185259e-05</v>
+        <v>8.8873173955185259E-5</v>
       </c>
       <c r="V20">
-        <v>-3.3628496405687935e-06</v>
+        <v>-3.3628496405687935E-6</v>
       </c>
       <c r="W20">
-        <v>4.653303613052025e-05</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>4.653303613052025E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -6304,70 +6604,70 @@
         <v>0.60592151567142871</v>
       </c>
       <c r="C21">
-        <v>-7.7439097670995628e-06</v>
+        <v>-7.7439097670995628E-6</v>
       </c>
       <c r="D21">
-        <v>-0.00027068070388926749</v>
+        <v>-2.7068070388926749E-4</v>
       </c>
       <c r="E21">
-        <v>3.1562671385628023e-06</v>
+        <v>3.1562671385628023E-6</v>
       </c>
       <c r="F21">
-        <v>-0.00050643826020385001</v>
+        <v>-5.0643826020385001E-4</v>
       </c>
       <c r="G21">
-        <v>0.00011809779953667602</v>
+        <v>1.1809779953667602E-4</v>
       </c>
       <c r="H21">
-        <v>1.1074650930368207e-05</v>
+        <v>1.1074650930368207E-5</v>
       </c>
       <c r="I21">
-        <v>2.2420853471717389e-06</v>
+        <v>2.2420853471717389E-6</v>
       </c>
       <c r="J21">
-        <v>-0.0023200130782038619</v>
+        <v>-2.3200130782038619E-3</v>
       </c>
       <c r="K21">
-        <v>-0.0034533272165144999</v>
+        <v>-3.4533272165144999E-3</v>
       </c>
       <c r="L21">
-        <v>-0.003714004004424125</v>
+        <v>-3.714004004424125E-3</v>
       </c>
       <c r="M21">
-        <v>-0.0037972162758293281</v>
+        <v>-3.7972162758293281E-3</v>
       </c>
       <c r="N21">
-        <v>-7.7266189159671815e-05</v>
+        <v>-7.7266189159671815E-5</v>
       </c>
       <c r="O21">
-        <v>4.7201468949169018e-05</v>
+        <v>4.7201468949169018E-5</v>
       </c>
       <c r="P21">
-        <v>4.9554757008236024e-05</v>
+        <v>4.9554757008236024E-5</v>
       </c>
       <c r="Q21">
-        <v>-1.0225508076369443e-06</v>
+        <v>-1.0225508076369443E-6</v>
       </c>
       <c r="R21">
-        <v>4.8216145251824444e-05</v>
+        <v>4.8216145251824444E-5</v>
       </c>
       <c r="S21">
-        <v>-2.0941076945431973e-06</v>
+        <v>-2.0941076945431973E-6</v>
       </c>
       <c r="T21">
-        <v>0.0002391492982519858</v>
+        <v>2.391492982519858E-4</v>
       </c>
       <c r="U21">
-        <v>-3.3628496405687935e-06</v>
+        <v>-3.3628496405687935E-6</v>
       </c>
       <c r="V21">
-        <v>0.010014188860887818</v>
+        <v>1.0014188860887818E-2</v>
       </c>
       <c r="W21">
-        <v>-0.0068633092219344445</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>-6.8633092219344445E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -6375,69 +6675,70 @@
         <v>-0.52623779443114893</v>
       </c>
       <c r="C22">
-        <v>9.5290420813499604e-06</v>
+        <v>9.5290420813499604E-6</v>
       </c>
       <c r="D22">
-        <v>0.000211687281128268</v>
+        <v>2.11687281128268E-4</v>
       </c>
       <c r="E22">
-        <v>-2.5550678443893168e-06</v>
+        <v>-2.5550678443893168E-6</v>
       </c>
       <c r="F22">
-        <v>0.00015054492978484828</v>
+        <v>1.5054492978484828E-4</v>
       </c>
       <c r="G22">
-        <v>-0.0004303779294505138</v>
+        <v>-4.303779294505138E-4</v>
       </c>
       <c r="H22">
-        <v>-3.3633505240804736e-06</v>
+        <v>-3.3633505240804736E-6</v>
       </c>
       <c r="I22">
-        <v>4.5450041182570334e-06</v>
+        <v>4.5450041182570334E-6</v>
       </c>
       <c r="J22">
-        <v>0.00098395537889925215</v>
+        <v>9.8395537889925215E-4</v>
       </c>
       <c r="K22">
-        <v>0.0020395056304370841</v>
+        <v>2.0395056304370841E-3</v>
       </c>
       <c r="L22">
-        <v>0.0022851689451956186</v>
+        <v>2.2851689451956186E-3</v>
       </c>
       <c r="M22">
-        <v>0.0023300807872463905</v>
+        <v>2.3300807872463905E-3</v>
       </c>
       <c r="N22">
-        <v>5.2455898638150565e-05</v>
+        <v>5.2455898638150565E-5</v>
       </c>
       <c r="O22">
-        <v>-6.3894914669658856e-05</v>
+        <v>-6.3894914669658856E-5</v>
       </c>
       <c r="P22">
-        <v>-6.10072983171746e-05</v>
+        <v>-6.10072983171746E-5</v>
       </c>
       <c r="Q22">
-        <v>-1.789162308675783e-05</v>
+        <v>-1.789162308675783E-5</v>
       </c>
       <c r="R22">
-        <v>-8.8649223544190928e-05</v>
+        <v>-8.8649223544190928E-5</v>
       </c>
       <c r="S22">
-        <v>-6.2047212236389585e-07</v>
+        <v>-6.2047212236389585E-7</v>
       </c>
       <c r="T22">
-        <v>-0.00018580069181388934</v>
+        <v>-1.8580069181388934E-4</v>
       </c>
       <c r="U22">
-        <v>4.653303613052025e-05</v>
+        <v>4.653303613052025E-5</v>
       </c>
       <c r="V22">
-        <v>-0.0068633092219344445</v>
+        <v>-6.8633092219344445E-3</v>
       </c>
       <c r="W22">
-        <v>0.0063438279733214363</v>
+        <v>6.3438279733214363E-3</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>